--- a/AAII_Financials/Quarterly/PFHO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFHO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>PFHO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,104 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="E8" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F8" s="3">
         <v>1800</v>
       </c>
       <c r="G8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I8" s="3">
         <v>1900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1700</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1600</v>
       </c>
       <c r="K8" s="3">
         <v>1700</v>
@@ -767,16 +774,22 @@
         <v>1700</v>
       </c>
       <c r="N8" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="O8" s="3">
         <v>1700</v>
       </c>
       <c r="P8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -801,11 +814,11 @@
       <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
+      <c r="K9" s="3">
+        <v>300</v>
+      </c>
+      <c r="L9" s="3">
+        <v>200</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>5</v>
@@ -819,37 +832,43 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E10" s="3">
         <v>1600</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1500</v>
       </c>
       <c r="F10" s="3">
         <v>1600</v>
       </c>
       <c r="G10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H10" s="3">
         <v>1600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J10" s="3">
         <v>1500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1400</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>5</v>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,13 +1123,15 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E17" s="3">
         <v>1500</v>
@@ -1087,25 +1140,25 @@
         <v>1300</v>
       </c>
       <c r="G17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I17" s="3">
         <v>1400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1000</v>
       </c>
       <c r="K17" s="3">
         <v>1200</v>
       </c>
       <c r="L17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M17" s="3">
         <v>1200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1300</v>
       </c>
       <c r="N17" s="3">
         <v>1200</v>
@@ -1114,24 +1167,30 @@
         <v>1300</v>
       </c>
       <c r="P17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E18" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F18" s="3">
         <v>500</v>
       </c>
       <c r="G18" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H18" s="3">
         <v>500</v>
@@ -1140,19 +1199,19 @@
         <v>500</v>
       </c>
       <c r="J18" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K18" s="3">
         <v>500</v>
       </c>
       <c r="L18" s="3">
+        <v>600</v>
+      </c>
+      <c r="M18" s="3">
+        <v>500</v>
+      </c>
+      <c r="N18" s="3">
         <v>400</v>
-      </c>
-      <c r="M18" s="3">
-        <v>400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>300</v>
       </c>
       <c r="O18" s="3">
         <v>400</v>
@@ -1160,8 +1219,14 @@
       <c r="P18" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>400</v>
+      </c>
+      <c r="R18" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,13 +1289,19 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E21" s="3">
         <v>400</v>
@@ -1237,7 +1310,7 @@
         <v>500</v>
       </c>
       <c r="G21" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H21" s="3">
         <v>500</v>
@@ -1246,16 +1319,16 @@
         <v>500</v>
       </c>
       <c r="J21" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K21" s="3">
         <v>500</v>
       </c>
       <c r="L21" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M21" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N21" s="3">
         <v>400</v>
@@ -1264,10 +1337,16 @@
         <v>400</v>
       </c>
       <c r="P21" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>400</v>
+      </c>
+      <c r="R21" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1295,55 +1374,61 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>400</v>
+      </c>
+      <c r="F23" s="3">
         <v>500</v>
       </c>
-      <c r="E23" s="3">
-        <v>300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>400</v>
-      </c>
       <c r="G23" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H23" s="3">
         <v>400</v>
       </c>
       <c r="I23" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J23" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K23" s="3">
         <v>500</v>
       </c>
       <c r="L23" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M23" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N23" s="3">
         <v>400</v>
@@ -1352,15 +1437,21 @@
         <v>400</v>
       </c>
       <c r="P23" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>400</v>
+      </c>
+      <c r="R23" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
@@ -1378,10 +1469,10 @@
         <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>200</v>
@@ -1396,10 +1487,16 @@
         <v>200</v>
       </c>
       <c r="P24" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>200</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,22 +1539,28 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>300</v>
+      </c>
+      <c r="F26" s="3">
         <v>400</v>
       </c>
-      <c r="E26" s="3">
-        <v>200</v>
-      </c>
-      <c r="F26" s="3">
-        <v>300</v>
-      </c>
       <c r="G26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H26" s="3">
         <v>300</v>
@@ -1466,16 +1569,16 @@
         <v>300</v>
       </c>
       <c r="J26" s="3">
+        <v>300</v>
+      </c>
+      <c r="K26" s="3">
+        <v>300</v>
+      </c>
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
-        <v>300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>200</v>
-      </c>
       <c r="M26" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N26" s="3">
         <v>200</v>
@@ -1486,22 +1589,28 @@
       <c r="P26" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>200</v>
+      </c>
+      <c r="R26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>300</v>
+      </c>
+      <c r="F27" s="3">
         <v>400</v>
       </c>
-      <c r="E27" s="3">
-        <v>200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>300</v>
-      </c>
       <c r="G27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H27" s="3">
         <v>300</v>
@@ -1510,16 +1619,16 @@
         <v>300</v>
       </c>
       <c r="J27" s="3">
+        <v>300</v>
+      </c>
+      <c r="K27" s="3">
+        <v>300</v>
+      </c>
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
-        <v>300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>200</v>
-      </c>
       <c r="M27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N27" s="3">
         <v>200</v>
@@ -1530,8 +1639,14 @@
       <c r="P27" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>200</v>
+      </c>
+      <c r="R27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,16 +1689,22 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
@@ -1600,14 +1721,14 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,22 +1889,28 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>300</v>
+      </c>
+      <c r="F33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
-        <v>200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>300</v>
-      </c>
       <c r="G33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H33" s="3">
         <v>300</v>
@@ -1774,16 +1919,16 @@
         <v>300</v>
       </c>
       <c r="J33" s="3">
+        <v>300</v>
+      </c>
+      <c r="K33" s="3">
+        <v>300</v>
+      </c>
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
-        <v>300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>200</v>
-      </c>
       <c r="M33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N33" s="3">
         <v>200</v>
@@ -1794,8 +1939,14 @@
       <c r="P33" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>200</v>
+      </c>
+      <c r="R33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,22 +1989,28 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>300</v>
+      </c>
+      <c r="F35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
-        <v>200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>300</v>
-      </c>
       <c r="G35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H35" s="3">
         <v>300</v>
@@ -1862,16 +2019,16 @@
         <v>300</v>
       </c>
       <c r="J35" s="3">
+        <v>300</v>
+      </c>
+      <c r="K35" s="3">
+        <v>300</v>
+      </c>
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
-        <v>300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>200</v>
-      </c>
       <c r="M35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N35" s="3">
         <v>200</v>
@@ -1882,57 +2039,69 @@
       <c r="P35" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>200</v>
+      </c>
+      <c r="R35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E41" s="3">
         <v>8100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>8100</v>
+      </c>
+      <c r="G41" s="3">
         <v>7600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>7400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>7100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>6800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>6500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>6700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>5800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>5600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>5400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>5100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>5000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2067,40 +2252,46 @@
         <v>1100</v>
       </c>
       <c r="F43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G43" s="3">
         <v>1100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I43" s="3">
         <v>1000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2164,19 +2361,19 @@
         <v>300</v>
       </c>
       <c r="I45" s="3">
+        <v>300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>300</v>
+      </c>
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
-        <v>200</v>
-      </c>
-      <c r="K45" s="3">
-        <v>200</v>
-      </c>
       <c r="L45" s="3">
         <v>200</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
@@ -2187,52 +2384,64 @@
       <c r="P45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F46" s="3">
         <v>9400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>8900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>8800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>8300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>8100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>7700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>7600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>7100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>6800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>6600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>6400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>6000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,34 +2484,40 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F48" s="3">
         <v>800</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
@@ -2319,8 +2534,14 @@
       <c r="P48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>200</v>
+      </c>
+      <c r="R48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>10300</v>
+      </c>
+      <c r="F54" s="3">
         <v>10100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>9700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>9700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>8500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>8300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>7900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>7800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>7300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>7000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>6800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>6600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>6300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2628,16 +2889,16 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -2649,13 +2910,13 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
@@ -2663,8 +2924,14 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,8 +2974,14 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2719,84 +2992,96 @@
         <v>600</v>
       </c>
       <c r="F59" s="3">
+        <v>600</v>
+      </c>
+      <c r="G59" s="3">
+        <v>600</v>
+      </c>
+      <c r="H59" s="3">
         <v>700</v>
-      </c>
-      <c r="G59" s="3">
-        <v>400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>500</v>
       </c>
       <c r="I59" s="3">
         <v>400</v>
       </c>
       <c r="J59" s="3">
+        <v>500</v>
+      </c>
+      <c r="K59" s="3">
+        <v>400</v>
+      </c>
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E60" s="3">
         <v>700</v>
       </c>
       <c r="F60" s="3">
+        <v>700</v>
+      </c>
+      <c r="G60" s="3">
+        <v>700</v>
+      </c>
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
-      </c>
-      <c r="I60" s="3">
-        <v>500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>600</v>
       </c>
       <c r="K60" s="3">
         <v>500</v>
       </c>
       <c r="L60" s="3">
+        <v>600</v>
+      </c>
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
+        <v>500</v>
+      </c>
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,25 +3124,31 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>300</v>
+      </c>
+      <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>500</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
@@ -2865,11 +3156,11 @@
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,8 +3324,14 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3024,43 +3339,49 @@
         <v>1100</v>
       </c>
       <c r="E66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H66" s="3">
         <v>1300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>500</v>
-      </c>
-      <c r="J66" s="3">
-        <v>600</v>
       </c>
       <c r="K66" s="3">
         <v>500</v>
       </c>
       <c r="L66" s="3">
+        <v>600</v>
+      </c>
+      <c r="M66" s="3">
         <v>500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
+        <v>500</v>
+      </c>
+      <c r="O66" s="3">
         <v>600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F72" s="3">
         <v>8600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>8200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>8000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>7700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>7300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>7000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>6700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>6300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>6000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>5800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>5600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>5300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F76" s="3">
         <v>9000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>8600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>8400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>8100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>7800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>7400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>7100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>6700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>6500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>6200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>6000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>5800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,71 +3894,83 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>300</v>
+      </c>
+      <c r="F81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
-        <v>200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>300</v>
-      </c>
       <c r="G81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H81" s="3">
         <v>300</v>
@@ -3590,16 +3979,16 @@
         <v>300</v>
       </c>
       <c r="J81" s="3">
+        <v>300</v>
+      </c>
+      <c r="K81" s="3">
+        <v>300</v>
+      </c>
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
-        <v>300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>200</v>
-      </c>
       <c r="M81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N81" s="3">
         <v>200</v>
@@ -3610,8 +3999,14 @@
       <c r="P81" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>200</v>
+      </c>
+      <c r="R81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,20 +4319,26 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>600</v>
       </c>
-      <c r="E89" s="3">
-        <v>200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>300</v>
-      </c>
       <c r="G89" s="3">
         <v>200</v>
       </c>
@@ -3913,31 +4346,37 @@
         <v>300</v>
       </c>
       <c r="I89" s="3">
+        <v>200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>900</v>
       </c>
-      <c r="K89" s="3">
-        <v>200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>200</v>
-      </c>
       <c r="M89" s="3">
+        <v>200</v>
+      </c>
+      <c r="N89" s="3">
+        <v>200</v>
+      </c>
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
-        <v>200</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
+        <v>200</v>
+      </c>
+      <c r="R89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4859,14 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,20 +4909,26 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
-        <v>200</v>
-      </c>
-      <c r="F102" s="3">
-        <v>300</v>
-      </c>
       <c r="G102" s="3">
         <v>200</v>
       </c>
@@ -4433,27 +4936,33 @@
         <v>300</v>
       </c>
       <c r="I102" s="3">
+        <v>200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>900</v>
       </c>
-      <c r="K102" s="3">
-        <v>200</v>
-      </c>
-      <c r="L102" s="3">
-        <v>200</v>
-      </c>
       <c r="M102" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N102" s="3">
+        <v>200</v>
+      </c>
+      <c r="O102" s="3">
+        <v>300</v>
+      </c>
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
-        <v>200</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>200</v>
+      </c>
+      <c r="R102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFHO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFHO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>PFHO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1900</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1800</v>
       </c>
       <c r="G8" s="3">
         <v>1800</v>
@@ -759,37 +763,40 @@
         <v>1800</v>
       </c>
       <c r="I8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J8" s="3">
         <v>1900</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1700</v>
       </c>
       <c r="K8" s="3">
         <v>1700</v>
       </c>
       <c r="L8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M8" s="3">
         <v>1600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -797,31 +804,31 @@
         <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L9" s="3">
-        <v>200</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
+        <v>300</v>
+      </c>
+      <c r="M9" s="3">
+        <v>200</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>5</v>
@@ -838,40 +845,43 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1400</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1600</v>
       </c>
       <c r="F10" s="3">
         <v>1600</v>
       </c>
       <c r="G10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H10" s="3">
         <v>1500</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1600</v>
       </c>
       <c r="I10" s="3">
         <v>1600</v>
       </c>
       <c r="J10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K10" s="3">
         <v>1500</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1400</v>
       </c>
       <c r="L10" s="3">
         <v>1400</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
+      <c r="M10" s="3">
+        <v>1400</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>5</v>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,58 +1151,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1200</v>
       </c>
       <c r="K17" s="3">
         <v>1200</v>
       </c>
       <c r="L17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M17" s="3">
         <v>1000</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1200</v>
       </c>
       <c r="N17" s="3">
         <v>1200</v>
       </c>
       <c r="O17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P17" s="3">
         <v>1300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,16 +1214,16 @@
         <v>200</v>
       </c>
       <c r="E18" s="3">
+        <v>200</v>
+      </c>
+      <c r="F18" s="3">
         <v>400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>500</v>
       </c>
-      <c r="G18" s="3">
-        <v>300</v>
-      </c>
       <c r="H18" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I18" s="3">
         <v>500</v>
@@ -1205,28 +1235,31 @@
         <v>500</v>
       </c>
       <c r="L18" s="3">
+        <v>500</v>
+      </c>
+      <c r="M18" s="3">
         <v>600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>500</v>
-      </c>
-      <c r="N18" s="3">
-        <v>400</v>
       </c>
       <c r="O18" s="3">
         <v>400</v>
       </c>
       <c r="P18" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q18" s="3">
+        <v>300</v>
+      </c>
+      <c r="R18" s="3">
         <v>400</v>
       </c>
-      <c r="R18" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,16 +1341,16 @@
         <v>200</v>
       </c>
       <c r="E21" s="3">
+        <v>200</v>
+      </c>
+      <c r="F21" s="3">
         <v>400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>400</v>
-      </c>
-      <c r="H21" s="3">
-        <v>500</v>
       </c>
       <c r="I21" s="3">
         <v>500</v>
@@ -1325,13 +1362,13 @@
         <v>500</v>
       </c>
       <c r="L21" s="3">
+        <v>500</v>
+      </c>
+      <c r="M21" s="3">
         <v>600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>500</v>
-      </c>
-      <c r="N21" s="3">
-        <v>400</v>
       </c>
       <c r="O21" s="3">
         <v>400</v>
@@ -1343,10 +1380,13 @@
         <v>400</v>
       </c>
       <c r="R21" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="S21" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1380,8 +1420,8 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>5</v>
@@ -1389,31 +1429,34 @@
       <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
+        <v>200</v>
+      </c>
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>500</v>
       </c>
-      <c r="G23" s="3">
-        <v>300</v>
-      </c>
       <c r="H23" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I23" s="3">
         <v>400</v>
@@ -1422,16 +1465,16 @@
         <v>400</v>
       </c>
       <c r="K23" s="3">
+        <v>400</v>
+      </c>
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>500</v>
-      </c>
-      <c r="N23" s="3">
-        <v>400</v>
       </c>
       <c r="O23" s="3">
         <v>400</v>
@@ -1443,10 +1486,13 @@
         <v>400</v>
       </c>
       <c r="R23" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="S23" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1454,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
@@ -1475,7 +1521,7 @@
         <v>100</v>
       </c>
       <c r="L24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>200</v>
@@ -1493,10 +1539,13 @@
         <v>200</v>
       </c>
       <c r="R24" s="3">
+        <v>200</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1554,16 +1606,16 @@
         <v>100</v>
       </c>
       <c r="E26" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3">
+        <v>300</v>
+      </c>
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="G26" s="3">
-        <v>200</v>
-      </c>
       <c r="H26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I26" s="3">
         <v>300</v>
@@ -1575,13 +1627,13 @@
         <v>300</v>
       </c>
       <c r="L26" s="3">
+        <v>300</v>
+      </c>
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
-        <v>300</v>
-      </c>
       <c r="N26" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O26" s="3">
         <v>200</v>
@@ -1595,8 +1647,11 @@
       <c r="R26" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1604,16 +1659,16 @@
         <v>100</v>
       </c>
       <c r="E27" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3">
+        <v>300</v>
+      </c>
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3">
-        <v>200</v>
-      </c>
       <c r="H27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I27" s="3">
         <v>300</v>
@@ -1625,13 +1680,13 @@
         <v>300</v>
       </c>
       <c r="L27" s="3">
+        <v>300</v>
+      </c>
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3">
-        <v>300</v>
-      </c>
       <c r="N27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O27" s="3">
         <v>200</v>
@@ -1645,8 +1700,11 @@
       <c r="R27" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,19 +1753,22 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
@@ -1727,11 +1788,11 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1895,8 +1965,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1904,16 +1977,16 @@
         <v>100</v>
       </c>
       <c r="E33" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3">
+        <v>300</v>
+      </c>
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
-        <v>200</v>
-      </c>
       <c r="H33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I33" s="3">
         <v>300</v>
@@ -1925,13 +1998,13 @@
         <v>300</v>
       </c>
       <c r="L33" s="3">
+        <v>300</v>
+      </c>
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3">
-        <v>300</v>
-      </c>
       <c r="N33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O33" s="3">
         <v>200</v>
@@ -1945,8 +2018,11 @@
       <c r="R33" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2004,16 +2083,16 @@
         <v>100</v>
       </c>
       <c r="E35" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3">
+        <v>300</v>
+      </c>
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
-        <v>200</v>
-      </c>
       <c r="H35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I35" s="3">
         <v>300</v>
@@ -2025,13 +2104,13 @@
         <v>300</v>
       </c>
       <c r="L35" s="3">
+        <v>300</v>
+      </c>
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3">
-        <v>300</v>
-      </c>
       <c r="N35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O35" s="3">
         <v>200</v>
@@ -2045,63 +2124,69 @@
       <c r="R35" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8500</v>
-      </c>
-      <c r="E41" s="3">
-        <v>8100</v>
       </c>
       <c r="F41" s="3">
         <v>8100</v>
       </c>
       <c r="G41" s="3">
+        <v>8100</v>
+      </c>
+      <c r="H41" s="3">
         <v>7600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2249,49 +2342,52 @@
         <v>1000</v>
       </c>
       <c r="E43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F43" s="3">
         <v>1100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1000</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1100</v>
       </c>
       <c r="H43" s="3">
         <v>1100</v>
       </c>
       <c r="I43" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="J43" s="3">
         <v>1000</v>
       </c>
       <c r="K43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L43" s="3">
         <v>800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>700</v>
-      </c>
-      <c r="M43" s="3">
-        <v>1000</v>
       </c>
       <c r="N43" s="3">
         <v>1000</v>
       </c>
       <c r="O43" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="P43" s="3">
         <v>1100</v>
       </c>
       <c r="Q43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R43" s="3">
         <v>800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,13 +2436,16 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
@@ -2367,11 +2466,11 @@
         <v>300</v>
       </c>
       <c r="K45" s="3">
+        <v>300</v>
+      </c>
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
-        <v>200</v>
-      </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
@@ -2379,69 +2478,75 @@
         <v>200</v>
       </c>
       <c r="O45" s="3">
+        <v>200</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
-        <v>200</v>
-      </c>
       <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E46" s="3">
         <v>9800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2499,10 +2607,10 @@
         <v>600</v>
       </c>
       <c r="E48" s="3">
+        <v>600</v>
+      </c>
+      <c r="F48" s="3">
         <v>700</v>
-      </c>
-      <c r="F48" s="3">
-        <v>800</v>
       </c>
       <c r="G48" s="3">
         <v>800</v>
@@ -2511,7 +2619,7 @@
         <v>800</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -2520,7 +2628,7 @@
         <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>200</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E54" s="3">
         <v>10500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10100</v>
-      </c>
-      <c r="G54" s="3">
-        <v>9700</v>
       </c>
       <c r="H54" s="3">
         <v>9700</v>
       </c>
       <c r="I54" s="3">
+        <v>9700</v>
+      </c>
+      <c r="J54" s="3">
         <v>8500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2895,25 +3026,25 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -2922,39 +3053,42 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2998,40 +3135,43 @@
         <v>600</v>
       </c>
       <c r="H59" s="3">
+        <v>600</v>
+      </c>
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
-      </c>
-      <c r="O59" s="3">
-        <v>600</v>
       </c>
       <c r="P59" s="3">
         <v>600</v>
       </c>
       <c r="Q59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="R59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3039,7 +3179,7 @@
         <v>800</v>
       </c>
       <c r="E60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F60" s="3">
         <v>700</v>
@@ -3048,45 +3188,48 @@
         <v>700</v>
       </c>
       <c r="H60" s="3">
+        <v>700</v>
+      </c>
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>500</v>
       </c>
       <c r="K60" s="3">
         <v>500</v>
       </c>
       <c r="L60" s="3">
+        <v>500</v>
+      </c>
+      <c r="M60" s="3">
         <v>600</v>
-      </c>
-      <c r="M60" s="3">
-        <v>500</v>
       </c>
       <c r="N60" s="3">
         <v>500</v>
       </c>
       <c r="O60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="P60" s="3">
         <v>600</v>
       </c>
       <c r="Q60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="R60" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3130,29 +3273,32 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
         <v>300</v>
       </c>
       <c r="F62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G62" s="3">
         <v>400</v>
       </c>
       <c r="H62" s="3">
+        <v>400</v>
+      </c>
+      <c r="I62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3162,8 +3308,8 @@
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1000</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1100</v>
       </c>
       <c r="G66" s="3">
         <v>1100</v>
       </c>
       <c r="H66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I66" s="3">
         <v>1300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>500</v>
       </c>
       <c r="K66" s="3">
         <v>500</v>
       </c>
       <c r="L66" s="3">
+        <v>500</v>
+      </c>
+      <c r="M66" s="3">
         <v>600</v>
-      </c>
-      <c r="M66" s="3">
-        <v>500</v>
       </c>
       <c r="N66" s="3">
         <v>500</v>
       </c>
       <c r="O66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="P66" s="3">
         <v>600</v>
       </c>
       <c r="Q66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="R66" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E72" s="3">
         <v>9000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>7700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>7300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E76" s="3">
         <v>9400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3964,16 +4159,16 @@
         <v>100</v>
       </c>
       <c r="E81" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F81" s="3">
+        <v>300</v>
+      </c>
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
-        <v>200</v>
-      </c>
       <c r="H81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I81" s="3">
         <v>300</v>
@@ -3985,13 +4180,13 @@
         <v>300</v>
       </c>
       <c r="L81" s="3">
+        <v>300</v>
+      </c>
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3">
-        <v>300</v>
-      </c>
       <c r="N81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O81" s="3">
         <v>200</v>
@@ -4005,8 +4200,11 @@
       <c r="R81" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>400</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>600</v>
       </c>
-      <c r="G89" s="3">
-        <v>200</v>
-      </c>
       <c r="H89" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I89" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J89" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K89" s="3">
+        <v>300</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>900</v>
       </c>
-      <c r="M89" s="3">
-        <v>200</v>
-      </c>
       <c r="N89" s="3">
         <v>200</v>
       </c>
       <c r="O89" s="3">
+        <v>200</v>
+      </c>
+      <c r="P89" s="3">
         <v>400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>200</v>
-      </c>
       <c r="R89" s="3">
+        <v>200</v>
+      </c>
+      <c r="S89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,13 +5058,16 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>500</v>
+      </c>
+      <c r="E102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
-        <v>200</v>
-      </c>
       <c r="H102" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I102" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J102" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K102" s="3">
+        <v>300</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>900</v>
       </c>
-      <c r="M102" s="3">
-        <v>200</v>
-      </c>
       <c r="N102" s="3">
         <v>200</v>
       </c>
       <c r="O102" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P102" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>200</v>
-      </c>
       <c r="R102" s="3">
+        <v>200</v>
+      </c>
+      <c r="S102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFHO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFHO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>PFHO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,103 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1900</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1800</v>
       </c>
       <c r="H8" s="3">
         <v>1800</v>
@@ -766,37 +770,40 @@
         <v>1800</v>
       </c>
       <c r="J8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K8" s="3">
         <v>1900</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1700</v>
       </c>
       <c r="L8" s="3">
         <v>1700</v>
       </c>
       <c r="M8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N8" s="3">
         <v>1600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -807,31 +814,31 @@
         <v>200</v>
       </c>
       <c r="F9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M9" s="3">
-        <v>200</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
+        <v>300</v>
+      </c>
+      <c r="N9" s="3">
+        <v>200</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>5</v>
@@ -848,43 +855,46 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E10" s="3">
         <v>1300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1400</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1600</v>
       </c>
       <c r="G10" s="3">
         <v>1600</v>
       </c>
       <c r="H10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I10" s="3">
         <v>1500</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1600</v>
       </c>
       <c r="J10" s="3">
         <v>1600</v>
       </c>
       <c r="K10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L10" s="3">
         <v>1500</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1400</v>
       </c>
       <c r="M10" s="3">
         <v>1400</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
+      <c r="N10" s="3">
+        <v>1400</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>5</v>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,61 +1178,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1200</v>
       </c>
       <c r="L17" s="3">
         <v>1200</v>
       </c>
       <c r="M17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N17" s="3">
         <v>1000</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1200</v>
       </c>
       <c r="O17" s="3">
         <v>1200</v>
       </c>
       <c r="P17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1217,16 +1247,16 @@
         <v>200</v>
       </c>
       <c r="F18" s="3">
+        <v>200</v>
+      </c>
+      <c r="G18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>500</v>
       </c>
-      <c r="H18" s="3">
-        <v>300</v>
-      </c>
       <c r="I18" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J18" s="3">
         <v>500</v>
@@ -1238,28 +1268,31 @@
         <v>500</v>
       </c>
       <c r="M18" s="3">
+        <v>500</v>
+      </c>
+      <c r="N18" s="3">
         <v>600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>500</v>
-      </c>
-      <c r="O18" s="3">
-        <v>400</v>
       </c>
       <c r="P18" s="3">
         <v>400</v>
       </c>
       <c r="Q18" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R18" s="3">
+        <v>300</v>
+      </c>
+      <c r="S18" s="3">
         <v>400</v>
       </c>
-      <c r="S18" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1344,16 +1381,16 @@
         <v>200</v>
       </c>
       <c r="F21" s="3">
+        <v>200</v>
+      </c>
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>400</v>
-      </c>
-      <c r="I21" s="3">
-        <v>500</v>
       </c>
       <c r="J21" s="3">
         <v>500</v>
@@ -1365,13 +1402,13 @@
         <v>500</v>
       </c>
       <c r="M21" s="3">
+        <v>500</v>
+      </c>
+      <c r="N21" s="3">
         <v>600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>500</v>
-      </c>
-      <c r="O21" s="3">
-        <v>400</v>
       </c>
       <c r="P21" s="3">
         <v>400</v>
@@ -1383,10 +1420,13 @@
         <v>400</v>
       </c>
       <c r="S21" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="T21" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1423,8 +1463,8 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>5</v>
@@ -1432,34 +1472,37 @@
       <c r="Q22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
-        <v>200</v>
-      </c>
       <c r="F23" s="3">
+        <v>200</v>
+      </c>
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>500</v>
       </c>
-      <c r="H23" s="3">
-        <v>300</v>
-      </c>
       <c r="I23" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J23" s="3">
         <v>400</v>
@@ -1468,16 +1511,16 @@
         <v>400</v>
       </c>
       <c r="L23" s="3">
+        <v>400</v>
+      </c>
+      <c r="M23" s="3">
         <v>500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>500</v>
-      </c>
-      <c r="O23" s="3">
-        <v>400</v>
       </c>
       <c r="P23" s="3">
         <v>400</v>
@@ -1489,21 +1532,24 @@
         <v>400</v>
       </c>
       <c r="S23" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="T23" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
@@ -1524,7 +1570,7 @@
         <v>100</v>
       </c>
       <c r="M24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>200</v>
@@ -1542,10 +1588,13 @@
         <v>200</v>
       </c>
       <c r="S24" s="3">
+        <v>200</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1609,16 +1661,16 @@
         <v>100</v>
       </c>
       <c r="F26" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G26" s="3">
+        <v>300</v>
+      </c>
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
-        <v>200</v>
-      </c>
       <c r="I26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J26" s="3">
         <v>300</v>
@@ -1630,13 +1682,13 @@
         <v>300</v>
       </c>
       <c r="M26" s="3">
+        <v>300</v>
+      </c>
+      <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
-        <v>300</v>
-      </c>
       <c r="O26" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P26" s="3">
         <v>200</v>
@@ -1650,8 +1702,11 @@
       <c r="S26" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1662,16 +1717,16 @@
         <v>100</v>
       </c>
       <c r="F27" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G27" s="3">
+        <v>300</v>
+      </c>
+      <c r="H27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
-        <v>200</v>
-      </c>
       <c r="I27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J27" s="3">
         <v>300</v>
@@ -1683,13 +1738,13 @@
         <v>300</v>
       </c>
       <c r="M27" s="3">
+        <v>300</v>
+      </c>
+      <c r="N27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
-        <v>300</v>
-      </c>
       <c r="O27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P27" s="3">
         <v>200</v>
@@ -1703,8 +1758,11 @@
       <c r="S27" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1767,11 +1828,11 @@
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
@@ -1791,11 +1852,11 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,8 +2038,11 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1980,16 +2053,16 @@
         <v>100</v>
       </c>
       <c r="F33" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G33" s="3">
+        <v>300</v>
+      </c>
+      <c r="H33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
-        <v>200</v>
-      </c>
       <c r="I33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J33" s="3">
         <v>300</v>
@@ -2001,13 +2074,13 @@
         <v>300</v>
       </c>
       <c r="M33" s="3">
+        <v>300</v>
+      </c>
+      <c r="N33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3">
-        <v>300</v>
-      </c>
       <c r="O33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P33" s="3">
         <v>200</v>
@@ -2021,8 +2094,11 @@
       <c r="S33" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2086,16 +2165,16 @@
         <v>100</v>
       </c>
       <c r="F35" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G35" s="3">
+        <v>300</v>
+      </c>
+      <c r="H35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
-        <v>200</v>
-      </c>
       <c r="I35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J35" s="3">
         <v>300</v>
@@ -2107,13 +2186,13 @@
         <v>300</v>
       </c>
       <c r="M35" s="3">
+        <v>300</v>
+      </c>
+      <c r="N35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3">
-        <v>300</v>
-      </c>
       <c r="O35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P35" s="3">
         <v>200</v>
@@ -2127,66 +2206,72 @@
       <c r="S35" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E41" s="3">
         <v>9000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8500</v>
-      </c>
-      <c r="F41" s="3">
-        <v>8100</v>
       </c>
       <c r="G41" s="3">
         <v>8100</v>
       </c>
       <c r="H41" s="3">
+        <v>8100</v>
+      </c>
+      <c r="I41" s="3">
         <v>7600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2345,49 +2438,52 @@
         <v>1000</v>
       </c>
       <c r="F43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G43" s="3">
         <v>1100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1000</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1100</v>
       </c>
       <c r="I43" s="3">
         <v>1100</v>
       </c>
       <c r="J43" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K43" s="3">
         <v>1000</v>
       </c>
       <c r="L43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M43" s="3">
         <v>800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>700</v>
-      </c>
-      <c r="N43" s="3">
-        <v>1000</v>
       </c>
       <c r="O43" s="3">
         <v>1000</v>
       </c>
       <c r="P43" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="Q43" s="3">
         <v>1100</v>
       </c>
       <c r="R43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S43" s="3">
         <v>800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,16 +2535,19 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>300</v>
@@ -2469,11 +2568,11 @@
         <v>300</v>
       </c>
       <c r="L45" s="3">
+        <v>300</v>
+      </c>
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
-        <v>200</v>
-      </c>
       <c r="N45" s="3">
         <v>200</v>
       </c>
@@ -2481,72 +2580,78 @@
         <v>200</v>
       </c>
       <c r="P45" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
-        <v>200</v>
-      </c>
       <c r="R45" s="3">
+        <v>200</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E46" s="3">
         <v>10200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,22 +2703,25 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E48" s="3">
         <v>600</v>
       </c>
       <c r="F48" s="3">
+        <v>600</v>
+      </c>
+      <c r="G48" s="3">
         <v>700</v>
-      </c>
-      <c r="G48" s="3">
-        <v>800</v>
       </c>
       <c r="H48" s="3">
         <v>800</v>
@@ -2622,7 +2730,7 @@
         <v>800</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -2631,7 +2739,7 @@
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
         <v>200</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E54" s="3">
         <v>10800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10100</v>
-      </c>
-      <c r="H54" s="3">
-        <v>9700</v>
       </c>
       <c r="I54" s="3">
         <v>9700</v>
       </c>
       <c r="J54" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K54" s="3">
         <v>8500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,13 +3141,14 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -3029,25 +3160,25 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
@@ -3056,24 +3187,27 @@
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>200</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>5</v>
@@ -3090,8 +3224,8 @@
       <c r="J58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3138,51 +3275,54 @@
         <v>600</v>
       </c>
       <c r="I59" s="3">
+        <v>600</v>
+      </c>
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
-      </c>
-      <c r="P59" s="3">
-        <v>600</v>
       </c>
       <c r="Q59" s="3">
         <v>600</v>
       </c>
       <c r="R59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="S59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E60" s="3">
         <v>800</v>
       </c>
       <c r="F60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G60" s="3">
         <v>700</v>
@@ -3191,48 +3331,51 @@
         <v>700</v>
       </c>
       <c r="I60" s="3">
+        <v>700</v>
+      </c>
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
-      </c>
-      <c r="K60" s="3">
-        <v>500</v>
       </c>
       <c r="L60" s="3">
         <v>500</v>
       </c>
       <c r="M60" s="3">
+        <v>500</v>
+      </c>
+      <c r="N60" s="3">
         <v>600</v>
-      </c>
-      <c r="N60" s="3">
-        <v>500</v>
       </c>
       <c r="O60" s="3">
         <v>500</v>
       </c>
       <c r="P60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q60" s="3">
         <v>600</v>
       </c>
       <c r="R60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="S60" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3276,32 +3419,35 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
       </c>
       <c r="G62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H62" s="3">
         <v>400</v>
       </c>
       <c r="I62" s="3">
+        <v>400</v>
+      </c>
+      <c r="J62" s="3">
         <v>500</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3311,8 +3457,8 @@
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3643,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3497,52 +3655,55 @@
         <v>1300</v>
       </c>
       <c r="E66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1000</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1100</v>
       </c>
       <c r="H66" s="3">
         <v>1100</v>
       </c>
       <c r="I66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J66" s="3">
         <v>1300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>400</v>
-      </c>
-      <c r="K66" s="3">
-        <v>500</v>
       </c>
       <c r="L66" s="3">
         <v>500</v>
       </c>
       <c r="M66" s="3">
+        <v>500</v>
+      </c>
+      <c r="N66" s="3">
         <v>600</v>
-      </c>
-      <c r="N66" s="3">
-        <v>500</v>
       </c>
       <c r="O66" s="3">
         <v>500</v>
       </c>
       <c r="P66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q66" s="3">
         <v>600</v>
       </c>
       <c r="R66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="S66" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E72" s="3">
         <v>9100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>9000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>7700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E76" s="3">
         <v>9500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4162,16 +4357,16 @@
         <v>100</v>
       </c>
       <c r="F81" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G81" s="3">
+        <v>300</v>
+      </c>
+      <c r="H81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
-        <v>200</v>
-      </c>
       <c r="I81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J81" s="3">
         <v>300</v>
@@ -4183,13 +4378,13 @@
         <v>300</v>
       </c>
       <c r="M81" s="3">
+        <v>300</v>
+      </c>
+      <c r="N81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3">
-        <v>300</v>
-      </c>
       <c r="O81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P81" s="3">
         <v>200</v>
@@ -4203,8 +4398,11 @@
       <c r="S81" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>400</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>600</v>
       </c>
-      <c r="H89" s="3">
-        <v>200</v>
-      </c>
       <c r="I89" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J89" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K89" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L89" s="3">
+        <v>300</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>900</v>
       </c>
-      <c r="N89" s="3">
-        <v>200</v>
-      </c>
       <c r="O89" s="3">
         <v>200</v>
       </c>
       <c r="P89" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q89" s="3">
         <v>400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>100</v>
       </c>
-      <c r="R89" s="3">
-        <v>200</v>
-      </c>
       <c r="S89" s="3">
+        <v>200</v>
+      </c>
+      <c r="T89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,17 +5304,20 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
-        <v>200</v>
-      </c>
       <c r="I102" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J102" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K102" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L102" s="3">
+        <v>300</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>900</v>
       </c>
-      <c r="N102" s="3">
-        <v>200</v>
-      </c>
       <c r="O102" s="3">
         <v>200</v>
       </c>
       <c r="P102" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q102" s="3">
+        <v>300</v>
+      </c>
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
-        <v>200</v>
-      </c>
       <c r="S102" s="3">
+        <v>200</v>
+      </c>
+      <c r="T102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFHO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFHO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>PFHO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,131 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F8" s="3">
         <v>1400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1900</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1800</v>
       </c>
       <c r="J8" s="3">
         <v>1800</v>
       </c>
       <c r="K8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M8" s="3">
         <v>1900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1700</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1700</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1600</v>
       </c>
       <c r="O8" s="3">
         <v>1700</v>
@@ -794,16 +801,22 @@
         <v>1700</v>
       </c>
       <c r="R8" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="S8" s="3">
         <v>1700</v>
       </c>
       <c r="T8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="V8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -811,13 +824,13 @@
         <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F9" s="3">
         <v>200</v>
       </c>
       <c r="G9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H9" s="3">
         <v>200</v>
@@ -840,11 +853,11 @@
       <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
+      <c r="O9" s="3">
+        <v>300</v>
+      </c>
+      <c r="P9" s="3">
+        <v>200</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>5</v>
@@ -858,50 +871,56 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E10" s="3">
         <v>1300</v>
       </c>
       <c r="F10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H10" s="3">
         <v>1400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1600</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1500</v>
       </c>
       <c r="J10" s="3">
         <v>1600</v>
       </c>
       <c r="K10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L10" s="3">
         <v>1600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N10" s="3">
         <v>1500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1400</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
@@ -914,8 +933,14 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,31 +1081,37 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-500</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,25 +1230,27 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="E17" s="3">
         <v>1300</v>
       </c>
       <c r="F17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H17" s="3">
         <v>1400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1300</v>
       </c>
       <c r="I17" s="3">
         <v>1500</v>
@@ -1206,25 +1259,25 @@
         <v>1300</v>
       </c>
       <c r="K17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1000</v>
       </c>
       <c r="O17" s="3">
         <v>1200</v>
       </c>
       <c r="P17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1300</v>
       </c>
       <c r="R17" s="3">
         <v>1200</v>
@@ -1233,36 +1286,42 @@
         <v>1300</v>
       </c>
       <c r="T17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E18" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F18" s="3">
         <v>200</v>
       </c>
       <c r="G18" s="3">
+        <v>200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>200</v>
+      </c>
+      <c r="I18" s="3">
         <v>400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>300</v>
       </c>
       <c r="J18" s="3">
         <v>500</v>
       </c>
       <c r="K18" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L18" s="3">
         <v>500</v>
@@ -1271,19 +1330,19 @@
         <v>500</v>
       </c>
       <c r="N18" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O18" s="3">
         <v>500</v>
       </c>
       <c r="P18" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>500</v>
+      </c>
+      <c r="R18" s="3">
         <v>400</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>400</v>
-      </c>
-      <c r="R18" s="3">
-        <v>300</v>
       </c>
       <c r="S18" s="3">
         <v>400</v>
@@ -1291,8 +1350,14 @@
       <c r="T18" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>400</v>
+      </c>
+      <c r="V18" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,25 +1436,31 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F21" s="3">
         <v>200</v>
       </c>
       <c r="G21" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H21" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="I21" s="3">
         <v>400</v>
@@ -1396,7 +1469,7 @@
         <v>500</v>
       </c>
       <c r="K21" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L21" s="3">
         <v>500</v>
@@ -1405,16 +1478,16 @@
         <v>500</v>
       </c>
       <c r="N21" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O21" s="3">
         <v>500</v>
       </c>
       <c r="P21" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q21" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R21" s="3">
         <v>400</v>
@@ -1423,33 +1496,39 @@
         <v>400</v>
       </c>
       <c r="T21" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="U21" s="3">
+        <v>400</v>
+      </c>
+      <c r="V21" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1466,67 +1545,73 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E23" s="3">
+        <v>300</v>
+      </c>
+      <c r="F23" s="3">
+        <v>200</v>
+      </c>
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
-        <v>200</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>200</v>
+      </c>
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>500</v>
       </c>
-      <c r="I23" s="3">
-        <v>300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>400</v>
-      </c>
       <c r="K23" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L23" s="3">
         <v>400</v>
       </c>
       <c r="M23" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N23" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="O23" s="3">
         <v>500</v>
       </c>
       <c r="P23" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q23" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R23" s="3">
         <v>400</v>
@@ -1535,10 +1620,16 @@
         <v>400</v>
       </c>
       <c r="T23" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="U23" s="3">
+        <v>400</v>
+      </c>
+      <c r="V23" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1546,16 +1637,16 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
@@ -1573,10 +1664,10 @@
         <v>100</v>
       </c>
       <c r="N24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>200</v>
@@ -1591,10 +1682,16 @@
         <v>200</v>
       </c>
       <c r="T24" s="3">
+        <v>200</v>
+      </c>
+      <c r="U24" s="3">
+        <v>200</v>
+      </c>
+      <c r="V24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,34 +1746,40 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F26" s="3">
         <v>100</v>
       </c>
       <c r="G26" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>300</v>
+      </c>
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
-        <v>200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>300</v>
-      </c>
       <c r="K26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L26" s="3">
         <v>300</v>
@@ -1685,16 +1788,16 @@
         <v>300</v>
       </c>
       <c r="N26" s="3">
+        <v>300</v>
+      </c>
+      <c r="O26" s="3">
+        <v>300</v>
+      </c>
+      <c r="P26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3">
-        <v>300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>200</v>
-      </c>
       <c r="Q26" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R26" s="3">
         <v>200</v>
@@ -1705,34 +1808,40 @@
       <c r="T26" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>200</v>
+      </c>
+      <c r="V26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F27" s="3">
         <v>100</v>
       </c>
       <c r="G27" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>300</v>
+      </c>
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3">
-        <v>200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>300</v>
-      </c>
       <c r="K27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L27" s="3">
         <v>300</v>
@@ -1741,16 +1850,16 @@
         <v>300</v>
       </c>
       <c r="N27" s="3">
+        <v>300</v>
+      </c>
+      <c r="O27" s="3">
+        <v>300</v>
+      </c>
+      <c r="P27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3">
-        <v>300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>200</v>
-      </c>
       <c r="Q27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R27" s="3">
         <v>200</v>
@@ -1761,8 +1870,14 @@
       <c r="T27" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>200</v>
+      </c>
+      <c r="V27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,31 +1932,37 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -1855,14 +1976,14 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,34 +2180,40 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F33" s="3">
         <v>100</v>
       </c>
       <c r="G33" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>300</v>
+      </c>
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="I33" s="3">
-        <v>200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>300</v>
-      </c>
       <c r="K33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L33" s="3">
         <v>300</v>
@@ -2077,16 +2222,16 @@
         <v>300</v>
       </c>
       <c r="N33" s="3">
+        <v>300</v>
+      </c>
+      <c r="O33" s="3">
+        <v>300</v>
+      </c>
+      <c r="P33" s="3">
         <v>400</v>
       </c>
-      <c r="O33" s="3">
-        <v>300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>200</v>
-      </c>
       <c r="Q33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R33" s="3">
         <v>200</v>
@@ -2097,8 +2242,14 @@
       <c r="T33" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>200</v>
+      </c>
+      <c r="V33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,34 +2304,40 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F35" s="3">
         <v>100</v>
       </c>
       <c r="G35" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>300</v>
+      </c>
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="I35" s="3">
-        <v>200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>300</v>
-      </c>
       <c r="K35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L35" s="3">
         <v>300</v>
@@ -2189,16 +2346,16 @@
         <v>300</v>
       </c>
       <c r="N35" s="3">
+        <v>300</v>
+      </c>
+      <c r="O35" s="3">
+        <v>300</v>
+      </c>
+      <c r="P35" s="3">
         <v>400</v>
       </c>
-      <c r="O35" s="3">
-        <v>300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>200</v>
-      </c>
       <c r="Q35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R35" s="3">
         <v>200</v>
@@ -2209,69 +2366,81 @@
       <c r="T35" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>200</v>
+      </c>
+      <c r="V35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2485,72 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F41" s="3">
         <v>9200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>9000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>8500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>8100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>8100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>7600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>7400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>7100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>6800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>6500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>6700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>5800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>5600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>5400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>5100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>5000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,22 +2605,28 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E43" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F43" s="3">
         <v>1000</v>
       </c>
       <c r="G43" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H43" s="3">
         <v>1000</v>
@@ -2450,40 +2635,46 @@
         <v>1100</v>
       </c>
       <c r="J43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M43" s="3">
         <v>1000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2729,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2547,13 +2744,13 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
@@ -2571,19 +2768,19 @@
         <v>300</v>
       </c>
       <c r="M45" s="3">
+        <v>300</v>
+      </c>
+      <c r="N45" s="3">
+        <v>300</v>
+      </c>
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
-        <v>200</v>
-      </c>
-      <c r="O45" s="3">
-        <v>200</v>
-      </c>
       <c r="P45" s="3">
         <v>200</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R45" s="3">
         <v>200</v>
@@ -2594,64 +2791,76 @@
       <c r="T45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F46" s="3">
         <v>10400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>10200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>9800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>9500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>9400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>8900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>8800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>8300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>8100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>7700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>7600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>7100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>6800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>6600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>6400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>6000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,46 +2915,52 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>400</v>
+      </c>
+      <c r="F48" s="3">
         <v>500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>700</v>
-      </c>
-      <c r="H48" s="3">
-        <v>800</v>
-      </c>
-      <c r="I48" s="3">
-        <v>800</v>
       </c>
       <c r="J48" s="3">
         <v>800</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>200</v>
@@ -2762,8 +2977,14 @@
       <c r="T48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>200</v>
+      </c>
+      <c r="V48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F54" s="3">
         <v>10900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>10800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>10500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>10300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>10100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>9700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>9700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>8500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>8300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>7900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>7800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>7300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>7000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>6800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>6600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>6300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,19 +3401,21 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -3163,16 +3424,16 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -3184,13 +3445,13 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
@@ -3198,22 +3459,28 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>200</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
+        <v>300</v>
+      </c>
+      <c r="F58" s="3">
+        <v>300</v>
+      </c>
+      <c r="G58" s="3">
+        <v>200</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>5</v>
@@ -3227,11 +3494,11 @@
       <c r="K58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3254,16 +3521,22 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F59" s="3">
         <v>600</v>
@@ -3278,110 +3551,122 @@
         <v>600</v>
       </c>
       <c r="J59" s="3">
+        <v>600</v>
+      </c>
+      <c r="K59" s="3">
+        <v>600</v>
+      </c>
+      <c r="L59" s="3">
         <v>700</v>
-      </c>
-      <c r="K59" s="3">
-        <v>400</v>
-      </c>
-      <c r="L59" s="3">
-        <v>500</v>
       </c>
       <c r="M59" s="3">
         <v>400</v>
       </c>
       <c r="N59" s="3">
+        <v>500</v>
+      </c>
+      <c r="O59" s="3">
+        <v>400</v>
+      </c>
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
-      </c>
-      <c r="G60" s="3">
-        <v>700</v>
-      </c>
-      <c r="H60" s="3">
-        <v>700</v>
       </c>
       <c r="I60" s="3">
         <v>700</v>
       </c>
       <c r="J60" s="3">
+        <v>700</v>
+      </c>
+      <c r="K60" s="3">
+        <v>700</v>
+      </c>
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
-      </c>
-      <c r="M60" s="3">
-        <v>500</v>
-      </c>
-      <c r="N60" s="3">
-        <v>600</v>
       </c>
       <c r="O60" s="3">
         <v>500</v>
       </c>
       <c r="P60" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
+        <v>500</v>
+      </c>
+      <c r="S60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>100</v>
       </c>
-      <c r="E61" s="3">
-        <v>300</v>
-      </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3422,49 +3707,55 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3">
-        <v>200</v>
-      </c>
       <c r="F62" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H62" s="3">
+        <v>300</v>
+      </c>
+      <c r="I62" s="3">
+        <v>300</v>
+      </c>
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>500</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="E66" s="3">
         <v>1300</v>
       </c>
       <c r="F66" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="G66" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="H66" s="3">
         <v>1100</v>
       </c>
       <c r="I66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L66" s="3">
         <v>1300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
-      </c>
-      <c r="M66" s="3">
-        <v>500</v>
-      </c>
-      <c r="N66" s="3">
-        <v>600</v>
       </c>
       <c r="O66" s="3">
         <v>500</v>
       </c>
       <c r="P66" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q66" s="3">
         <v>500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
+        <v>500</v>
+      </c>
+      <c r="S66" s="3">
         <v>600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F72" s="3">
         <v>9200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>9100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>9000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>8900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>8600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>8200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>8000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>7700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>7300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>7000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>6700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>6300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>6000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>5800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>5600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>5300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F76" s="3">
         <v>9600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>9500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>9400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>9300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>9000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>8600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>8400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>8100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>7800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>7400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>7100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>6700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>6500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>6200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>6000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>5800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,95 +4661,107 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F81" s="3">
         <v>100</v>
       </c>
       <c r="G81" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>300</v>
+      </c>
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="I81" s="3">
-        <v>200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>300</v>
-      </c>
       <c r="K81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L81" s="3">
         <v>300</v>
@@ -4381,16 +4770,16 @@
         <v>300</v>
       </c>
       <c r="N81" s="3">
+        <v>300</v>
+      </c>
+      <c r="O81" s="3">
+        <v>300</v>
+      </c>
+      <c r="P81" s="3">
         <v>400</v>
       </c>
-      <c r="O81" s="3">
-        <v>300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>200</v>
-      </c>
       <c r="Q81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R81" s="3">
         <v>200</v>
@@ -4401,8 +4790,14 @@
       <c r="T81" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>200</v>
+      </c>
+      <c r="V81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,32 +5186,38 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F89" s="3">
+        <v>300</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>600</v>
       </c>
-      <c r="I89" s="3">
-        <v>200</v>
-      </c>
-      <c r="J89" s="3">
-        <v>300</v>
-      </c>
       <c r="K89" s="3">
         <v>200</v>
       </c>
@@ -4792,31 +5225,37 @@
         <v>300</v>
       </c>
       <c r="M89" s="3">
+        <v>200</v>
+      </c>
+      <c r="N89" s="3">
+        <v>300</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>900</v>
       </c>
-      <c r="O89" s="3">
-        <v>200</v>
-      </c>
-      <c r="P89" s="3">
-        <v>200</v>
-      </c>
       <c r="Q89" s="3">
+        <v>200</v>
+      </c>
+      <c r="R89" s="3">
+        <v>200</v>
+      </c>
+      <c r="S89" s="3">
         <v>400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>100</v>
       </c>
-      <c r="S89" s="3">
-        <v>200</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
+        <v>200</v>
+      </c>
+      <c r="V89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5792,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5316,14 +5807,14 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -5363,8 +5854,14 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,32 +5916,38 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E102" s="3">
+        <v>300</v>
+      </c>
+      <c r="F102" s="3">
+        <v>200</v>
+      </c>
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
-        <v>200</v>
-      </c>
-      <c r="J102" s="3">
-        <v>300</v>
-      </c>
       <c r="K102" s="3">
         <v>200</v>
       </c>
@@ -5452,27 +5955,33 @@
         <v>300</v>
       </c>
       <c r="M102" s="3">
+        <v>200</v>
+      </c>
+      <c r="N102" s="3">
+        <v>300</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>900</v>
       </c>
-      <c r="O102" s="3">
-        <v>200</v>
-      </c>
-      <c r="P102" s="3">
-        <v>200</v>
-      </c>
       <c r="Q102" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R102" s="3">
+        <v>200</v>
+      </c>
+      <c r="S102" s="3">
+        <v>300</v>
+      </c>
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
-        <v>200</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
+        <v>200</v>
+      </c>
+      <c r="V102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFHO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFHO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>PFHO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,22 +766,22 @@
         <v>1300</v>
       </c>
       <c r="E8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F8" s="3">
         <v>1600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1900</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1800</v>
       </c>
       <c r="K8" s="3">
         <v>1800</v>
@@ -786,37 +790,40 @@
         <v>1800</v>
       </c>
       <c r="M8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N8" s="3">
         <v>1900</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1700</v>
       </c>
       <c r="O8" s="3">
         <v>1700</v>
       </c>
       <c r="P8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -824,10 +831,10 @@
         <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G9" s="3">
         <v>200</v>
@@ -836,31 +843,31 @@
         <v>200</v>
       </c>
       <c r="I9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P9" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
+        <v>300</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>200</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>5</v>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -886,43 +896,43 @@
         <v>1100</v>
       </c>
       <c r="E10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F10" s="3">
         <v>1300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1400</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1600</v>
       </c>
       <c r="J10" s="3">
         <v>1600</v>
       </c>
       <c r="K10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L10" s="3">
         <v>1500</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1600</v>
       </c>
       <c r="M10" s="3">
         <v>1600</v>
       </c>
       <c r="N10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O10" s="3">
         <v>1500</v>
-      </c>
-      <c r="O10" s="3">
-        <v>1400</v>
       </c>
       <c r="P10" s="3">
         <v>1400</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
+      <c r="Q10" s="3">
+        <v>1400</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>5</v>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,17 +1104,20 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-500</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1113,8 +1133,8 @@
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,81 +1258,85 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1400</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1200</v>
       </c>
       <c r="O17" s="3">
         <v>1200</v>
       </c>
       <c r="P17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1200</v>
       </c>
       <c r="R17" s="3">
         <v>1200</v>
       </c>
       <c r="S17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T17" s="3">
         <v>1300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
         <v>600</v>
       </c>
-      <c r="E18" s="3">
-        <v>300</v>
-      </c>
       <c r="F18" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G18" s="3">
         <v>200</v>
@@ -1315,16 +1345,16 @@
         <v>200</v>
       </c>
       <c r="I18" s="3">
+        <v>200</v>
+      </c>
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>500</v>
       </c>
-      <c r="K18" s="3">
-        <v>300</v>
-      </c>
       <c r="L18" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M18" s="3">
         <v>500</v>
@@ -1336,28 +1366,31 @@
         <v>500</v>
       </c>
       <c r="P18" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q18" s="3">
         <v>600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>500</v>
-      </c>
-      <c r="R18" s="3">
-        <v>400</v>
       </c>
       <c r="S18" s="3">
         <v>400</v>
       </c>
       <c r="T18" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U18" s="3">
+        <v>300</v>
+      </c>
+      <c r="V18" s="3">
         <v>400</v>
       </c>
-      <c r="V18" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1442,19 +1476,22 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
         <v>600</v>
       </c>
-      <c r="E21" s="3">
-        <v>300</v>
-      </c>
       <c r="F21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G21" s="3">
         <v>200</v>
@@ -1463,16 +1500,16 @@
         <v>200</v>
       </c>
       <c r="I21" s="3">
+        <v>200</v>
+      </c>
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>400</v>
-      </c>
-      <c r="L21" s="3">
-        <v>500</v>
       </c>
       <c r="M21" s="3">
         <v>500</v>
@@ -1484,13 +1521,13 @@
         <v>500</v>
       </c>
       <c r="P21" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q21" s="3">
         <v>600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>500</v>
-      </c>
-      <c r="R21" s="3">
-        <v>400</v>
       </c>
       <c r="S21" s="3">
         <v>400</v>
@@ -1502,18 +1539,21 @@
         <v>400</v>
       </c>
       <c r="V21" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="W21" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>5</v>
@@ -1530,8 +1570,8 @@
       <c r="J22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1551,8 +1591,8 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>5</v>
@@ -1560,43 +1600,46 @@
       <c r="T22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>600</v>
       </c>
-      <c r="E23" s="3">
-        <v>300</v>
-      </c>
       <c r="F23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G23" s="3">
+        <v>200</v>
+      </c>
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
-        <v>200</v>
-      </c>
       <c r="I23" s="3">
+        <v>200</v>
+      </c>
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>500</v>
       </c>
-      <c r="K23" s="3">
-        <v>300</v>
-      </c>
       <c r="L23" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M23" s="3">
         <v>400</v>
@@ -1605,16 +1648,16 @@
         <v>400</v>
       </c>
       <c r="O23" s="3">
+        <v>400</v>
+      </c>
+      <c r="P23" s="3">
         <v>500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>500</v>
-      </c>
-      <c r="R23" s="3">
-        <v>400</v>
       </c>
       <c r="S23" s="3">
         <v>400</v>
@@ -1626,15 +1669,18 @@
         <v>400</v>
       </c>
       <c r="V23" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="W23" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
@@ -1643,13 +1689,13 @@
         <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
@@ -1670,7 +1716,7 @@
         <v>100</v>
       </c>
       <c r="P24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="3">
         <v>200</v>
@@ -1688,10 +1734,13 @@
         <v>200</v>
       </c>
       <c r="V24" s="3">
+        <v>200</v>
+      </c>
+      <c r="W24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,19 +1801,22 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
-        <v>200</v>
-      </c>
       <c r="F26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G26" s="3">
         <v>100</v>
@@ -1773,16 +1825,16 @@
         <v>100</v>
       </c>
       <c r="I26" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J26" s="3">
+        <v>300</v>
+      </c>
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
-        <v>200</v>
-      </c>
       <c r="L26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M26" s="3">
         <v>300</v>
@@ -1794,13 +1846,13 @@
         <v>300</v>
       </c>
       <c r="P26" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="Q26" s="3">
-        <v>300</v>
-      </c>
       <c r="R26" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S26" s="3">
         <v>200</v>
@@ -1814,19 +1866,22 @@
       <c r="V26" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
-        <v>200</v>
-      </c>
       <c r="F27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G27" s="3">
         <v>100</v>
@@ -1835,16 +1890,16 @@
         <v>100</v>
       </c>
       <c r="I27" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J27" s="3">
+        <v>300</v>
+      </c>
+      <c r="K27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
-        <v>200</v>
-      </c>
       <c r="L27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M27" s="3">
         <v>300</v>
@@ -1856,13 +1911,13 @@
         <v>300</v>
       </c>
       <c r="P27" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="Q27" s="3">
-        <v>300</v>
-      </c>
       <c r="R27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S27" s="3">
         <v>200</v>
@@ -1876,8 +1931,11 @@
       <c r="V27" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1964,8 +2025,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -1982,11 +2043,11 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2186,19 +2256,22 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
-        <v>200</v>
-      </c>
       <c r="F33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G33" s="3">
         <v>100</v>
@@ -2207,16 +2280,16 @@
         <v>100</v>
       </c>
       <c r="I33" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J33" s="3">
+        <v>300</v>
+      </c>
+      <c r="K33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
-        <v>200</v>
-      </c>
       <c r="L33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M33" s="3">
         <v>300</v>
@@ -2228,13 +2301,13 @@
         <v>300</v>
       </c>
       <c r="P33" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="Q33" s="3">
-        <v>300</v>
-      </c>
       <c r="R33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S33" s="3">
         <v>200</v>
@@ -2248,8 +2321,11 @@
       <c r="V33" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,19 +2386,22 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
-        <v>200</v>
-      </c>
       <c r="F35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G35" s="3">
         <v>100</v>
@@ -2331,16 +2410,16 @@
         <v>100</v>
       </c>
       <c r="I35" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3">
+        <v>300</v>
+      </c>
+      <c r="K35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
-        <v>200</v>
-      </c>
       <c r="L35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M35" s="3">
         <v>300</v>
@@ -2352,13 +2431,13 @@
         <v>300</v>
       </c>
       <c r="P35" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="Q35" s="3">
-        <v>300</v>
-      </c>
       <c r="R35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S35" s="3">
         <v>200</v>
@@ -2372,75 +2451,81 @@
       <c r="V35" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E41" s="3">
         <v>9900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8500</v>
-      </c>
-      <c r="I41" s="3">
-        <v>8100</v>
       </c>
       <c r="J41" s="3">
         <v>8100</v>
       </c>
       <c r="K41" s="3">
+        <v>8100</v>
+      </c>
+      <c r="L41" s="3">
         <v>7600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,19 +2701,22 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1100</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1000</v>
       </c>
       <c r="G43" s="3">
         <v>1000</v>
@@ -2632,49 +2725,52 @@
         <v>1000</v>
       </c>
       <c r="I43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J43" s="3">
         <v>1100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1000</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1100</v>
       </c>
       <c r="L43" s="3">
         <v>1100</v>
       </c>
       <c r="M43" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="N43" s="3">
         <v>1000</v>
       </c>
       <c r="O43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P43" s="3">
         <v>800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>700</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>1000</v>
       </c>
       <c r="R43" s="3">
         <v>1000</v>
       </c>
       <c r="S43" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T43" s="3">
         <v>1100</v>
       </c>
       <c r="U43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V43" s="3">
         <v>800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2750,10 +2849,10 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>300</v>
@@ -2774,11 +2873,11 @@
         <v>300</v>
       </c>
       <c r="O45" s="3">
+        <v>300</v>
+      </c>
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
-        <v>200</v>
-      </c>
       <c r="Q45" s="3">
         <v>200</v>
       </c>
@@ -2786,81 +2885,87 @@
         <v>200</v>
       </c>
       <c r="S45" s="3">
+        <v>200</v>
+      </c>
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3">
-        <v>200</v>
-      </c>
       <c r="U45" s="3">
+        <v>200</v>
+      </c>
+      <c r="V45" s="3">
         <v>100</v>
       </c>
-      <c r="V45" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E46" s="3">
         <v>10800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,31 +3026,34 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
         <v>400</v>
       </c>
       <c r="F48" s="3">
+        <v>400</v>
+      </c>
+      <c r="G48" s="3">
         <v>500</v>
-      </c>
-      <c r="G48" s="3">
-        <v>600</v>
       </c>
       <c r="H48" s="3">
         <v>600</v>
       </c>
       <c r="I48" s="3">
+        <v>600</v>
+      </c>
+      <c r="J48" s="3">
         <v>700</v>
-      </c>
-      <c r="J48" s="3">
-        <v>800</v>
       </c>
       <c r="K48" s="3">
         <v>800</v>
@@ -2954,7 +3062,7 @@
         <v>800</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="N48" s="3">
         <v>100</v>
@@ -2963,7 +3071,7 @@
         <v>100</v>
       </c>
       <c r="P48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q48" s="3">
         <v>200</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E54" s="3">
         <v>11200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10100</v>
-      </c>
-      <c r="K54" s="3">
-        <v>9700</v>
       </c>
       <c r="L54" s="3">
         <v>9700</v>
       </c>
       <c r="M54" s="3">
+        <v>9700</v>
+      </c>
+      <c r="N54" s="3">
         <v>8500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,22 +3533,23 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -3430,25 +3561,25 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
@@ -3457,16 +3588,19 @@
         <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
         <v>100</v>
       </c>
-      <c r="V57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3474,16 +3608,16 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>300</v>
       </c>
       <c r="G58" s="3">
-        <v>200</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
+        <v>300</v>
+      </c>
+      <c r="H58" s="3">
+        <v>200</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
@@ -3500,8 +3634,8 @@
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3527,19 +3661,22 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>700</v>
-      </c>
-      <c r="F59" s="3">
-        <v>600</v>
       </c>
       <c r="G59" s="3">
         <v>600</v>
@@ -3557,60 +3694,63 @@
         <v>600</v>
       </c>
       <c r="L59" s="3">
+        <v>600</v>
+      </c>
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
-      </c>
-      <c r="S59" s="3">
-        <v>600</v>
       </c>
       <c r="T59" s="3">
         <v>600</v>
       </c>
       <c r="U59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="V59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
         <v>900</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1000</v>
       </c>
       <c r="F60" s="3">
         <v>1000</v>
       </c>
       <c r="G60" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="H60" s="3">
         <v>800</v>
       </c>
       <c r="I60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J60" s="3">
         <v>700</v>
@@ -3619,57 +3759,60 @@
         <v>700</v>
       </c>
       <c r="L60" s="3">
+        <v>700</v>
+      </c>
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>500</v>
       </c>
       <c r="O60" s="3">
         <v>500</v>
       </c>
       <c r="P60" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q60" s="3">
         <v>600</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>500</v>
       </c>
       <c r="R60" s="3">
         <v>500</v>
       </c>
       <c r="S60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T60" s="3">
         <v>600</v>
       </c>
       <c r="U60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="V60" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3722,32 +3868,32 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I62" s="3">
         <v>300</v>
       </c>
       <c r="J62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K62" s="3">
         <v>400</v>
       </c>
       <c r="L62" s="3">
+        <v>400</v>
+      </c>
+      <c r="M62" s="3">
         <v>500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3757,8 +3903,8 @@
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,16 +4116,19 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>800</v>
+      </c>
+      <c r="E66" s="3">
         <v>900</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1300</v>
       </c>
       <c r="F66" s="3">
         <v>1300</v>
@@ -3979,52 +4137,55 @@
         <v>1300</v>
       </c>
       <c r="H66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1100</v>
       </c>
       <c r="K66" s="3">
         <v>1100</v>
       </c>
       <c r="L66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M66" s="3">
         <v>1300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>400</v>
-      </c>
-      <c r="N66" s="3">
-        <v>500</v>
       </c>
       <c r="O66" s="3">
         <v>500</v>
       </c>
       <c r="P66" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q66" s="3">
         <v>600</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>500</v>
       </c>
       <c r="R66" s="3">
         <v>500</v>
       </c>
       <c r="S66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T66" s="3">
         <v>600</v>
       </c>
       <c r="U66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="V66" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E72" s="3">
         <v>9900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>9400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>9200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>9100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>9000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E76" s="3">
         <v>10300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,86 +4856,92 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
-        <v>200</v>
-      </c>
       <c r="F81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G81" s="3">
         <v>100</v>
@@ -4755,16 +4950,16 @@
         <v>100</v>
       </c>
       <c r="I81" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J81" s="3">
+        <v>300</v>
+      </c>
+      <c r="K81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
-        <v>200</v>
-      </c>
       <c r="L81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M81" s="3">
         <v>300</v>
@@ -4776,13 +4971,13 @@
         <v>300</v>
       </c>
       <c r="P81" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="Q81" s="3">
-        <v>300</v>
-      </c>
       <c r="R81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S81" s="3">
         <v>200</v>
@@ -4796,8 +4991,11 @@
       <c r="V81" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>400</v>
       </c>
-      <c r="E89" s="3">
-        <v>300</v>
-      </c>
       <c r="F89" s="3">
         <v>300</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>600</v>
       </c>
-      <c r="K89" s="3">
-        <v>200</v>
-      </c>
       <c r="L89" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M89" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N89" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O89" s="3">
+        <v>300</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>900</v>
       </c>
-      <c r="Q89" s="3">
-        <v>200</v>
-      </c>
       <c r="R89" s="3">
         <v>200</v>
       </c>
       <c r="S89" s="3">
+        <v>200</v>
+      </c>
+      <c r="T89" s="3">
         <v>400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>100</v>
       </c>
-      <c r="U89" s="3">
-        <v>200</v>
-      </c>
       <c r="V89" s="3">
+        <v>200</v>
+      </c>
+      <c r="W89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,13 +6041,16 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -5813,11 +6059,11 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
-        <v>300</v>
-      </c>
       <c r="F102" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G102" s="3">
+        <v>200</v>
+      </c>
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3">
-        <v>200</v>
-      </c>
       <c r="L102" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M102" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N102" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O102" s="3">
+        <v>300</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>900</v>
       </c>
-      <c r="Q102" s="3">
-        <v>200</v>
-      </c>
       <c r="R102" s="3">
         <v>200</v>
       </c>
       <c r="S102" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T102" s="3">
+        <v>300</v>
+      </c>
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
-        <v>200</v>
-      </c>
       <c r="V102" s="3">
+        <v>200</v>
+      </c>
+      <c r="W102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFHO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFHO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>PFHO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -769,22 +773,22 @@
         <v>1300</v>
       </c>
       <c r="F8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G8" s="3">
         <v>1600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1900</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1800</v>
       </c>
       <c r="L8" s="3">
         <v>1800</v>
@@ -793,37 +797,40 @@
         <v>1800</v>
       </c>
       <c r="N8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O8" s="3">
         <v>1900</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1700</v>
       </c>
       <c r="P8" s="3">
         <v>1700</v>
       </c>
       <c r="Q8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R8" s="3">
         <v>1600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -834,11 +841,11 @@
         <v>200</v>
       </c>
       <c r="F9" s="3">
+        <v>200</v>
+      </c>
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
-        <v>200</v>
-      </c>
       <c r="H9" s="3">
         <v>200</v>
       </c>
@@ -846,31 +853,31 @@
         <v>200</v>
       </c>
       <c r="J9" s="3">
+        <v>200</v>
+      </c>
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3">
-        <v>200</v>
-      </c>
       <c r="L9" s="3">
+        <v>200</v>
+      </c>
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
-        <v>200</v>
-      </c>
       <c r="N9" s="3">
+        <v>200</v>
+      </c>
+      <c r="O9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3">
-        <v>200</v>
-      </c>
       <c r="P9" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3">
-        <v>200</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
+      <c r="R9" s="3">
+        <v>200</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>5</v>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -899,43 +909,43 @@
         <v>1100</v>
       </c>
       <c r="F10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G10" s="3">
         <v>1300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1400</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1600</v>
       </c>
       <c r="K10" s="3">
         <v>1600</v>
       </c>
       <c r="L10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M10" s="3">
         <v>1500</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1600</v>
       </c>
       <c r="N10" s="3">
         <v>1600</v>
       </c>
       <c r="O10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P10" s="3">
         <v>1500</v>
-      </c>
-      <c r="P10" s="3">
-        <v>1400</v>
       </c>
       <c r="Q10" s="3">
         <v>1400</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
+      <c r="R10" s="3">
+        <v>1400</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>5</v>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1116,11 +1136,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-500</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1136,8 +1156,8 @@
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1285,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1268,64 +1295,67 @@
         <v>1200</v>
       </c>
       <c r="E17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1200</v>
       </c>
       <c r="P17" s="3">
         <v>1200</v>
       </c>
       <c r="Q17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R17" s="3">
         <v>1000</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1200</v>
       </c>
       <c r="S17" s="3">
         <v>1200</v>
       </c>
       <c r="T17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U17" s="3">
         <v>1300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,14 +1363,14 @@
         <v>100</v>
       </c>
       <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
         <v>600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>300</v>
       </c>
-      <c r="G18" s="3">
-        <v>200</v>
-      </c>
       <c r="H18" s="3">
         <v>200</v>
       </c>
@@ -1348,16 +1378,16 @@
         <v>200</v>
       </c>
       <c r="J18" s="3">
+        <v>200</v>
+      </c>
+      <c r="K18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>500</v>
       </c>
       <c r="N18" s="3">
         <v>500</v>
@@ -1369,28 +1399,31 @@
         <v>500</v>
       </c>
       <c r="Q18" s="3">
+        <v>500</v>
+      </c>
+      <c r="R18" s="3">
         <v>600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>500</v>
-      </c>
-      <c r="S18" s="3">
-        <v>400</v>
       </c>
       <c r="T18" s="3">
         <v>400</v>
       </c>
       <c r="U18" s="3">
+        <v>400</v>
+      </c>
+      <c r="V18" s="3">
         <v>300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,14 +1525,14 @@
         <v>100</v>
       </c>
       <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
         <v>600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
-        <v>200</v>
-      </c>
       <c r="H21" s="3">
         <v>200</v>
       </c>
@@ -1503,16 +1540,16 @@
         <v>200</v>
       </c>
       <c r="J21" s="3">
+        <v>200</v>
+      </c>
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>400</v>
-      </c>
-      <c r="M21" s="3">
-        <v>500</v>
       </c>
       <c r="N21" s="3">
         <v>500</v>
@@ -1524,13 +1561,13 @@
         <v>500</v>
       </c>
       <c r="Q21" s="3">
+        <v>500</v>
+      </c>
+      <c r="R21" s="3">
         <v>600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>500</v>
-      </c>
-      <c r="S21" s="3">
-        <v>400</v>
       </c>
       <c r="T21" s="3">
         <v>400</v>
@@ -1542,10 +1579,13 @@
         <v>400</v>
       </c>
       <c r="W21" s="3">
+        <v>400</v>
+      </c>
+      <c r="X21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1555,8 +1595,8 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>5</v>
@@ -1573,8 +1613,8 @@
       <c r="K22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1594,8 +1634,8 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>5</v>
@@ -1603,14 +1643,17 @@
       <c r="U22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1618,31 +1661,31 @@
         <v>100</v>
       </c>
       <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
         <v>600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
-        <v>200</v>
-      </c>
       <c r="H23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J23" s="3">
+        <v>200</v>
+      </c>
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>400</v>
       </c>
       <c r="N23" s="3">
         <v>400</v>
@@ -1651,16 +1694,16 @@
         <v>400</v>
       </c>
       <c r="P23" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q23" s="3">
         <v>500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>500</v>
-      </c>
-      <c r="S23" s="3">
-        <v>400</v>
       </c>
       <c r="T23" s="3">
         <v>400</v>
@@ -1672,10 +1715,13 @@
         <v>400</v>
       </c>
       <c r="W23" s="3">
+        <v>400</v>
+      </c>
+      <c r="X23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1683,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
@@ -1692,13 +1738,13 @@
         <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
@@ -1719,7 +1765,7 @@
         <v>100</v>
       </c>
       <c r="Q24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R24" s="3">
         <v>200</v>
@@ -1737,10 +1783,13 @@
         <v>200</v>
       </c>
       <c r="W24" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="X24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,8 +1853,11 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1813,13 +1865,13 @@
         <v>100</v>
       </c>
       <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
         <v>500</v>
       </c>
-      <c r="F26" s="3">
-        <v>200</v>
-      </c>
       <c r="G26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H26" s="3">
         <v>100</v>
@@ -1828,16 +1880,16 @@
         <v>100</v>
       </c>
       <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="L26" s="3">
-        <v>200</v>
-      </c>
       <c r="M26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N26" s="3">
         <v>300</v>
@@ -1849,14 +1901,14 @@
         <v>300</v>
       </c>
       <c r="Q26" s="3">
+        <v>300</v>
+      </c>
+      <c r="R26" s="3">
         <v>400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="S26" s="3">
-        <v>200</v>
-      </c>
       <c r="T26" s="3">
         <v>200</v>
       </c>
@@ -1869,8 +1921,11 @@
       <c r="W26" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1878,13 +1933,13 @@
         <v>100</v>
       </c>
       <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
-        <v>200</v>
-      </c>
       <c r="G27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H27" s="3">
         <v>100</v>
@@ -1893,16 +1948,16 @@
         <v>100</v>
       </c>
       <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="L27" s="3">
-        <v>200</v>
-      </c>
       <c r="M27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N27" s="3">
         <v>300</v>
@@ -1914,14 +1969,14 @@
         <v>300</v>
       </c>
       <c r="Q27" s="3">
+        <v>300</v>
+      </c>
+      <c r="R27" s="3">
         <v>400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>300</v>
       </c>
-      <c r="S27" s="3">
-        <v>200</v>
-      </c>
       <c r="T27" s="3">
         <v>200</v>
       </c>
@@ -1934,8 +1989,11 @@
       <c r="W27" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2028,8 +2089,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -2046,11 +2107,11 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2259,8 +2329,11 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2268,13 +2341,13 @@
         <v>100</v>
       </c>
       <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
-        <v>200</v>
-      </c>
       <c r="G33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H33" s="3">
         <v>100</v>
@@ -2283,16 +2356,16 @@
         <v>100</v>
       </c>
       <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="L33" s="3">
-        <v>200</v>
-      </c>
       <c r="M33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N33" s="3">
         <v>300</v>
@@ -2304,14 +2377,14 @@
         <v>300</v>
       </c>
       <c r="Q33" s="3">
+        <v>300</v>
+      </c>
+      <c r="R33" s="3">
         <v>400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="S33" s="3">
-        <v>200</v>
-      </c>
       <c r="T33" s="3">
         <v>200</v>
       </c>
@@ -2324,8 +2397,11 @@
       <c r="W33" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,8 +2465,11 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2398,13 +2477,13 @@
         <v>100</v>
       </c>
       <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
-        <v>200</v>
-      </c>
       <c r="G35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H35" s="3">
         <v>100</v>
@@ -2413,16 +2492,16 @@
         <v>100</v>
       </c>
       <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="L35" s="3">
-        <v>200</v>
-      </c>
       <c r="M35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N35" s="3">
         <v>300</v>
@@ -2434,14 +2513,14 @@
         <v>300</v>
       </c>
       <c r="Q35" s="3">
+        <v>300</v>
+      </c>
+      <c r="R35" s="3">
         <v>400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="S35" s="3">
-        <v>200</v>
-      </c>
       <c r="T35" s="3">
         <v>200</v>
       </c>
@@ -2454,78 +2533,84 @@
       <c r="W35" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E41" s="3">
         <v>10100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8500</v>
-      </c>
-      <c r="J41" s="3">
-        <v>8100</v>
       </c>
       <c r="K41" s="3">
         <v>8100</v>
       </c>
       <c r="L41" s="3">
+        <v>8100</v>
+      </c>
+      <c r="M41" s="3">
         <v>7600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,22 +2794,25 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="3">
         <v>700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1100</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1000</v>
       </c>
       <c r="H43" s="3">
         <v>1000</v>
@@ -2728,49 +2821,52 @@
         <v>1000</v>
       </c>
       <c r="J43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1000</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1100</v>
       </c>
       <c r="M43" s="3">
         <v>1100</v>
       </c>
       <c r="N43" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="O43" s="3">
         <v>1000</v>
       </c>
       <c r="P43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q43" s="3">
         <v>800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>700</v>
-      </c>
-      <c r="R43" s="3">
-        <v>1000</v>
       </c>
       <c r="S43" s="3">
         <v>1000</v>
       </c>
       <c r="T43" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="U43" s="3">
         <v>1100</v>
       </c>
       <c r="V43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W43" s="3">
         <v>800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2852,10 +2951,10 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>300</v>
@@ -2876,11 +2975,11 @@
         <v>300</v>
       </c>
       <c r="P45" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3">
-        <v>200</v>
-      </c>
       <c r="R45" s="3">
         <v>200</v>
       </c>
@@ -2888,84 +2987,90 @@
         <v>200</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W45" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E46" s="3">
         <v>10900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,34 +3134,37 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>200</v>
+      </c>
+      <c r="E48" s="3">
         <v>300</v>
-      </c>
-      <c r="E48" s="3">
-        <v>400</v>
       </c>
       <c r="F48" s="3">
         <v>400</v>
       </c>
       <c r="G48" s="3">
+        <v>400</v>
+      </c>
+      <c r="H48" s="3">
         <v>500</v>
-      </c>
-      <c r="H48" s="3">
-        <v>600</v>
       </c>
       <c r="I48" s="3">
         <v>600</v>
       </c>
       <c r="J48" s="3">
+        <v>600</v>
+      </c>
+      <c r="K48" s="3">
         <v>700</v>
-      </c>
-      <c r="K48" s="3">
-        <v>800</v>
       </c>
       <c r="L48" s="3">
         <v>800</v>
@@ -3065,7 +3173,7 @@
         <v>800</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
@@ -3074,7 +3182,7 @@
         <v>100</v>
       </c>
       <c r="Q48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R48" s="3">
         <v>200</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3542,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3428,64 +3554,67 @@
         <v>11300</v>
       </c>
       <c r="E54" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F54" s="3">
         <v>11200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10100</v>
-      </c>
-      <c r="L54" s="3">
-        <v>9700</v>
       </c>
       <c r="M54" s="3">
         <v>9700</v>
       </c>
       <c r="N54" s="3">
+        <v>9700</v>
+      </c>
+      <c r="O54" s="3">
         <v>8500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,25 +3664,26 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -3564,25 +3695,25 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
@@ -3591,16 +3722,19 @@
         <v>100</v>
       </c>
       <c r="U57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3611,16 +3745,16 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>300</v>
       </c>
       <c r="H58" s="3">
-        <v>200</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
+        <v>300</v>
+      </c>
+      <c r="I58" s="3">
+        <v>200</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -3637,8 +3771,8 @@
       <c r="N58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3664,22 +3798,25 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
-      </c>
-      <c r="G59" s="3">
-        <v>600</v>
       </c>
       <c r="H59" s="3">
         <v>600</v>
@@ -3697,40 +3834,43 @@
         <v>600</v>
       </c>
       <c r="M59" s="3">
+        <v>600</v>
+      </c>
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
-      </c>
-      <c r="T59" s="3">
-        <v>600</v>
       </c>
       <c r="U59" s="3">
         <v>600</v>
       </c>
       <c r="V59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="W59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3738,22 +3878,22 @@
         <v>600</v>
       </c>
       <c r="E60" s="3">
+        <v>600</v>
+      </c>
+      <c r="F60" s="3">
         <v>900</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1000</v>
       </c>
       <c r="G60" s="3">
         <v>1000</v>
       </c>
       <c r="H60" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="I60" s="3">
         <v>800</v>
       </c>
       <c r="J60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K60" s="3">
         <v>700</v>
@@ -3762,40 +3902,43 @@
         <v>700</v>
       </c>
       <c r="M60" s="3">
+        <v>700</v>
+      </c>
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
-      </c>
-      <c r="O60" s="3">
-        <v>500</v>
       </c>
       <c r="P60" s="3">
         <v>500</v>
       </c>
       <c r="Q60" s="3">
+        <v>500</v>
+      </c>
+      <c r="R60" s="3">
         <v>600</v>
-      </c>
-      <c r="R60" s="3">
-        <v>500</v>
       </c>
       <c r="S60" s="3">
         <v>500</v>
       </c>
       <c r="T60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="U60" s="3">
         <v>600</v>
       </c>
       <c r="V60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="W60" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3803,20 +3946,20 @@
         <v>200</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>100</v>
       </c>
       <c r="H61" s="3">
+        <v>100</v>
+      </c>
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3871,32 +4017,32 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
       </c>
       <c r="H62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J62" s="3">
         <v>300</v>
       </c>
       <c r="K62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L62" s="3">
         <v>400</v>
       </c>
       <c r="M62" s="3">
+        <v>400</v>
+      </c>
+      <c r="N62" s="3">
         <v>500</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3906,8 +4052,8 @@
       <c r="Q62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,8 +4274,11 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4128,10 +4286,10 @@
         <v>800</v>
       </c>
       <c r="E66" s="3">
+        <v>800</v>
+      </c>
+      <c r="F66" s="3">
         <v>900</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1300</v>
       </c>
       <c r="G66" s="3">
         <v>1300</v>
@@ -4140,52 +4298,55 @@
         <v>1300</v>
       </c>
       <c r="I66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1000</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1100</v>
       </c>
       <c r="L66" s="3">
         <v>1100</v>
       </c>
       <c r="M66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N66" s="3">
         <v>1300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>400</v>
-      </c>
-      <c r="O66" s="3">
-        <v>500</v>
       </c>
       <c r="P66" s="3">
         <v>500</v>
       </c>
       <c r="Q66" s="3">
+        <v>500</v>
+      </c>
+      <c r="R66" s="3">
         <v>600</v>
-      </c>
-      <c r="R66" s="3">
-        <v>500</v>
       </c>
       <c r="S66" s="3">
         <v>500</v>
       </c>
       <c r="T66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="U66" s="3">
         <v>600</v>
       </c>
       <c r="V66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="W66" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E72" s="3">
         <v>10000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>9900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>9400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>9200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>9100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>9000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E76" s="3">
         <v>10400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,78 +5048,84 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4938,13 +5133,13 @@
         <v>100</v>
       </c>
       <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
-        <v>200</v>
-      </c>
       <c r="G81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H81" s="3">
         <v>100</v>
@@ -4953,16 +5148,16 @@
         <v>100</v>
       </c>
       <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="L81" s="3">
-        <v>200</v>
-      </c>
       <c r="M81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N81" s="3">
         <v>300</v>
@@ -4974,14 +5169,14 @@
         <v>300</v>
       </c>
       <c r="Q81" s="3">
+        <v>300</v>
+      </c>
+      <c r="R81" s="3">
         <v>400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="S81" s="3">
-        <v>200</v>
-      </c>
       <c r="T81" s="3">
         <v>200</v>
       </c>
@@ -4994,8 +5189,11 @@
       <c r="W81" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>400</v>
-      </c>
-      <c r="F89" s="3">
-        <v>300</v>
       </c>
       <c r="G89" s="3">
         <v>300</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>600</v>
       </c>
-      <c r="L89" s="3">
-        <v>200</v>
-      </c>
       <c r="M89" s="3">
+        <v>200</v>
+      </c>
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
-        <v>200</v>
-      </c>
       <c r="O89" s="3">
+        <v>200</v>
+      </c>
+      <c r="P89" s="3">
         <v>300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>900</v>
       </c>
-      <c r="R89" s="3">
-        <v>200</v>
-      </c>
       <c r="S89" s="3">
         <v>200</v>
       </c>
       <c r="T89" s="3">
+        <v>200</v>
+      </c>
+      <c r="U89" s="3">
         <v>400</v>
       </c>
-      <c r="U89" s="3">
-        <v>100</v>
-      </c>
       <c r="V89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W89" s="3">
+        <v>200</v>
+      </c>
+      <c r="X89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,16 +6287,19 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -6062,11 +6308,11 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
+        <v>200</v>
+      </c>
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
-        <v>200</v>
-      </c>
       <c r="H102" s="3">
+        <v>200</v>
+      </c>
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3">
-        <v>200</v>
-      </c>
       <c r="M102" s="3">
+        <v>200</v>
+      </c>
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
-        <v>200</v>
-      </c>
       <c r="O102" s="3">
+        <v>200</v>
+      </c>
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>900</v>
       </c>
-      <c r="R102" s="3">
-        <v>200</v>
-      </c>
       <c r="S102" s="3">
         <v>200</v>
       </c>
       <c r="T102" s="3">
+        <v>200</v>
+      </c>
+      <c r="U102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
-        <v>100</v>
-      </c>
       <c r="V102" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W102" s="3">
+        <v>200</v>
+      </c>
+      <c r="X102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFHO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFHO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>PFHO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,112 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E8" s="3">
         <v>1300</v>
@@ -776,22 +779,22 @@
         <v>1300</v>
       </c>
       <c r="G8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H8" s="3">
         <v>1600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1900</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1800</v>
       </c>
       <c r="M8" s="3">
         <v>1800</v>
@@ -800,42 +803,45 @@
         <v>1800</v>
       </c>
       <c r="O8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P8" s="3">
         <v>1900</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1700</v>
       </c>
       <c r="Q8" s="3">
         <v>1700</v>
       </c>
       <c r="R8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S8" s="3">
         <v>1600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
@@ -844,10 +850,10 @@
         <v>200</v>
       </c>
       <c r="G9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I9" s="3">
         <v>200</v>
@@ -856,31 +862,31 @@
         <v>200</v>
       </c>
       <c r="K9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R9" s="3">
-        <v>200</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
+        <v>300</v>
+      </c>
+      <c r="S9" s="3">
+        <v>200</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>5</v>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -912,43 +921,43 @@
         <v>1100</v>
       </c>
       <c r="G10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H10" s="3">
         <v>1300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1400</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1600</v>
       </c>
       <c r="L10" s="3">
         <v>1600</v>
       </c>
       <c r="M10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N10" s="3">
         <v>1500</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1600</v>
       </c>
       <c r="O10" s="3">
         <v>1600</v>
       </c>
       <c r="P10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>1400</v>
       </c>
       <c r="R10" s="3">
         <v>1400</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
+      <c r="S10" s="3">
+        <v>1400</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>5</v>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,23 +1143,26 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-500</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1159,8 +1178,8 @@
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,93 +1311,97 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E17" s="3">
         <v>1200</v>
       </c>
       <c r="F17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1200</v>
       </c>
       <c r="Q17" s="3">
         <v>1200</v>
       </c>
       <c r="R17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S17" s="3">
         <v>1000</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1200</v>
       </c>
       <c r="T17" s="3">
         <v>1200</v>
       </c>
       <c r="U17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V17" s="3">
         <v>1300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E18" s="3">
         <v>100</v>
       </c>
       <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
         <v>600</v>
       </c>
-      <c r="G18" s="3">
-        <v>300</v>
-      </c>
       <c r="H18" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I18" s="3">
         <v>200</v>
@@ -1381,16 +1410,16 @@
         <v>200</v>
       </c>
       <c r="K18" s="3">
+        <v>200</v>
+      </c>
+      <c r="L18" s="3">
         <v>400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>500</v>
       </c>
-      <c r="M18" s="3">
-        <v>300</v>
-      </c>
       <c r="N18" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="O18" s="3">
         <v>500</v>
@@ -1402,28 +1431,31 @@
         <v>500</v>
       </c>
       <c r="R18" s="3">
+        <v>500</v>
+      </c>
+      <c r="S18" s="3">
         <v>600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>500</v>
-      </c>
-      <c r="T18" s="3">
-        <v>400</v>
       </c>
       <c r="U18" s="3">
         <v>400</v>
       </c>
       <c r="V18" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W18" s="3">
+        <v>300</v>
+      </c>
+      <c r="X18" s="3">
         <v>400</v>
       </c>
-      <c r="X18" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1516,25 +1549,28 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E21" s="3">
         <v>100</v>
       </c>
       <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>600</v>
       </c>
-      <c r="G21" s="3">
-        <v>300</v>
-      </c>
       <c r="H21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I21" s="3">
         <v>200</v>
@@ -1543,16 +1579,16 @@
         <v>200</v>
       </c>
       <c r="K21" s="3">
+        <v>200</v>
+      </c>
+      <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>400</v>
-      </c>
-      <c r="N21" s="3">
-        <v>500</v>
       </c>
       <c r="O21" s="3">
         <v>500</v>
@@ -1564,13 +1600,13 @@
         <v>500</v>
       </c>
       <c r="R21" s="3">
+        <v>500</v>
+      </c>
+      <c r="S21" s="3">
         <v>600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>500</v>
-      </c>
-      <c r="T21" s="3">
-        <v>400</v>
       </c>
       <c r="U21" s="3">
         <v>400</v>
@@ -1582,10 +1618,13 @@
         <v>400</v>
       </c>
       <c r="X21" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1598,8 +1637,8 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>5</v>
@@ -1616,8 +1655,8 @@
       <c r="L22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1637,8 +1676,8 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>5</v>
@@ -1646,49 +1685,52 @@
       <c r="V22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E23" s="3">
         <v>100</v>
       </c>
       <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>600</v>
       </c>
-      <c r="G23" s="3">
-        <v>300</v>
-      </c>
       <c r="H23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K23" s="3">
+        <v>200</v>
+      </c>
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>500</v>
       </c>
-      <c r="M23" s="3">
-        <v>300</v>
-      </c>
       <c r="N23" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O23" s="3">
         <v>400</v>
@@ -1697,16 +1739,16 @@
         <v>400</v>
       </c>
       <c r="Q23" s="3">
+        <v>400</v>
+      </c>
+      <c r="R23" s="3">
         <v>500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>500</v>
-      </c>
-      <c r="T23" s="3">
-        <v>400</v>
       </c>
       <c r="U23" s="3">
         <v>400</v>
@@ -1718,21 +1760,24 @@
         <v>400</v>
       </c>
       <c r="X23" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
@@ -1741,13 +1786,13 @@
         <v>100</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
@@ -1768,7 +1813,7 @@
         <v>100</v>
       </c>
       <c r="R24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S24" s="3">
         <v>200</v>
@@ -1786,10 +1831,13 @@
         <v>200</v>
       </c>
       <c r="X24" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,25 +1904,28 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E26" s="3">
         <v>100</v>
       </c>
       <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
-        <v>200</v>
-      </c>
       <c r="H26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I26" s="3">
         <v>100</v>
@@ -1883,16 +1934,16 @@
         <v>100</v>
       </c>
       <c r="K26" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L26" s="3">
+        <v>300</v>
+      </c>
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
-        <v>200</v>
-      </c>
       <c r="N26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O26" s="3">
         <v>300</v>
@@ -1904,13 +1955,13 @@
         <v>300</v>
       </c>
       <c r="R26" s="3">
+        <v>300</v>
+      </c>
+      <c r="S26" s="3">
         <v>400</v>
       </c>
-      <c r="S26" s="3">
-        <v>300</v>
-      </c>
       <c r="T26" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U26" s="3">
         <v>200</v>
@@ -1924,25 +1975,28 @@
       <c r="X26" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E27" s="3">
         <v>100</v>
       </c>
       <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
-        <v>200</v>
-      </c>
       <c r="H27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I27" s="3">
         <v>100</v>
@@ -1951,16 +2005,16 @@
         <v>100</v>
       </c>
       <c r="K27" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L27" s="3">
+        <v>300</v>
+      </c>
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3">
-        <v>200</v>
-      </c>
       <c r="N27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O27" s="3">
         <v>300</v>
@@ -1972,13 +2026,13 @@
         <v>300</v>
       </c>
       <c r="R27" s="3">
+        <v>300</v>
+      </c>
+      <c r="S27" s="3">
         <v>400</v>
       </c>
-      <c r="S27" s="3">
-        <v>300</v>
-      </c>
       <c r="T27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U27" s="3">
         <v>200</v>
@@ -1992,8 +2046,11 @@
       <c r="X27" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2092,8 +2152,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -2110,11 +2170,11 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2332,25 +2401,28 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E33" s="3">
         <v>100</v>
       </c>
       <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
-        <v>200</v>
-      </c>
       <c r="H33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I33" s="3">
         <v>100</v>
@@ -2359,16 +2431,16 @@
         <v>100</v>
       </c>
       <c r="K33" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L33" s="3">
+        <v>300</v>
+      </c>
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3">
-        <v>200</v>
-      </c>
       <c r="N33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O33" s="3">
         <v>300</v>
@@ -2380,13 +2452,13 @@
         <v>300</v>
       </c>
       <c r="R33" s="3">
+        <v>300</v>
+      </c>
+      <c r="S33" s="3">
         <v>400</v>
       </c>
-      <c r="S33" s="3">
-        <v>300</v>
-      </c>
       <c r="T33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U33" s="3">
         <v>200</v>
@@ -2400,8 +2472,11 @@
       <c r="X33" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,25 +2543,28 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E35" s="3">
         <v>100</v>
       </c>
       <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
-        <v>200</v>
-      </c>
       <c r="H35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I35" s="3">
         <v>100</v>
@@ -2495,16 +2573,16 @@
         <v>100</v>
       </c>
       <c r="K35" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L35" s="3">
+        <v>300</v>
+      </c>
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3">
-        <v>200</v>
-      </c>
       <c r="N35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O35" s="3">
         <v>300</v>
@@ -2516,13 +2594,13 @@
         <v>300</v>
       </c>
       <c r="R35" s="3">
+        <v>300</v>
+      </c>
+      <c r="S35" s="3">
         <v>400</v>
       </c>
-      <c r="S35" s="3">
-        <v>300</v>
-      </c>
       <c r="T35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U35" s="3">
         <v>200</v>
@@ -2536,81 +2614,87 @@
       <c r="X35" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E41" s="3">
         <v>10200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8500</v>
-      </c>
-      <c r="K41" s="3">
-        <v>8100</v>
       </c>
       <c r="L41" s="3">
         <v>8100</v>
       </c>
       <c r="M41" s="3">
+        <v>8100</v>
+      </c>
+      <c r="N41" s="3">
         <v>7600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,25 +2886,28 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1100</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1000</v>
       </c>
       <c r="I43" s="3">
         <v>1000</v>
@@ -2824,49 +2916,52 @@
         <v>1000</v>
       </c>
       <c r="K43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L43" s="3">
         <v>1100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1000</v>
-      </c>
-      <c r="M43" s="3">
-        <v>1100</v>
       </c>
       <c r="N43" s="3">
         <v>1100</v>
       </c>
       <c r="O43" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="P43" s="3">
         <v>1000</v>
       </c>
       <c r="Q43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R43" s="3">
         <v>800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>700</v>
-      </c>
-      <c r="S43" s="3">
-        <v>1000</v>
       </c>
       <c r="T43" s="3">
         <v>1000</v>
       </c>
       <c r="U43" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="V43" s="3">
         <v>1100</v>
       </c>
       <c r="W43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X43" s="3">
         <v>800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2954,10 +3052,10 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>300</v>
@@ -2978,11 +3076,11 @@
         <v>300</v>
       </c>
       <c r="Q45" s="3">
+        <v>300</v>
+      </c>
+      <c r="R45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
-        <v>200</v>
-      </c>
       <c r="S45" s="3">
         <v>200</v>
       </c>
@@ -2990,87 +3088,93 @@
         <v>200</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X45" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E46" s="3">
         <v>11000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3146,28 +3253,28 @@
         <v>200</v>
       </c>
       <c r="E48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G48" s="3">
         <v>400</v>
       </c>
       <c r="H48" s="3">
+        <v>400</v>
+      </c>
+      <c r="I48" s="3">
         <v>500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>600</v>
       </c>
       <c r="J48" s="3">
         <v>600</v>
       </c>
       <c r="K48" s="3">
+        <v>600</v>
+      </c>
+      <c r="L48" s="3">
         <v>700</v>
-      </c>
-      <c r="L48" s="3">
-        <v>800</v>
       </c>
       <c r="M48" s="3">
         <v>800</v>
@@ -3176,7 +3283,7 @@
         <v>800</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
@@ -3185,7 +3292,7 @@
         <v>100</v>
       </c>
       <c r="R48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S48" s="3">
         <v>200</v>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,8 +3667,11 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3557,64 +3682,67 @@
         <v>11300</v>
       </c>
       <c r="F54" s="3">
+        <v>11300</v>
+      </c>
+      <c r="G54" s="3">
         <v>11200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10100</v>
-      </c>
-      <c r="M54" s="3">
-        <v>9700</v>
       </c>
       <c r="N54" s="3">
         <v>9700</v>
       </c>
       <c r="O54" s="3">
+        <v>9700</v>
+      </c>
+      <c r="P54" s="3">
         <v>8500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,28 +3794,29 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -3698,25 +3828,25 @@
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
@@ -3725,16 +3855,19 @@
         <v>100</v>
       </c>
       <c r="V57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3748,16 +3881,16 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>300</v>
       </c>
       <c r="I58" s="3">
-        <v>200</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
+        <v>300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>200</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
@@ -3774,8 +3907,8 @@
       <c r="O58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3801,8 +3934,11 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3810,16 +3946,16 @@
         <v>500</v>
       </c>
       <c r="E59" s="3">
+        <v>500</v>
+      </c>
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
-      </c>
-      <c r="H59" s="3">
-        <v>600</v>
       </c>
       <c r="I59" s="3">
         <v>600</v>
@@ -3837,66 +3973,69 @@
         <v>600</v>
       </c>
       <c r="N59" s="3">
+        <v>600</v>
+      </c>
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>400</v>
-      </c>
-      <c r="U59" s="3">
-        <v>600</v>
       </c>
       <c r="V59" s="3">
         <v>600</v>
       </c>
       <c r="W59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="X59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E60" s="3">
         <v>600</v>
       </c>
       <c r="F60" s="3">
+        <v>600</v>
+      </c>
+      <c r="G60" s="3">
         <v>900</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1000</v>
       </c>
       <c r="H60" s="3">
         <v>1000</v>
       </c>
       <c r="I60" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="J60" s="3">
         <v>800</v>
       </c>
       <c r="K60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L60" s="3">
         <v>700</v>
@@ -3905,63 +4044,66 @@
         <v>700</v>
       </c>
       <c r="N60" s="3">
+        <v>700</v>
+      </c>
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
-      </c>
-      <c r="P60" s="3">
-        <v>500</v>
       </c>
       <c r="Q60" s="3">
         <v>500</v>
       </c>
       <c r="R60" s="3">
+        <v>500</v>
+      </c>
+      <c r="S60" s="3">
         <v>600</v>
-      </c>
-      <c r="S60" s="3">
-        <v>500</v>
       </c>
       <c r="T60" s="3">
         <v>500</v>
       </c>
       <c r="U60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="V60" s="3">
         <v>600</v>
       </c>
       <c r="W60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="X60" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>200</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4020,32 +4165,32 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
       </c>
       <c r="I62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K62" s="3">
         <v>300</v>
       </c>
       <c r="L62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M62" s="3">
         <v>400</v>
       </c>
       <c r="N62" s="3">
+        <v>400</v>
+      </c>
+      <c r="O62" s="3">
         <v>500</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4055,8 +4200,8 @@
       <c r="R62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,22 +4431,25 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E66" s="3">
         <v>800</v>
       </c>
       <c r="F66" s="3">
+        <v>800</v>
+      </c>
+      <c r="G66" s="3">
         <v>900</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1300</v>
       </c>
       <c r="H66" s="3">
         <v>1300</v>
@@ -4301,52 +4458,55 @@
         <v>1300</v>
       </c>
       <c r="J66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1000</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1100</v>
       </c>
       <c r="M66" s="3">
         <v>1100</v>
       </c>
       <c r="N66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O66" s="3">
         <v>1300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
-      </c>
-      <c r="P66" s="3">
-        <v>500</v>
       </c>
       <c r="Q66" s="3">
         <v>500</v>
       </c>
       <c r="R66" s="3">
+        <v>500</v>
+      </c>
+      <c r="S66" s="3">
         <v>600</v>
-      </c>
-      <c r="S66" s="3">
-        <v>500</v>
       </c>
       <c r="T66" s="3">
         <v>500</v>
       </c>
       <c r="U66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="V66" s="3">
         <v>600</v>
       </c>
       <c r="W66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="X66" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E72" s="3">
         <v>10100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>9900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>9400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>9200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>9100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>9000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E76" s="3">
         <v>10500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,98 +5239,104 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E81" s="3">
         <v>100</v>
       </c>
       <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
-        <v>200</v>
-      </c>
       <c r="H81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I81" s="3">
         <v>100</v>
@@ -5151,16 +5345,16 @@
         <v>100</v>
       </c>
       <c r="K81" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L81" s="3">
+        <v>300</v>
+      </c>
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3">
-        <v>200</v>
-      </c>
       <c r="N81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O81" s="3">
         <v>300</v>
@@ -5172,13 +5366,13 @@
         <v>300</v>
       </c>
       <c r="R81" s="3">
+        <v>300</v>
+      </c>
+      <c r="S81" s="3">
         <v>400</v>
       </c>
-      <c r="S81" s="3">
-        <v>300</v>
-      </c>
       <c r="T81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U81" s="3">
         <v>200</v>
@@ -5192,8 +5386,11 @@
       <c r="X81" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
-        <v>300</v>
-      </c>
       <c r="H89" s="3">
         <v>300</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>600</v>
       </c>
-      <c r="M89" s="3">
-        <v>200</v>
-      </c>
       <c r="N89" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O89" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P89" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q89" s="3">
+        <v>300</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>900</v>
       </c>
-      <c r="S89" s="3">
-        <v>200</v>
-      </c>
       <c r="T89" s="3">
         <v>200</v>
       </c>
       <c r="U89" s="3">
+        <v>200</v>
+      </c>
+      <c r="V89" s="3">
         <v>400</v>
       </c>
-      <c r="V89" s="3">
-        <v>100</v>
-      </c>
       <c r="W89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X89" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6299,10 +6544,10 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -6311,11 +6556,11 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -6358,8 +6603,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
+        <v>200</v>
+      </c>
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
-        <v>300</v>
-      </c>
       <c r="H102" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I102" s="3">
+        <v>200</v>
+      </c>
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="M102" s="3">
-        <v>200</v>
-      </c>
       <c r="N102" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O102" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P102" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q102" s="3">
+        <v>300</v>
+      </c>
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>900</v>
       </c>
-      <c r="S102" s="3">
-        <v>200</v>
-      </c>
       <c r="T102" s="3">
         <v>200</v>
       </c>
       <c r="U102" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V102" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="W102" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X102" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFHO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFHO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>PFHO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,115 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -773,49 +781,49 @@
         <v>1400</v>
       </c>
       <c r="E8" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F8" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G8" s="3">
         <v>1300</v>
       </c>
       <c r="H8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J8" s="3">
         <v>1600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1900</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1800</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1800</v>
       </c>
       <c r="O8" s="3">
         <v>1800</v>
       </c>
       <c r="P8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R8" s="3">
         <v>1900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1700</v>
-      </c>
-      <c r="R8" s="3">
-        <v>1700</v>
-      </c>
-      <c r="S8" s="3">
-        <v>1600</v>
       </c>
       <c r="T8" s="3">
         <v>1700</v>
@@ -827,16 +835,22 @@
         <v>1700</v>
       </c>
       <c r="W8" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="X8" s="3">
         <v>1700</v>
       </c>
       <c r="Y8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AA8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -847,25 +861,25 @@
         <v>200</v>
       </c>
       <c r="F9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G9" s="3">
         <v>200</v>
       </c>
       <c r="H9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I9" s="3">
         <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K9" s="3">
         <v>200</v>
       </c>
       <c r="L9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M9" s="3">
         <v>200</v>
@@ -888,11 +902,11 @@
       <c r="S9" s="3">
         <v>200</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>5</v>
+      <c r="T9" s="3">
+        <v>300</v>
+      </c>
+      <c r="U9" s="3">
+        <v>200</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>5</v>
@@ -906,8 +920,14 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -915,7 +935,7 @@
         <v>1100</v>
       </c>
       <c r="E10" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F10" s="3">
         <v>1100</v>
@@ -924,47 +944,47 @@
         <v>1100</v>
       </c>
       <c r="H10" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="I10" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J10" s="3">
         <v>1300</v>
       </c>
       <c r="K10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M10" s="3">
         <v>1400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1600</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1600</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1500</v>
       </c>
       <c r="O10" s="3">
         <v>1600</v>
       </c>
       <c r="P10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S10" s="3">
         <v>1500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1400</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
@@ -977,8 +997,14 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,29 +1180,35 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-500</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1181,11 +1221,11 @@
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,40 +1364,42 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E17" s="3">
         <v>1200</v>
       </c>
       <c r="F17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I17" s="3">
         <v>700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1200</v>
       </c>
       <c r="J17" s="3">
         <v>1300</v>
       </c>
       <c r="K17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M17" s="3">
         <v>1400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1300</v>
       </c>
       <c r="N17" s="3">
         <v>1500</v>
@@ -1354,25 +1408,25 @@
         <v>1300</v>
       </c>
       <c r="P17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R17" s="3">
         <v>1400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1200</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1200</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1000</v>
       </c>
       <c r="T17" s="3">
         <v>1200</v>
       </c>
       <c r="U17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V17" s="3">
         <v>1200</v>
-      </c>
-      <c r="V17" s="3">
-        <v>1300</v>
       </c>
       <c r="W17" s="3">
         <v>1200</v>
@@ -1381,51 +1435,57 @@
         <v>1300</v>
       </c>
       <c r="Y17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AA17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>200</v>
+      </c>
+      <c r="F18" s="3">
         <v>400</v>
       </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
       <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>600</v>
       </c>
-      <c r="H18" s="3">
-        <v>300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>200</v>
-      </c>
       <c r="J18" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K18" s="3">
         <v>200</v>
       </c>
       <c r="L18" s="3">
+        <v>200</v>
+      </c>
+      <c r="M18" s="3">
+        <v>200</v>
+      </c>
+      <c r="N18" s="3">
         <v>400</v>
-      </c>
-      <c r="M18" s="3">
-        <v>500</v>
-      </c>
-      <c r="N18" s="3">
-        <v>300</v>
       </c>
       <c r="O18" s="3">
         <v>500</v>
       </c>
       <c r="P18" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q18" s="3">
         <v>500</v>
@@ -1434,19 +1494,19 @@
         <v>500</v>
       </c>
       <c r="S18" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T18" s="3">
         <v>500</v>
       </c>
       <c r="U18" s="3">
+        <v>600</v>
+      </c>
+      <c r="V18" s="3">
+        <v>500</v>
+      </c>
+      <c r="W18" s="3">
         <v>400</v>
-      </c>
-      <c r="V18" s="3">
-        <v>400</v>
-      </c>
-      <c r="W18" s="3">
-        <v>300</v>
       </c>
       <c r="X18" s="3">
         <v>400</v>
@@ -1454,8 +1514,14 @@
       <c r="Y18" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1552,40 +1620,46 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>300</v>
+      </c>
+      <c r="F21" s="3">
         <v>400</v>
       </c>
-      <c r="E21" s="3">
-        <v>100</v>
-      </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
       <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
         <v>600</v>
       </c>
-      <c r="H21" s="3">
-        <v>300</v>
-      </c>
-      <c r="I21" s="3">
-        <v>200</v>
-      </c>
       <c r="J21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K21" s="3">
         <v>200</v>
       </c>
       <c r="L21" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M21" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N21" s="3">
         <v>400</v>
@@ -1594,7 +1668,7 @@
         <v>500</v>
       </c>
       <c r="P21" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q21" s="3">
         <v>500</v>
@@ -1603,16 +1677,16 @@
         <v>500</v>
       </c>
       <c r="S21" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T21" s="3">
         <v>500</v>
       </c>
       <c r="U21" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="V21" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="W21" s="3">
         <v>400</v>
@@ -1621,10 +1695,16 @@
         <v>400</v>
       </c>
       <c r="Y21" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1640,11 +1720,11 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>5</v>
@@ -1658,11 +1738,11 @@
       <c r="M22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1679,82 +1759,88 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>300</v>
+      </c>
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="E23" s="3">
-        <v>100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
       <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>600</v>
       </c>
-      <c r="H23" s="3">
-        <v>300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>200</v>
-      </c>
       <c r="J23" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K23" s="3">
         <v>200</v>
       </c>
       <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
+        <v>200</v>
+      </c>
+      <c r="N23" s="3">
         <v>400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>500</v>
       </c>
-      <c r="N23" s="3">
-        <v>300</v>
-      </c>
-      <c r="O23" s="3">
-        <v>400</v>
-      </c>
       <c r="P23" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q23" s="3">
         <v>400</v>
       </c>
       <c r="R23" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S23" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T23" s="3">
         <v>500</v>
       </c>
       <c r="U23" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="V23" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="W23" s="3">
         <v>400</v>
@@ -1763,42 +1849,48 @@
         <v>400</v>
       </c>
       <c r="Y23" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
@@ -1816,10 +1908,10 @@
         <v>100</v>
       </c>
       <c r="S24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U24" s="3">
         <v>200</v>
@@ -1834,10 +1926,16 @@
         <v>200</v>
       </c>
       <c r="Y24" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,49 +2005,55 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F26" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
-        <v>200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
       <c r="J26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K26" s="3">
         <v>100</v>
       </c>
       <c r="L26" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>300</v>
+      </c>
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
-        <v>200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>300</v>
-      </c>
       <c r="P26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q26" s="3">
         <v>300</v>
@@ -1958,16 +2062,16 @@
         <v>300</v>
       </c>
       <c r="S26" s="3">
+        <v>300</v>
+      </c>
+      <c r="T26" s="3">
+        <v>300</v>
+      </c>
+      <c r="U26" s="3">
         <v>400</v>
       </c>
-      <c r="T26" s="3">
-        <v>300</v>
-      </c>
-      <c r="U26" s="3">
-        <v>200</v>
-      </c>
       <c r="V26" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W26" s="3">
         <v>200</v>
@@ -1978,49 +2082,55 @@
       <c r="Y26" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F27" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
-        <v>200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
       <c r="J27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K27" s="3">
         <v>100</v>
       </c>
       <c r="L27" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
+        <v>300</v>
+      </c>
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
-        <v>200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>300</v>
-      </c>
       <c r="P27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q27" s="3">
         <v>300</v>
@@ -2029,16 +2139,16 @@
         <v>300</v>
       </c>
       <c r="S27" s="3">
+        <v>300</v>
+      </c>
+      <c r="T27" s="3">
+        <v>300</v>
+      </c>
+      <c r="U27" s="3">
         <v>400</v>
       </c>
-      <c r="T27" s="3">
-        <v>300</v>
-      </c>
-      <c r="U27" s="3">
-        <v>200</v>
-      </c>
       <c r="V27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W27" s="3">
         <v>200</v>
@@ -2049,8 +2159,14 @@
       <c r="Y27" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2155,11 +2277,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -2173,14 +2295,14 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2404,49 +2544,55 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F33" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
-        <v>200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
       <c r="J33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K33" s="3">
         <v>100</v>
       </c>
       <c r="L33" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
+        <v>300</v>
+      </c>
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3">
-        <v>200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>300</v>
-      </c>
       <c r="P33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q33" s="3">
         <v>300</v>
@@ -2455,16 +2601,16 @@
         <v>300</v>
       </c>
       <c r="S33" s="3">
+        <v>300</v>
+      </c>
+      <c r="T33" s="3">
+        <v>300</v>
+      </c>
+      <c r="U33" s="3">
         <v>400</v>
       </c>
-      <c r="T33" s="3">
-        <v>300</v>
-      </c>
-      <c r="U33" s="3">
-        <v>200</v>
-      </c>
       <c r="V33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W33" s="3">
         <v>200</v>
@@ -2475,8 +2621,14 @@
       <c r="Y33" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,49 +2698,55 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F35" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
-        <v>200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
       <c r="J35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K35" s="3">
         <v>100</v>
       </c>
       <c r="L35" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
+        <v>300</v>
+      </c>
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3">
-        <v>200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>300</v>
-      </c>
       <c r="P35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q35" s="3">
         <v>300</v>
@@ -2597,16 +2755,16 @@
         <v>300</v>
       </c>
       <c r="S35" s="3">
+        <v>300</v>
+      </c>
+      <c r="T35" s="3">
+        <v>300</v>
+      </c>
+      <c r="U35" s="3">
         <v>400</v>
       </c>
-      <c r="T35" s="3">
-        <v>300</v>
-      </c>
-      <c r="U35" s="3">
-        <v>200</v>
-      </c>
       <c r="V35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W35" s="3">
         <v>200</v>
@@ -2617,84 +2775,96 @@
       <c r="Y35" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2919,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10100</v>
+        <v>10400</v>
       </c>
       <c r="E41" s="3">
-        <v>10200</v>
+        <v>10500</v>
       </c>
       <c r="F41" s="3">
         <v>10100</v>
       </c>
       <c r="G41" s="3">
+        <v>10200</v>
+      </c>
+      <c r="H41" s="3">
+        <v>10100</v>
+      </c>
+      <c r="I41" s="3">
         <v>9900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>9500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>9200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>9000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>8500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>8100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>8100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>7600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>7400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>7100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>6800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>6500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>6700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>5800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>5600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>5400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>5100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>5000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,37 +3069,43 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>900</v>
+      </c>
+      <c r="F43" s="3">
         <v>1000</v>
-      </c>
-      <c r="E43" s="3">
-        <v>800</v>
-      </c>
-      <c r="F43" s="3">
-        <v>700</v>
       </c>
       <c r="G43" s="3">
         <v>800</v>
       </c>
       <c r="H43" s="3">
+        <v>700</v>
+      </c>
+      <c r="I43" s="3">
+        <v>800</v>
+      </c>
+      <c r="J43" s="3">
         <v>1100</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J43" s="3">
-        <v>1000</v>
       </c>
       <c r="K43" s="3">
         <v>1000</v>
       </c>
       <c r="L43" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="M43" s="3">
         <v>1000</v>
@@ -2928,40 +3114,46 @@
         <v>1100</v>
       </c>
       <c r="O43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P43" s="3">
         <v>1100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R43" s="3">
         <v>1000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>1100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,13 +3223,19 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -3055,13 +3253,13 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>300</v>
@@ -3079,19 +3277,19 @@
         <v>300</v>
       </c>
       <c r="R45" s="3">
+        <v>300</v>
+      </c>
+      <c r="S45" s="3">
+        <v>300</v>
+      </c>
+      <c r="T45" s="3">
         <v>400</v>
       </c>
-      <c r="S45" s="3">
-        <v>200</v>
-      </c>
-      <c r="T45" s="3">
-        <v>200</v>
-      </c>
       <c r="U45" s="3">
         <v>200</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W45" s="3">
         <v>200</v>
@@ -3102,79 +3300,91 @@
       <c r="Y45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F46" s="3">
         <v>11100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>11000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>10900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>10800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>10600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>10400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>10200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>9800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>9500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>9400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>8900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>8800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>8300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>8100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>7700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>7600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>7100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>6800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>6600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>6400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>6000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,61 +3454,67 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G48" s="3">
+        <v>200</v>
+      </c>
+      <c r="H48" s="3">
+        <v>300</v>
+      </c>
+      <c r="I48" s="3">
         <v>400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>700</v>
-      </c>
-      <c r="M48" s="3">
-        <v>800</v>
-      </c>
-      <c r="N48" s="3">
-        <v>800</v>
       </c>
       <c r="O48" s="3">
         <v>800</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="Q48" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
       </c>
       <c r="S48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U48" s="3">
         <v>200</v>
@@ -3315,8 +3531,14 @@
       <c r="Y48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11300</v>
+        <v>11700</v>
       </c>
       <c r="E54" s="3">
-        <v>11300</v>
+        <v>11600</v>
       </c>
       <c r="F54" s="3">
         <v>11300</v>
       </c>
       <c r="G54" s="3">
+        <v>11300</v>
+      </c>
+      <c r="H54" s="3">
+        <v>11300</v>
+      </c>
+      <c r="I54" s="3">
         <v>11200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>11100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>10900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>10800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>10500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>10300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>10100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>9700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>9700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>8500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>8300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>7900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>7800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>7300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>7000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>6800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>6600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>6300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,13 +4055,15 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -3813,16 +4075,16 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -3831,16 +4093,16 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
@@ -3852,13 +4114,13 @@
         <v>100</v>
       </c>
       <c r="U57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V57" s="3">
         <v>100</v>
       </c>
       <c r="W57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X57" s="3">
         <v>100</v>
@@ -3866,16 +4128,22 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -3884,19 +4152,19 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>200</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
+        <v>300</v>
+      </c>
+      <c r="K58" s="3">
+        <v>300</v>
+      </c>
+      <c r="L58" s="3">
+        <v>200</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>5</v>
@@ -3910,11 +4178,11 @@
       <c r="P58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3937,31 +4205,37 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>600</v>
+      </c>
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
-      </c>
-      <c r="I59" s="3">
-        <v>600</v>
-      </c>
-      <c r="J59" s="3">
-        <v>600</v>
       </c>
       <c r="K59" s="3">
         <v>600</v>
@@ -3976,40 +4250,46 @@
         <v>600</v>
       </c>
       <c r="O59" s="3">
+        <v>600</v>
+      </c>
+      <c r="P59" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q59" s="3">
         <v>700</v>
-      </c>
-      <c r="P59" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>500</v>
       </c>
       <c r="R59" s="3">
         <v>400</v>
       </c>
       <c r="S59" s="3">
+        <v>500</v>
+      </c>
+      <c r="T59" s="3">
+        <v>400</v>
+      </c>
+      <c r="U59" s="3">
         <v>600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4020,67 +4300,73 @@
         <v>600</v>
       </c>
       <c r="F60" s="3">
+        <v>500</v>
+      </c>
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
+        <v>600</v>
+      </c>
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
-      </c>
-      <c r="L60" s="3">
-        <v>700</v>
-      </c>
-      <c r="M60" s="3">
-        <v>700</v>
       </c>
       <c r="N60" s="3">
         <v>700</v>
       </c>
       <c r="O60" s="3">
+        <v>700</v>
+      </c>
+      <c r="P60" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>500</v>
-      </c>
-      <c r="R60" s="3">
-        <v>500</v>
-      </c>
-      <c r="S60" s="3">
-        <v>600</v>
       </c>
       <c r="T60" s="3">
         <v>500</v>
       </c>
       <c r="U60" s="3">
+        <v>600</v>
+      </c>
+      <c r="V60" s="3">
         <v>500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
+        <v>500</v>
+      </c>
+      <c r="X60" s="3">
         <v>600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4088,28 +4374,28 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -4150,8 +4436,14 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4168,46 +4460,46 @@
         <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K62" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M62" s="3">
+        <v>300</v>
+      </c>
+      <c r="N62" s="3">
+        <v>300</v>
+      </c>
+      <c r="O62" s="3">
         <v>400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>500</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,8 +4744,14 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4443,70 +4759,76 @@
         <v>500</v>
       </c>
       <c r="E66" s="3">
+        <v>600</v>
+      </c>
+      <c r="F66" s="3">
+        <v>500</v>
+      </c>
+      <c r="G66" s="3">
         <v>800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>900</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1300</v>
       </c>
       <c r="J66" s="3">
         <v>1300</v>
       </c>
       <c r="K66" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="L66" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="M66" s="3">
         <v>1100</v>
       </c>
       <c r="N66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>500</v>
-      </c>
-      <c r="R66" s="3">
-        <v>500</v>
-      </c>
-      <c r="S66" s="3">
-        <v>600</v>
       </c>
       <c r="T66" s="3">
         <v>500</v>
       </c>
       <c r="U66" s="3">
+        <v>600</v>
+      </c>
+      <c r="V66" s="3">
         <v>500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
+        <v>500</v>
+      </c>
+      <c r="X66" s="3">
         <v>600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F72" s="3">
         <v>10400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>10100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>10000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>9900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>9400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>9200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>9100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>9000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>8900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>8600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>8200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>8000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>7700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>7300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>7000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>6700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>6300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>6000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>5800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>5600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>5300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F76" s="3">
         <v>10800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>10500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>10400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>10300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>9800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>9600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>9500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>9400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>9300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>9000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>8600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>8400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>8100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>7800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>7400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>7100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>6700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>6500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>6200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>6000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>5800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,125 +5620,137 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F81" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
-        <v>200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
       <c r="J81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K81" s="3">
         <v>100</v>
       </c>
       <c r="L81" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
+        <v>300</v>
+      </c>
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3">
-        <v>200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>300</v>
-      </c>
       <c r="P81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q81" s="3">
         <v>300</v>
@@ -5369,16 +5759,16 @@
         <v>300</v>
       </c>
       <c r="S81" s="3">
+        <v>300</v>
+      </c>
+      <c r="T81" s="3">
+        <v>300</v>
+      </c>
+      <c r="U81" s="3">
         <v>400</v>
       </c>
-      <c r="T81" s="3">
-        <v>300</v>
-      </c>
-      <c r="U81" s="3">
-        <v>200</v>
-      </c>
       <c r="V81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W81" s="3">
         <v>200</v>
@@ -5389,8 +5779,14 @@
       <c r="Y81" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6270,14 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5851,38 +6285,38 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
-        <v>300</v>
-      </c>
-      <c r="I89" s="3">
-        <v>300</v>
-      </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K89" s="3">
+        <v>300</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>600</v>
       </c>
-      <c r="N89" s="3">
-        <v>200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>300</v>
-      </c>
       <c r="P89" s="3">
         <v>200</v>
       </c>
@@ -5890,31 +6324,37 @@
         <v>300</v>
       </c>
       <c r="R89" s="3">
+        <v>200</v>
+      </c>
+      <c r="S89" s="3">
+        <v>300</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>900</v>
       </c>
-      <c r="T89" s="3">
-        <v>200</v>
-      </c>
-      <c r="U89" s="3">
-        <v>200</v>
-      </c>
       <c r="V89" s="3">
+        <v>200</v>
+      </c>
+      <c r="W89" s="3">
+        <v>200</v>
+      </c>
+      <c r="X89" s="3">
         <v>400</v>
       </c>
-      <c r="W89" s="3">
-        <v>100</v>
-      </c>
-      <c r="X89" s="3">
-        <v>200</v>
-      </c>
       <c r="Y89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6011,8 +6453,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6224,8 +6684,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +7021,14 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6547,26 +7039,26 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -6606,8 +7098,14 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,8 +7175,14 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6686,38 +7190,38 @@
         <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F102" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
+        <v>200</v>
+      </c>
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
-        <v>300</v>
-      </c>
-      <c r="I102" s="3">
-        <v>200</v>
-      </c>
       <c r="J102" s="3">
+        <v>300</v>
+      </c>
+      <c r="K102" s="3">
+        <v>200</v>
+      </c>
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
-        <v>200</v>
-      </c>
-      <c r="O102" s="3">
-        <v>300</v>
-      </c>
       <c r="P102" s="3">
         <v>200</v>
       </c>
@@ -6725,27 +7229,33 @@
         <v>300</v>
       </c>
       <c r="R102" s="3">
+        <v>200</v>
+      </c>
+      <c r="S102" s="3">
+        <v>300</v>
+      </c>
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>900</v>
       </c>
-      <c r="T102" s="3">
-        <v>200</v>
-      </c>
-      <c r="U102" s="3">
-        <v>200</v>
-      </c>
       <c r="V102" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W102" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X102" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFHO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFHO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>PFHO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,120 +665,124 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E8" s="3">
         <v>1400</v>
@@ -787,7 +791,7 @@
         <v>1400</v>
       </c>
       <c r="G8" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H8" s="3">
         <v>1300</v>
@@ -796,22 +800,22 @@
         <v>1300</v>
       </c>
       <c r="J8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K8" s="3">
         <v>1600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1900</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1800</v>
       </c>
       <c r="P8" s="3">
         <v>1800</v>
@@ -820,51 +824,54 @@
         <v>1800</v>
       </c>
       <c r="R8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S8" s="3">
         <v>1900</v>
-      </c>
-      <c r="S8" s="3">
-        <v>1700</v>
       </c>
       <c r="T8" s="3">
         <v>1700</v>
       </c>
       <c r="U8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="V8" s="3">
         <v>1600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H9" s="3">
         <v>200</v>
@@ -873,10 +880,10 @@
         <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L9" s="3">
         <v>200</v>
@@ -885,31 +892,31 @@
         <v>200</v>
       </c>
       <c r="N9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U9" s="3">
-        <v>200</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
+        <v>300</v>
+      </c>
+      <c r="V9" s="3">
+        <v>200</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>5</v>
@@ -926,19 +933,22 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1200</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1100</v>
       </c>
       <c r="G10" s="3">
         <v>1100</v>
@@ -950,43 +960,43 @@
         <v>1100</v>
       </c>
       <c r="J10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K10" s="3">
         <v>1300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1400</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1600</v>
       </c>
       <c r="O10" s="3">
         <v>1600</v>
       </c>
       <c r="P10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>1600</v>
       </c>
       <c r="R10" s="3">
         <v>1600</v>
       </c>
       <c r="S10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T10" s="3">
         <v>1500</v>
-      </c>
-      <c r="T10" s="3">
-        <v>1400</v>
       </c>
       <c r="U10" s="3">
         <v>1400</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
+      <c r="V10" s="3">
+        <v>1400</v>
       </c>
       <c r="W10" s="3" t="s">
         <v>5</v>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1198,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-500</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
@@ -1227,8 +1247,8 @@
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1392,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1378,99 +1405,102 @@
         <v>1200</v>
       </c>
       <c r="F17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G17" s="3">
         <v>1000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1200</v>
       </c>
       <c r="H17" s="3">
         <v>1200</v>
       </c>
       <c r="I17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1400</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1200</v>
       </c>
       <c r="T17" s="3">
         <v>1200</v>
       </c>
       <c r="U17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V17" s="3">
         <v>1000</v>
-      </c>
-      <c r="V17" s="3">
-        <v>1200</v>
       </c>
       <c r="W17" s="3">
         <v>1200</v>
       </c>
       <c r="X17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y17" s="3">
         <v>1300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E18" s="3">
         <v>200</v>
       </c>
       <c r="F18" s="3">
+        <v>200</v>
+      </c>
+      <c r="G18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
       <c r="H18" s="3">
         <v>100</v>
       </c>
       <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
         <v>600</v>
       </c>
-      <c r="J18" s="3">
-        <v>300</v>
-      </c>
       <c r="K18" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L18" s="3">
         <v>200</v>
@@ -1479,16 +1509,16 @@
         <v>200</v>
       </c>
       <c r="N18" s="3">
+        <v>200</v>
+      </c>
+      <c r="O18" s="3">
         <v>400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>500</v>
       </c>
-      <c r="P18" s="3">
-        <v>300</v>
-      </c>
       <c r="Q18" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="R18" s="3">
         <v>500</v>
@@ -1500,28 +1530,31 @@
         <v>500</v>
       </c>
       <c r="U18" s="3">
+        <v>500</v>
+      </c>
+      <c r="V18" s="3">
         <v>600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>500</v>
-      </c>
-      <c r="W18" s="3">
-        <v>400</v>
       </c>
       <c r="X18" s="3">
         <v>400</v>
       </c>
       <c r="Y18" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Z18" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA18" s="3">
         <v>400</v>
       </c>
-      <c r="AA18" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1626,34 +1660,37 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E21" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F21" s="3">
+        <v>300</v>
+      </c>
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
       <c r="H21" s="3">
         <v>100</v>
       </c>
       <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
         <v>600</v>
       </c>
-      <c r="J21" s="3">
-        <v>300</v>
-      </c>
       <c r="K21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L21" s="3">
         <v>200</v>
@@ -1662,16 +1699,16 @@
         <v>200</v>
       </c>
       <c r="N21" s="3">
+        <v>200</v>
+      </c>
+      <c r="O21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>400</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>500</v>
       </c>
       <c r="R21" s="3">
         <v>500</v>
@@ -1683,13 +1720,13 @@
         <v>500</v>
       </c>
       <c r="U21" s="3">
+        <v>500</v>
+      </c>
+      <c r="V21" s="3">
         <v>600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>500</v>
-      </c>
-      <c r="W21" s="3">
-        <v>400</v>
       </c>
       <c r="X21" s="3">
         <v>400</v>
@@ -1701,10 +1738,13 @@
         <v>400</v>
       </c>
       <c r="AA21" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1726,8 +1766,8 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>5</v>
@@ -1744,8 +1784,8 @@
       <c r="O22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1765,8 +1805,8 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>5</v>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>5</v>
@@ -1774,58 +1814,61 @@
       <c r="Y22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
+      <c r="Z22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E23" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F23" s="3">
+        <v>300</v>
+      </c>
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
         <v>100</v>
       </c>
       <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>600</v>
       </c>
-      <c r="J23" s="3">
-        <v>300</v>
-      </c>
       <c r="K23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N23" s="3">
+        <v>200</v>
+      </c>
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>500</v>
       </c>
-      <c r="P23" s="3">
-        <v>300</v>
-      </c>
       <c r="Q23" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R23" s="3">
         <v>400</v>
@@ -1834,16 +1877,16 @@
         <v>400</v>
       </c>
       <c r="T23" s="3">
+        <v>400</v>
+      </c>
+      <c r="U23" s="3">
         <v>500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>500</v>
-      </c>
-      <c r="W23" s="3">
-        <v>400</v>
       </c>
       <c r="X23" s="3">
         <v>400</v>
@@ -1855,30 +1898,33 @@
         <v>400</v>
       </c>
       <c r="AA23" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
@@ -1887,13 +1933,13 @@
         <v>100</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
         <v>100</v>
@@ -1914,7 +1960,7 @@
         <v>100</v>
       </c>
       <c r="U24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V24" s="3">
         <v>200</v>
@@ -1932,10 +1978,13 @@
         <v>200</v>
       </c>
       <c r="AA24" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,34 +2060,37 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G26" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H26" s="3">
         <v>100</v>
       </c>
       <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
         <v>500</v>
       </c>
-      <c r="J26" s="3">
-        <v>200</v>
-      </c>
       <c r="K26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L26" s="3">
         <v>100</v>
@@ -2047,16 +2099,16 @@
         <v>100</v>
       </c>
       <c r="N26" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O26" s="3">
+        <v>300</v>
+      </c>
+      <c r="P26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
-        <v>200</v>
-      </c>
       <c r="Q26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R26" s="3">
         <v>300</v>
@@ -2068,13 +2120,13 @@
         <v>300</v>
       </c>
       <c r="U26" s="3">
+        <v>300</v>
+      </c>
+      <c r="V26" s="3">
         <v>400</v>
       </c>
-      <c r="V26" s="3">
-        <v>300</v>
-      </c>
       <c r="W26" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X26" s="3">
         <v>200</v>
@@ -2088,34 +2140,37 @@
       <c r="AA26" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G27" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H27" s="3">
         <v>100</v>
       </c>
       <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
-        <v>200</v>
-      </c>
       <c r="K27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L27" s="3">
         <v>100</v>
@@ -2124,16 +2179,16 @@
         <v>100</v>
       </c>
       <c r="N27" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O27" s="3">
+        <v>300</v>
+      </c>
+      <c r="P27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
-        <v>200</v>
-      </c>
       <c r="Q27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R27" s="3">
         <v>300</v>
@@ -2145,13 +2200,13 @@
         <v>300</v>
       </c>
       <c r="U27" s="3">
+        <v>300</v>
+      </c>
+      <c r="V27" s="3">
         <v>400</v>
       </c>
-      <c r="V27" s="3">
-        <v>300</v>
-      </c>
       <c r="W27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X27" s="3">
         <v>200</v>
@@ -2165,8 +2220,11 @@
       <c r="AA27" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2283,8 +2344,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
@@ -2301,11 +2362,11 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2550,34 +2620,37 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G33" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H33" s="3">
         <v>100</v>
       </c>
       <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
-        <v>200</v>
-      </c>
       <c r="K33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L33" s="3">
         <v>100</v>
@@ -2586,16 +2659,16 @@
         <v>100</v>
       </c>
       <c r="N33" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O33" s="3">
+        <v>300</v>
+      </c>
+      <c r="P33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
-        <v>200</v>
-      </c>
       <c r="Q33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R33" s="3">
         <v>300</v>
@@ -2607,13 +2680,13 @@
         <v>300</v>
       </c>
       <c r="U33" s="3">
+        <v>300</v>
+      </c>
+      <c r="V33" s="3">
         <v>400</v>
       </c>
-      <c r="V33" s="3">
-        <v>300</v>
-      </c>
       <c r="W33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X33" s="3">
         <v>200</v>
@@ -2627,8 +2700,11 @@
       <c r="AA33" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,34 +2780,37 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G35" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H35" s="3">
         <v>100</v>
       </c>
       <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
-        <v>200</v>
-      </c>
       <c r="K35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L35" s="3">
         <v>100</v>
@@ -2740,16 +2819,16 @@
         <v>100</v>
       </c>
       <c r="N35" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O35" s="3">
+        <v>300</v>
+      </c>
+      <c r="P35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
-        <v>200</v>
-      </c>
       <c r="Q35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R35" s="3">
         <v>300</v>
@@ -2761,13 +2840,13 @@
         <v>300</v>
       </c>
       <c r="U35" s="3">
+        <v>300</v>
+      </c>
+      <c r="V35" s="3">
         <v>400</v>
       </c>
-      <c r="V35" s="3">
-        <v>300</v>
-      </c>
       <c r="W35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X35" s="3">
         <v>200</v>
@@ -2781,90 +2860,96 @@
       <c r="AA35" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E41" s="3">
         <v>10400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8500</v>
-      </c>
-      <c r="N41" s="3">
-        <v>8100</v>
       </c>
       <c r="O41" s="3">
         <v>8100</v>
       </c>
       <c r="P41" s="3">
+        <v>8100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>7600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3087,22 +3180,22 @@
         <v>900</v>
       </c>
       <c r="F43" s="3">
+        <v>900</v>
+      </c>
+      <c r="G43" s="3">
         <v>1000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1100</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1000</v>
       </c>
       <c r="L43" s="3">
         <v>1000</v>
@@ -3111,49 +3204,52 @@
         <v>1000</v>
       </c>
       <c r="N43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O43" s="3">
         <v>1100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1000</v>
-      </c>
-      <c r="P43" s="3">
-        <v>1100</v>
       </c>
       <c r="Q43" s="3">
         <v>1100</v>
       </c>
       <c r="R43" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="S43" s="3">
         <v>1000</v>
       </c>
       <c r="T43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U43" s="3">
         <v>800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>700</v>
-      </c>
-      <c r="V43" s="3">
-        <v>1000</v>
       </c>
       <c r="W43" s="3">
         <v>1000</v>
       </c>
       <c r="X43" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="Y43" s="3">
         <v>1100</v>
       </c>
       <c r="Z43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA43" s="3">
         <v>800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3238,7 +3337,7 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -3259,10 +3358,10 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>300</v>
@@ -3283,11 +3382,11 @@
         <v>300</v>
       </c>
       <c r="T45" s="3">
+        <v>300</v>
+      </c>
+      <c r="U45" s="3">
         <v>400</v>
       </c>
-      <c r="U45" s="3">
-        <v>200</v>
-      </c>
       <c r="V45" s="3">
         <v>200</v>
       </c>
@@ -3295,96 +3394,102 @@
         <v>200</v>
       </c>
       <c r="X45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA45" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11500</v>
+        <v>11700</v>
       </c>
       <c r="E46" s="3">
         <v>11500</v>
       </c>
       <c r="F46" s="3">
+        <v>11500</v>
+      </c>
+      <c r="G46" s="3">
         <v>11100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>6600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>6400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>6000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3472,34 +3580,34 @@
         <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
       </c>
       <c r="H48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J48" s="3">
         <v>400</v>
       </c>
       <c r="K48" s="3">
+        <v>400</v>
+      </c>
+      <c r="L48" s="3">
         <v>500</v>
-      </c>
-      <c r="L48" s="3">
-        <v>600</v>
       </c>
       <c r="M48" s="3">
         <v>600</v>
       </c>
       <c r="N48" s="3">
+        <v>600</v>
+      </c>
+      <c r="O48" s="3">
         <v>700</v>
-      </c>
-      <c r="O48" s="3">
-        <v>800</v>
       </c>
       <c r="P48" s="3">
         <v>800</v>
@@ -3508,7 +3616,7 @@
         <v>800</v>
       </c>
       <c r="R48" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
@@ -3517,7 +3625,7 @@
         <v>100</v>
       </c>
       <c r="U48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V48" s="3">
         <v>200</v>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,19 +4045,22 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E54" s="3">
         <v>11700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11600</v>
-      </c>
-      <c r="F54" s="3">
-        <v>11300</v>
       </c>
       <c r="G54" s="3">
         <v>11300</v>
@@ -3943,64 +4069,67 @@
         <v>11300</v>
       </c>
       <c r="I54" s="3">
+        <v>11300</v>
+      </c>
+      <c r="J54" s="3">
         <v>11200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10100</v>
-      </c>
-      <c r="P54" s="3">
-        <v>9700</v>
       </c>
       <c r="Q54" s="3">
         <v>9700</v>
       </c>
       <c r="R54" s="3">
+        <v>9700</v>
+      </c>
+      <c r="S54" s="3">
         <v>8500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>7000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>6600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>6300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4069,25 +4200,25 @@
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -4099,25 +4230,25 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W57" s="3">
         <v>100</v>
@@ -4126,16 +4257,19 @@
         <v>100</v>
       </c>
       <c r="Y57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4145,8 +4279,8 @@
       <c r="E58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -4158,16 +4292,16 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>300</v>
       </c>
       <c r="L58" s="3">
-        <v>200</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
+        <v>300</v>
+      </c>
+      <c r="M58" s="3">
+        <v>200</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>5</v>
@@ -4184,8 +4318,8 @@
       <c r="R58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -4211,34 +4345,37 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
-      </c>
-      <c r="F59" s="3">
-        <v>500</v>
       </c>
       <c r="G59" s="3">
         <v>500</v>
       </c>
       <c r="H59" s="3">
+        <v>500</v>
+      </c>
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
-      </c>
-      <c r="K59" s="3">
-        <v>600</v>
       </c>
       <c r="L59" s="3">
         <v>600</v>
@@ -4256,75 +4393,78 @@
         <v>600</v>
       </c>
       <c r="Q59" s="3">
+        <v>600</v>
+      </c>
+      <c r="R59" s="3">
         <v>700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>400</v>
-      </c>
-      <c r="X59" s="3">
-        <v>600</v>
       </c>
       <c r="Y59" s="3">
         <v>600</v>
       </c>
       <c r="Z59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="AA59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>400</v>
+      </c>
+      <c r="E60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>500</v>
-      </c>
-      <c r="G60" s="3">
-        <v>600</v>
       </c>
       <c r="H60" s="3">
         <v>600</v>
       </c>
       <c r="I60" s="3">
+        <v>600</v>
+      </c>
+      <c r="J60" s="3">
         <v>900</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1000</v>
       </c>
       <c r="K60" s="3">
         <v>1000</v>
       </c>
       <c r="L60" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M60" s="3">
         <v>800</v>
       </c>
       <c r="N60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="O60" s="3">
         <v>700</v>
@@ -4333,40 +4473,43 @@
         <v>700</v>
       </c>
       <c r="Q60" s="3">
+        <v>700</v>
+      </c>
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
-      </c>
-      <c r="S60" s="3">
-        <v>500</v>
       </c>
       <c r="T60" s="3">
         <v>500</v>
       </c>
       <c r="U60" s="3">
+        <v>500</v>
+      </c>
+      <c r="V60" s="3">
         <v>600</v>
-      </c>
-      <c r="V60" s="3">
-        <v>500</v>
       </c>
       <c r="W60" s="3">
         <v>500</v>
       </c>
       <c r="X60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Y60" s="3">
         <v>600</v>
       </c>
       <c r="Z60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AA60" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4380,25 +4523,25 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>200</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4466,31 +4612,31 @@
         <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
       </c>
       <c r="L62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N62" s="3">
         <v>300</v>
       </c>
       <c r="O62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P62" s="3">
         <v>400</v>
       </c>
       <c r="Q62" s="3">
+        <v>400</v>
+      </c>
+      <c r="R62" s="3">
         <v>500</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>5</v>
@@ -4501,8 +4647,8 @@
       <c r="U62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,31 +4905,34 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>400</v>
+      </c>
+      <c r="E66" s="3">
         <v>500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>500</v>
-      </c>
-      <c r="G66" s="3">
-        <v>800</v>
       </c>
       <c r="H66" s="3">
         <v>800</v>
       </c>
       <c r="I66" s="3">
+        <v>800</v>
+      </c>
+      <c r="J66" s="3">
         <v>900</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1300</v>
       </c>
       <c r="K66" s="3">
         <v>1300</v>
@@ -4783,52 +4941,55 @@
         <v>1300</v>
       </c>
       <c r="M66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1000</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1100</v>
       </c>
       <c r="P66" s="3">
         <v>1100</v>
       </c>
       <c r="Q66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R66" s="3">
         <v>1300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>400</v>
-      </c>
-      <c r="S66" s="3">
-        <v>500</v>
       </c>
       <c r="T66" s="3">
         <v>500</v>
       </c>
       <c r="U66" s="3">
+        <v>500</v>
+      </c>
+      <c r="V66" s="3">
         <v>600</v>
-      </c>
-      <c r="V66" s="3">
-        <v>500</v>
       </c>
       <c r="W66" s="3">
         <v>500</v>
       </c>
       <c r="X66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Y66" s="3">
         <v>600</v>
       </c>
       <c r="Z66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AA66" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E72" s="3">
         <v>10700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>9900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>9400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>6000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>5800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>5600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>5300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E76" s="3">
         <v>11100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>6000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>5800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,116 +5815,122 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G81" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H81" s="3">
         <v>100</v>
       </c>
       <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
-        <v>200</v>
-      </c>
       <c r="K81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L81" s="3">
         <v>100</v>
@@ -5744,16 +5939,16 @@
         <v>100</v>
       </c>
       <c r="N81" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O81" s="3">
+        <v>300</v>
+      </c>
+      <c r="P81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
-        <v>200</v>
-      </c>
       <c r="Q81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R81" s="3">
         <v>300</v>
@@ -5765,13 +5960,13 @@
         <v>300</v>
       </c>
       <c r="U81" s="3">
+        <v>300</v>
+      </c>
+      <c r="V81" s="3">
         <v>400</v>
       </c>
-      <c r="V81" s="3">
-        <v>300</v>
-      </c>
       <c r="W81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X81" s="3">
         <v>200</v>
@@ -5785,8 +5980,11 @@
       <c r="AA81" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="J89" s="3">
-        <v>300</v>
-      </c>
       <c r="K89" s="3">
         <v>300</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>400</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>600</v>
       </c>
-      <c r="P89" s="3">
-        <v>200</v>
-      </c>
       <c r="Q89" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R89" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S89" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T89" s="3">
+        <v>300</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>900</v>
       </c>
-      <c r="V89" s="3">
-        <v>200</v>
-      </c>
       <c r="W89" s="3">
         <v>200</v>
       </c>
       <c r="X89" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y89" s="3">
         <v>400</v>
       </c>
-      <c r="Y89" s="3">
-        <v>100</v>
-      </c>
       <c r="Z89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA89" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7045,10 +7291,10 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -7057,11 +7303,11 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
+        <v>200</v>
+      </c>
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
-        <v>300</v>
-      </c>
       <c r="K102" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L102" s="3">
+        <v>200</v>
+      </c>
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>500</v>
       </c>
-      <c r="P102" s="3">
-        <v>200</v>
-      </c>
       <c r="Q102" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R102" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S102" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T102" s="3">
+        <v>300</v>
+      </c>
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>900</v>
       </c>
-      <c r="V102" s="3">
-        <v>200</v>
-      </c>
       <c r="W102" s="3">
         <v>200</v>
       </c>
       <c r="X102" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y102" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Z102" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA102" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFHO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFHO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>PFHO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,185 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E8" s="3">
         <v>1500</v>
       </c>
-      <c r="E8" s="3">
-        <v>1400</v>
-      </c>
       <c r="F8" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G8" s="3">
         <v>1400</v>
       </c>
       <c r="H8" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="I8" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="J8" s="3">
         <v>1300</v>
       </c>
       <c r="K8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M8" s="3">
         <v>1600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1900</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1800</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1800</v>
       </c>
       <c r="R8" s="3">
         <v>1800</v>
       </c>
       <c r="S8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U8" s="3">
         <v>1900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1700</v>
-      </c>
-      <c r="U8" s="3">
-        <v>1700</v>
-      </c>
-      <c r="V8" s="3">
-        <v>1600</v>
       </c>
       <c r="W8" s="3">
         <v>1700</v>
@@ -848,24 +855,30 @@
         <v>1700</v>
       </c>
       <c r="Z8" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="AA8" s="3">
         <v>1700</v>
       </c>
       <c r="AB8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AD8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F9" s="3">
         <v>200</v>
@@ -877,25 +890,25 @@
         <v>200</v>
       </c>
       <c r="I9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J9" s="3">
         <v>200</v>
       </c>
       <c r="K9" s="3">
+        <v>200</v>
+      </c>
+      <c r="L9" s="3">
+        <v>200</v>
+      </c>
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
-        <v>200</v>
-      </c>
-      <c r="M9" s="3">
-        <v>200</v>
-      </c>
       <c r="N9" s="3">
         <v>200</v>
       </c>
       <c r="O9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P9" s="3">
         <v>200</v>
@@ -918,11 +931,11 @@
       <c r="V9" s="3">
         <v>200</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>5</v>
+      <c r="W9" s="3">
+        <v>300</v>
+      </c>
+      <c r="X9" s="3">
+        <v>200</v>
       </c>
       <c r="Y9" s="3" t="s">
         <v>5</v>
@@ -936,25 +949,31 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="E10" s="3">
         <v>1100</v>
       </c>
       <c r="F10" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G10" s="3">
         <v>1100</v>
       </c>
       <c r="H10" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I10" s="3">
         <v>1100</v>
@@ -963,47 +982,47 @@
         <v>1100</v>
       </c>
       <c r="K10" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="L10" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="M10" s="3">
         <v>1300</v>
       </c>
       <c r="N10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P10" s="3">
         <v>1400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1600</v>
-      </c>
-      <c r="P10" s="3">
-        <v>1600</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>1500</v>
       </c>
       <c r="R10" s="3">
         <v>1600</v>
       </c>
       <c r="S10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T10" s="3">
         <v>1600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V10" s="3">
         <v>1500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1400</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1016,8 +1035,14 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,13 +1239,19 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1221,23 +1260,23 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-500</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1250,11 +1289,11 @@
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1286,8 +1325,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,8 +1444,10 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1402,40 +1455,40 @@
         <v>1200</v>
       </c>
       <c r="E17" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="F17" s="3">
         <v>1200</v>
       </c>
       <c r="G17" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="H17" s="3">
         <v>1200</v>
       </c>
       <c r="I17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L17" s="3">
         <v>700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1200</v>
       </c>
       <c r="M17" s="3">
         <v>1300</v>
       </c>
       <c r="N17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P17" s="3">
         <v>1400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1300</v>
       </c>
       <c r="Q17" s="3">
         <v>1500</v>
@@ -1444,25 +1497,25 @@
         <v>1300</v>
       </c>
       <c r="S17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U17" s="3">
         <v>1400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1200</v>
-      </c>
-      <c r="U17" s="3">
-        <v>1200</v>
-      </c>
-      <c r="V17" s="3">
-        <v>1000</v>
       </c>
       <c r="W17" s="3">
         <v>1200</v>
       </c>
       <c r="X17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y17" s="3">
         <v>1200</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>1300</v>
       </c>
       <c r="Z17" s="3">
         <v>1200</v>
@@ -1471,60 +1524,66 @@
         <v>1300</v>
       </c>
       <c r="AB17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AD17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>300</v>
       </c>
-      <c r="E18" s="3">
-        <v>200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>200</v>
-      </c>
       <c r="G18" s="3">
+        <v>200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>200</v>
+      </c>
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
       <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
         <v>600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="L18" s="3">
-        <v>200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>200</v>
-      </c>
       <c r="N18" s="3">
         <v>200</v>
       </c>
       <c r="O18" s="3">
+        <v>200</v>
+      </c>
+      <c r="P18" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>400</v>
-      </c>
-      <c r="P18" s="3">
-        <v>500</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>300</v>
       </c>
       <c r="R18" s="3">
         <v>500</v>
       </c>
       <c r="S18" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="T18" s="3">
         <v>500</v>
@@ -1533,19 +1592,19 @@
         <v>500</v>
       </c>
       <c r="V18" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="W18" s="3">
         <v>500</v>
       </c>
       <c r="X18" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z18" s="3">
         <v>400</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>400</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>300</v>
       </c>
       <c r="AA18" s="3">
         <v>400</v>
@@ -1553,8 +1612,14 @@
       <c r="AB18" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,13 +1648,15 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1663,49 +1730,55 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E21" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
         <v>300</v>
       </c>
       <c r="G21" s="3">
+        <v>200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>300</v>
+      </c>
+      <c r="I21" s="3">
         <v>400</v>
       </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
       <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
         <v>600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>300</v>
       </c>
-      <c r="L21" s="3">
-        <v>200</v>
-      </c>
-      <c r="M21" s="3">
-        <v>200</v>
-      </c>
       <c r="N21" s="3">
         <v>200</v>
       </c>
       <c r="O21" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="P21" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="Q21" s="3">
         <v>400</v>
@@ -1714,7 +1787,7 @@
         <v>500</v>
       </c>
       <c r="S21" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T21" s="3">
         <v>500</v>
@@ -1723,16 +1796,16 @@
         <v>500</v>
       </c>
       <c r="V21" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="W21" s="3">
         <v>500</v>
       </c>
       <c r="X21" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Y21" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Z21" s="3">
         <v>400</v>
@@ -1741,15 +1814,21 @@
         <v>400</v>
       </c>
       <c r="AB21" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1769,11 +1848,11 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>5</v>
@@ -1787,11 +1866,11 @@
       <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1808,91 +1887,97 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>5</v>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
       </c>
       <c r="Z22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>300</v>
       </c>
       <c r="G23" s="3">
+        <v>200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>300</v>
+      </c>
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
       <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
         <v>600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
-        <v>200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
       <c r="N23" s="3">
         <v>200</v>
       </c>
       <c r="O23" s="3">
+        <v>100</v>
+      </c>
+      <c r="P23" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>300</v>
-      </c>
-      <c r="R23" s="3">
-        <v>400</v>
-      </c>
-      <c r="S23" s="3">
-        <v>400</v>
       </c>
       <c r="T23" s="3">
         <v>400</v>
       </c>
       <c r="U23" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="V23" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="W23" s="3">
         <v>500</v>
       </c>
       <c r="X23" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Y23" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Z23" s="3">
         <v>400</v>
@@ -1901,10 +1986,16 @@
         <v>400</v>
       </c>
       <c r="AB23" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1918,34 +2009,34 @@
         <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>100</v>
@@ -1963,10 +2054,10 @@
         <v>100</v>
       </c>
       <c r="V24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X24" s="3">
         <v>200</v>
@@ -1981,10 +2072,16 @@
         <v>200</v>
       </c>
       <c r="AB24" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,58 +2160,64 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>200</v>
       </c>
       <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>200</v>
+      </c>
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
       <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
         <v>500</v>
       </c>
-      <c r="K26" s="3">
-        <v>200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
       <c r="M26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N26" s="3">
         <v>100</v>
       </c>
       <c r="O26" s="3">
+        <v>100</v>
+      </c>
+      <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>400</v>
       </c>
-      <c r="Q26" s="3">
-        <v>200</v>
-      </c>
-      <c r="R26" s="3">
-        <v>300</v>
-      </c>
       <c r="S26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T26" s="3">
         <v>300</v>
@@ -2123,16 +2226,16 @@
         <v>300</v>
       </c>
       <c r="V26" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W26" s="3">
         <v>300</v>
       </c>
       <c r="X26" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Y26" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z26" s="3">
         <v>200</v>
@@ -2143,58 +2246,64 @@
       <c r="AB26" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>200</v>
       </c>
       <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>200</v>
+      </c>
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
       <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="K27" s="3">
-        <v>200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
       <c r="M27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N27" s="3">
         <v>100</v>
       </c>
       <c r="O27" s="3">
+        <v>100</v>
+      </c>
+      <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>400</v>
       </c>
-      <c r="Q27" s="3">
-        <v>200</v>
-      </c>
-      <c r="R27" s="3">
-        <v>300</v>
-      </c>
       <c r="S27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T27" s="3">
         <v>300</v>
@@ -2203,16 +2312,16 @@
         <v>300</v>
       </c>
       <c r="V27" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W27" s="3">
         <v>300</v>
       </c>
       <c r="X27" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Y27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z27" s="3">
         <v>200</v>
@@ -2223,8 +2332,14 @@
       <c r="AB27" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2347,11 +2468,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
@@ -2365,14 +2486,14 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
+      <c r="W29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
+      <c r="Y29" s="3">
+        <v>0</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>5</v>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,13 +2676,19 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2623,58 +2762,64 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
         <v>200</v>
       </c>
       <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>200</v>
+      </c>
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
       <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
-        <v>200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
       <c r="M33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N33" s="3">
         <v>100</v>
       </c>
       <c r="O33" s="3">
+        <v>100</v>
+      </c>
+      <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>400</v>
       </c>
-      <c r="Q33" s="3">
-        <v>200</v>
-      </c>
-      <c r="R33" s="3">
-        <v>300</v>
-      </c>
       <c r="S33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T33" s="3">
         <v>300</v>
@@ -2683,16 +2828,16 @@
         <v>300</v>
       </c>
       <c r="V33" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W33" s="3">
         <v>300</v>
       </c>
       <c r="X33" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Y33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z33" s="3">
         <v>200</v>
@@ -2703,8 +2848,14 @@
       <c r="AB33" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,58 +2934,64 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>200</v>
       </c>
       <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>200</v>
+      </c>
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
       <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
-        <v>200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
       <c r="M35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N35" s="3">
         <v>100</v>
       </c>
       <c r="O35" s="3">
+        <v>100</v>
+      </c>
+      <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>400</v>
       </c>
-      <c r="Q35" s="3">
-        <v>200</v>
-      </c>
-      <c r="R35" s="3">
-        <v>300</v>
-      </c>
       <c r="S35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T35" s="3">
         <v>300</v>
@@ -2843,16 +3000,16 @@
         <v>300</v>
       </c>
       <c r="V35" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W35" s="3">
         <v>300</v>
       </c>
       <c r="X35" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Y35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z35" s="3">
         <v>200</v>
@@ -2863,93 +3020,105 @@
       <c r="AB35" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,111 +3179,119 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F41" s="3">
         <v>10600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>10400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>10500</v>
-      </c>
-      <c r="G41" s="3">
-        <v>10100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>10200</v>
       </c>
       <c r="I41" s="3">
         <v>10100</v>
       </c>
       <c r="J41" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K41" s="3">
+        <v>10100</v>
+      </c>
+      <c r="L41" s="3">
         <v>9900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>9500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>9200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>9000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>8500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>8100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>8100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>7600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>7400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>7100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>6800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>6500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>6700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>5800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>5600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>5400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>5100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>5000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>8800</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>8700</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -3168,13 +3347,19 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E43" s="3">
         <v>900</v>
@@ -3183,31 +3368,31 @@
         <v>900</v>
       </c>
       <c r="G43" s="3">
+        <v>900</v>
+      </c>
+      <c r="H43" s="3">
+        <v>900</v>
+      </c>
+      <c r="I43" s="3">
         <v>1000</v>
-      </c>
-      <c r="H43" s="3">
-        <v>800</v>
-      </c>
-      <c r="I43" s="3">
-        <v>700</v>
       </c>
       <c r="J43" s="3">
         <v>800</v>
       </c>
       <c r="K43" s="3">
+        <v>700</v>
+      </c>
+      <c r="L43" s="3">
+        <v>800</v>
+      </c>
+      <c r="M43" s="3">
         <v>1100</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M43" s="3">
-        <v>1000</v>
       </c>
       <c r="N43" s="3">
         <v>1000</v>
       </c>
       <c r="O43" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="P43" s="3">
         <v>1000</v>
@@ -3216,40 +3401,46 @@
         <v>1100</v>
       </c>
       <c r="R43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S43" s="3">
         <v>1100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U43" s="3">
         <v>1000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>1000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>1100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>1100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3519,14 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3340,10 +3537,10 @@
         <v>200</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -3361,13 +3558,13 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P45" s="3">
         <v>300</v>
@@ -3385,19 +3582,19 @@
         <v>300</v>
       </c>
       <c r="U45" s="3">
+        <v>300</v>
+      </c>
+      <c r="V45" s="3">
+        <v>300</v>
+      </c>
+      <c r="W45" s="3">
         <v>400</v>
       </c>
-      <c r="V45" s="3">
-        <v>200</v>
-      </c>
-      <c r="W45" s="3">
-        <v>200</v>
-      </c>
       <c r="X45" s="3">
         <v>200</v>
       </c>
       <c r="Y45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z45" s="3">
         <v>200</v>
@@ -3408,88 +3605,100 @@
       <c r="AB45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F46" s="3">
         <v>11700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>11500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>11500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>11100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>11000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>10900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>10800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>10600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>10400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>10200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>9800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>9500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>9400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>8900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>8800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>8300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>8100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>7700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>7600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>7100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>6800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>6600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>6400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>6000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3777,14 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3583,55 +3798,55 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
+        <v>200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>200</v>
+      </c>
+      <c r="K48" s="3">
         <v>300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>700</v>
-      </c>
-      <c r="P48" s="3">
-        <v>800</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>800</v>
       </c>
       <c r="R48" s="3">
         <v>800</v>
       </c>
       <c r="S48" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="T48" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="U48" s="3">
         <v>100</v>
       </c>
       <c r="V48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X48" s="3">
         <v>200</v>
@@ -3648,8 +3863,14 @@
       <c r="AB48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F54" s="3">
         <v>11800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>11700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>11600</v>
-      </c>
-      <c r="G54" s="3">
-        <v>11300</v>
-      </c>
-      <c r="H54" s="3">
-        <v>11300</v>
       </c>
       <c r="I54" s="3">
         <v>11300</v>
       </c>
       <c r="J54" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K54" s="3">
+        <v>11300</v>
+      </c>
+      <c r="L54" s="3">
         <v>11200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>11100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>10900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>10800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>10500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>10300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>10100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>9700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>9700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>8500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>8300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>7900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>7800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>7300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>7000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>6800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>6600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>6300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,22 +4447,24 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -4215,16 +4476,16 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
@@ -4233,16 +4494,16 @@
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
@@ -4254,13 +4515,13 @@
         <v>100</v>
       </c>
       <c r="X57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="3">
         <v>100</v>
       </c>
       <c r="Z57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA57" s="3">
         <v>100</v>
@@ -4268,8 +4529,14 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4282,11 +4549,11 @@
       <c r="F58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -4295,19 +4562,19 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
-        <v>200</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
+      <c r="O58" s="3">
+        <v>200</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>5</v>
@@ -4321,11 +4588,11 @@
       <c r="S58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4348,40 +4615,46 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
         <v>400</v>
       </c>
       <c r="F59" s="3">
+        <v>300</v>
+      </c>
+      <c r="G59" s="3">
+        <v>400</v>
+      </c>
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
-      </c>
-      <c r="L59" s="3">
-        <v>600</v>
-      </c>
-      <c r="M59" s="3">
-        <v>600</v>
       </c>
       <c r="N59" s="3">
         <v>600</v>
@@ -4396,51 +4669,57 @@
         <v>600</v>
       </c>
       <c r="R59" s="3">
+        <v>600</v>
+      </c>
+      <c r="S59" s="3">
+        <v>600</v>
+      </c>
+      <c r="T59" s="3">
         <v>700</v>
-      </c>
-      <c r="S59" s="3">
-        <v>400</v>
-      </c>
-      <c r="T59" s="3">
-        <v>500</v>
       </c>
       <c r="U59" s="3">
         <v>400</v>
       </c>
       <c r="V59" s="3">
+        <v>500</v>
+      </c>
+      <c r="W59" s="3">
+        <v>400</v>
+      </c>
+      <c r="X59" s="3">
         <v>600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>700</v>
+      </c>
+      <c r="F60" s="3">
         <v>400</v>
-      </c>
-      <c r="E60" s="3">
-        <v>500</v>
-      </c>
-      <c r="F60" s="3">
-        <v>600</v>
       </c>
       <c r="G60" s="3">
         <v>500</v>
@@ -4449,67 +4728,73 @@
         <v>600</v>
       </c>
       <c r="I60" s="3">
+        <v>500</v>
+      </c>
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
+        <v>600</v>
+      </c>
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
-      </c>
-      <c r="O60" s="3">
-        <v>700</v>
-      </c>
-      <c r="P60" s="3">
-        <v>700</v>
       </c>
       <c r="Q60" s="3">
         <v>700</v>
       </c>
       <c r="R60" s="3">
+        <v>700</v>
+      </c>
+      <c r="S60" s="3">
+        <v>700</v>
+      </c>
+      <c r="T60" s="3">
         <v>800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>500</v>
-      </c>
-      <c r="U60" s="3">
-        <v>500</v>
-      </c>
-      <c r="V60" s="3">
-        <v>600</v>
       </c>
       <c r="W60" s="3">
         <v>500</v>
       </c>
       <c r="X60" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y60" s="3">
         <v>500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA60" s="3">
         <v>600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4526,29 +4811,29 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>100</v>
+      </c>
+      <c r="N61" s="3">
+        <v>100</v>
+      </c>
+      <c r="O61" s="3">
         <v>300</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4588,8 +4873,14 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4615,46 +4906,46 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N62" s="3">
+        <v>100</v>
+      </c>
+      <c r="O62" s="3">
+        <v>200</v>
+      </c>
+      <c r="P62" s="3">
         <v>300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>500</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>700</v>
+      </c>
+      <c r="F66" s="3">
         <v>400</v>
-      </c>
-      <c r="E66" s="3">
-        <v>500</v>
-      </c>
-      <c r="F66" s="3">
-        <v>600</v>
       </c>
       <c r="G66" s="3">
         <v>500</v>
       </c>
       <c r="H66" s="3">
+        <v>600</v>
+      </c>
+      <c r="I66" s="3">
+        <v>500</v>
+      </c>
+      <c r="J66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>900</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1300</v>
       </c>
       <c r="M66" s="3">
         <v>1300</v>
       </c>
       <c r="N66" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="O66" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="P66" s="3">
         <v>1100</v>
       </c>
       <c r="Q66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T66" s="3">
         <v>1300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>500</v>
-      </c>
-      <c r="U66" s="3">
-        <v>500</v>
-      </c>
-      <c r="V66" s="3">
-        <v>600</v>
       </c>
       <c r="W66" s="3">
         <v>500</v>
       </c>
       <c r="X66" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y66" s="3">
         <v>500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA66" s="3">
         <v>600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E72" s="3">
         <v>10900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>10900</v>
+      </c>
+      <c r="G72" s="3">
         <v>10700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>10600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>10400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>10100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>10000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>9900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>9400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>9200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>9100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>9000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>8900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>8600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>8200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>8000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>7700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>7300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>7000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>6700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>6300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>6000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>5800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>5600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>5300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E76" s="3">
         <v>11300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>11300</v>
+      </c>
+      <c r="G76" s="3">
         <v>11100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>11000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>10800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>10500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>10400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>10300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>9800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>9600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>9500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>9400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>9300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>9000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>8600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>8400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>8100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>7800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>7400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>7100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>6700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>6500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>6200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>6000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>5800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,143 +6195,155 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
         <v>200</v>
       </c>
       <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>200</v>
+      </c>
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
       <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
-        <v>200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
       <c r="M81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N81" s="3">
         <v>100</v>
       </c>
       <c r="O81" s="3">
+        <v>100</v>
+      </c>
+      <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>400</v>
       </c>
-      <c r="Q81" s="3">
-        <v>200</v>
-      </c>
-      <c r="R81" s="3">
-        <v>300</v>
-      </c>
       <c r="S81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T81" s="3">
         <v>300</v>
@@ -5963,16 +6352,16 @@
         <v>300</v>
       </c>
       <c r="V81" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W81" s="3">
         <v>300</v>
       </c>
       <c r="X81" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Y81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z81" s="3">
         <v>200</v>
@@ -5983,8 +6372,14 @@
       <c r="AB81" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,55 +6920,61 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>100</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>400</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>600</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>200</v>
-      </c>
-      <c r="R89" s="3">
-        <v>300</v>
       </c>
       <c r="S89" s="3">
         <v>200</v>
@@ -6550,31 +6983,37 @@
         <v>300</v>
       </c>
       <c r="U89" s="3">
+        <v>200</v>
+      </c>
+      <c r="V89" s="3">
+        <v>300</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>900</v>
       </c>
-      <c r="W89" s="3">
-        <v>200</v>
-      </c>
-      <c r="X89" s="3">
-        <v>200</v>
-      </c>
       <c r="Y89" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA89" s="3">
         <v>400</v>
       </c>
-      <c r="Z89" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>200</v>
-      </c>
       <c r="AB89" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7042,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +7124,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7296,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6852,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-8700</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -6923,8 +7382,14 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7758,14 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7294,26 +7785,26 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -7353,8 +7844,14 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,55 +7930,61 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>-8600</v>
       </c>
       <c r="F102" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G102" s="3">
         <v>-100</v>
       </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I102" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
+        <v>200</v>
+      </c>
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
-        <v>200</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>200</v>
+      </c>
+      <c r="O102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>500</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>200</v>
-      </c>
-      <c r="R102" s="3">
-        <v>300</v>
       </c>
       <c r="S102" s="3">
         <v>200</v>
@@ -7490,27 +7993,33 @@
         <v>300</v>
       </c>
       <c r="U102" s="3">
+        <v>200</v>
+      </c>
+      <c r="V102" s="3">
+        <v>300</v>
+      </c>
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>900</v>
       </c>
-      <c r="W102" s="3">
-        <v>200</v>
-      </c>
-      <c r="X102" s="3">
-        <v>200</v>
-      </c>
       <c r="Y102" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA102" s="3">
         <v>300</v>
       </c>
-      <c r="Z102" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA102" s="3">
-        <v>200</v>
-      </c>
       <c r="AB102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFHO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFHO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>PFHO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -792,13 +796,13 @@
         <v>1300</v>
       </c>
       <c r="E8" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="F8" s="3">
         <v>1500</v>
       </c>
       <c r="G8" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H8" s="3">
         <v>1400</v>
@@ -807,7 +811,7 @@
         <v>1400</v>
       </c>
       <c r="J8" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K8" s="3">
         <v>1300</v>
@@ -816,22 +820,22 @@
         <v>1300</v>
       </c>
       <c r="M8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N8" s="3">
         <v>1600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1900</v>
-      </c>
-      <c r="R8" s="3">
-        <v>1800</v>
       </c>
       <c r="S8" s="3">
         <v>1800</v>
@@ -840,37 +844,40 @@
         <v>1800</v>
       </c>
       <c r="U8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V8" s="3">
         <v>1900</v>
-      </c>
-      <c r="V8" s="3">
-        <v>1700</v>
       </c>
       <c r="W8" s="3">
         <v>1700</v>
       </c>
       <c r="X8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Y8" s="3">
         <v>1600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1700</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -878,22 +885,22 @@
         <v>300</v>
       </c>
       <c r="E9" s="3">
+        <v>300</v>
+      </c>
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
-        <v>200</v>
-      </c>
       <c r="G9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K9" s="3">
         <v>200</v>
@@ -902,10 +909,10 @@
         <v>200</v>
       </c>
       <c r="M9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O9" s="3">
         <v>200</v>
@@ -914,31 +921,31 @@
         <v>200</v>
       </c>
       <c r="Q9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X9" s="3">
-        <v>200</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>5</v>
+        <v>300</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>200</v>
       </c>
       <c r="Z9" s="3" t="s">
         <v>5</v>
@@ -955,8 +962,11 @@
       <c r="AD9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,19 +974,19 @@
         <v>1000</v>
       </c>
       <c r="E10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="3">
         <v>1100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1200</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1100</v>
       </c>
       <c r="J10" s="3">
         <v>1100</v>
@@ -988,43 +998,43 @@
         <v>1100</v>
       </c>
       <c r="M10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N10" s="3">
         <v>1300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>1600</v>
       </c>
       <c r="R10" s="3">
         <v>1600</v>
       </c>
       <c r="S10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T10" s="3">
         <v>1500</v>
-      </c>
-      <c r="T10" s="3">
-        <v>1600</v>
       </c>
       <c r="U10" s="3">
         <v>1600</v>
       </c>
       <c r="V10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W10" s="3">
         <v>1500</v>
-      </c>
-      <c r="W10" s="3">
-        <v>1400</v>
       </c>
       <c r="X10" s="3">
         <v>1400</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>5</v>
+      <c r="Y10" s="3">
+        <v>1400</v>
       </c>
       <c r="Z10" s="3" t="s">
         <v>5</v>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,16 +1262,19 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1266,20 +1286,20 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-500</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1295,8 +1315,8 @@
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,8 +1472,9 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1455,10 +1482,10 @@
         <v>1200</v>
       </c>
       <c r="E17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="3">
         <v>1500</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1200</v>
       </c>
       <c r="G17" s="3">
         <v>1200</v>
@@ -1467,73 +1494,76 @@
         <v>1200</v>
       </c>
       <c r="I17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J17" s="3">
         <v>1000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1200</v>
       </c>
       <c r="K17" s="3">
         <v>1200</v>
       </c>
       <c r="L17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1400</v>
-      </c>
-      <c r="V17" s="3">
-        <v>1200</v>
       </c>
       <c r="W17" s="3">
         <v>1200</v>
       </c>
       <c r="X17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y17" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>1200</v>
       </c>
       <c r="Z17" s="3">
         <v>1200</v>
       </c>
       <c r="AA17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AB17" s="3">
         <v>1300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1541,34 +1571,34 @@
         <v>100</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H18" s="3">
         <v>200</v>
       </c>
       <c r="I18" s="3">
+        <v>200</v>
+      </c>
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3">
-        <v>100</v>
-      </c>
       <c r="K18" s="3">
         <v>100</v>
       </c>
       <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3">
         <v>600</v>
       </c>
-      <c r="M18" s="3">
-        <v>300</v>
-      </c>
       <c r="N18" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O18" s="3">
         <v>200</v>
@@ -1577,16 +1607,16 @@
         <v>200</v>
       </c>
       <c r="Q18" s="3">
+        <v>200</v>
+      </c>
+      <c r="R18" s="3">
         <v>400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>500</v>
       </c>
-      <c r="S18" s="3">
-        <v>300</v>
-      </c>
       <c r="T18" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="U18" s="3">
         <v>500</v>
@@ -1598,28 +1628,31 @@
         <v>500</v>
       </c>
       <c r="X18" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y18" s="3">
         <v>600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>500</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>400</v>
       </c>
       <c r="AA18" s="3">
         <v>400</v>
       </c>
       <c r="AB18" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AC18" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD18" s="3">
         <v>400</v>
       </c>
-      <c r="AD18" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1659,7 +1693,7 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1736,43 +1770,46 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F21" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H21" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I21" s="3">
+        <v>300</v>
+      </c>
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="J21" s="3">
-        <v>100</v>
-      </c>
       <c r="K21" s="3">
         <v>100</v>
       </c>
       <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
         <v>600</v>
       </c>
-      <c r="M21" s="3">
-        <v>300</v>
-      </c>
       <c r="N21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O21" s="3">
         <v>200</v>
@@ -1781,16 +1818,16 @@
         <v>200</v>
       </c>
       <c r="Q21" s="3">
+        <v>200</v>
+      </c>
+      <c r="R21" s="3">
         <v>400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>400</v>
-      </c>
-      <c r="T21" s="3">
-        <v>500</v>
       </c>
       <c r="U21" s="3">
         <v>500</v>
@@ -1802,13 +1839,13 @@
         <v>500</v>
       </c>
       <c r="X21" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y21" s="3">
         <v>600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>500</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>400</v>
       </c>
       <c r="AA21" s="3">
         <v>400</v>
@@ -1820,18 +1857,21 @@
         <v>400</v>
       </c>
       <c r="AD21" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1854,8 +1894,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>5</v>
@@ -1872,8 +1912,8 @@
       <c r="R22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1893,8 +1933,8 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>5</v>
+      <c r="Z22" s="3">
+        <v>0</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>5</v>
@@ -1902,14 +1942,17 @@
       <c r="AB22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC22" s="3">
-        <v>0</v>
+      <c r="AC22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1917,52 +1960,52 @@
         <v>200</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F23" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H23" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I23" s="3">
+        <v>300</v>
+      </c>
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
       <c r="K23" s="3">
         <v>100</v>
       </c>
       <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
         <v>600</v>
       </c>
-      <c r="M23" s="3">
-        <v>300</v>
-      </c>
       <c r="N23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="3">
+        <v>200</v>
+      </c>
+      <c r="R23" s="3">
         <v>400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>500</v>
       </c>
-      <c r="S23" s="3">
-        <v>300</v>
-      </c>
       <c r="T23" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="U23" s="3">
         <v>400</v>
@@ -1971,16 +2014,16 @@
         <v>400</v>
       </c>
       <c r="W23" s="3">
+        <v>400</v>
+      </c>
+      <c r="X23" s="3">
         <v>500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>500</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>400</v>
       </c>
       <c r="AA23" s="3">
         <v>400</v>
@@ -1992,10 +2035,13 @@
         <v>400</v>
       </c>
       <c r="AD23" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2003,28 +2049,28 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>100</v>
@@ -2033,13 +2079,13 @@
         <v>100</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R24" s="3">
         <v>100</v>
@@ -2060,7 +2106,7 @@
         <v>100</v>
       </c>
       <c r="X24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y24" s="3">
         <v>200</v>
@@ -2078,10 +2124,13 @@
         <v>200</v>
       </c>
       <c r="AD24" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,43 +2215,46 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J26" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K26" s="3">
         <v>100</v>
       </c>
       <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
         <v>500</v>
       </c>
-      <c r="M26" s="3">
-        <v>200</v>
-      </c>
       <c r="N26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O26" s="3">
         <v>100</v>
@@ -2211,16 +2263,16 @@
         <v>100</v>
       </c>
       <c r="Q26" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R26" s="3">
+        <v>300</v>
+      </c>
+      <c r="S26" s="3">
         <v>400</v>
       </c>
-      <c r="S26" s="3">
-        <v>200</v>
-      </c>
       <c r="T26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U26" s="3">
         <v>300</v>
@@ -2232,13 +2284,13 @@
         <v>300</v>
       </c>
       <c r="X26" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y26" s="3">
         <v>400</v>
       </c>
-      <c r="Y26" s="3">
-        <v>300</v>
-      </c>
       <c r="Z26" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AA26" s="3">
         <v>200</v>
@@ -2252,43 +2304,46 @@
       <c r="AD26" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J27" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K27" s="3">
         <v>100</v>
       </c>
       <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
         <v>500</v>
       </c>
-      <c r="M27" s="3">
-        <v>200</v>
-      </c>
       <c r="N27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O27" s="3">
         <v>100</v>
@@ -2297,16 +2352,16 @@
         <v>100</v>
       </c>
       <c r="Q27" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R27" s="3">
+        <v>300</v>
+      </c>
+      <c r="S27" s="3">
         <v>400</v>
       </c>
-      <c r="S27" s="3">
-        <v>200</v>
-      </c>
       <c r="T27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U27" s="3">
         <v>300</v>
@@ -2318,13 +2373,13 @@
         <v>300</v>
       </c>
       <c r="X27" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y27" s="3">
         <v>400</v>
       </c>
-      <c r="Y27" s="3">
-        <v>300</v>
-      </c>
       <c r="Z27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AA27" s="3">
         <v>200</v>
@@ -2338,8 +2393,11 @@
       <c r="AD27" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2474,8 +2535,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
@@ -2492,11 +2553,11 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>5</v>
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>5</v>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2691,7 +2761,7 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2768,43 +2838,46 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J33" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K33" s="3">
         <v>100</v>
       </c>
       <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
         <v>500</v>
       </c>
-      <c r="M33" s="3">
-        <v>200</v>
-      </c>
       <c r="N33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O33" s="3">
         <v>100</v>
@@ -2813,16 +2886,16 @@
         <v>100</v>
       </c>
       <c r="Q33" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R33" s="3">
+        <v>300</v>
+      </c>
+      <c r="S33" s="3">
         <v>400</v>
       </c>
-      <c r="S33" s="3">
-        <v>200</v>
-      </c>
       <c r="T33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U33" s="3">
         <v>300</v>
@@ -2834,13 +2907,13 @@
         <v>300</v>
       </c>
       <c r="X33" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y33" s="3">
         <v>400</v>
       </c>
-      <c r="Y33" s="3">
-        <v>300</v>
-      </c>
       <c r="Z33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AA33" s="3">
         <v>200</v>
@@ -2854,8 +2927,11 @@
       <c r="AD33" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,43 +3016,46 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J35" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K35" s="3">
         <v>100</v>
       </c>
       <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
         <v>500</v>
       </c>
-      <c r="M35" s="3">
-        <v>200</v>
-      </c>
       <c r="N35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O35" s="3">
         <v>100</v>
@@ -2985,16 +3064,16 @@
         <v>100</v>
       </c>
       <c r="Q35" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R35" s="3">
+        <v>300</v>
+      </c>
+      <c r="S35" s="3">
         <v>400</v>
       </c>
-      <c r="S35" s="3">
-        <v>200</v>
-      </c>
       <c r="T35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U35" s="3">
         <v>300</v>
@@ -3006,13 +3085,13 @@
         <v>300</v>
       </c>
       <c r="X35" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y35" s="3">
         <v>400</v>
       </c>
-      <c r="Y35" s="3">
-        <v>300</v>
-      </c>
       <c r="Z35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AA35" s="3">
         <v>200</v>
@@ -3026,99 +3105,105 @@
       <c r="AD35" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,106 +3267,110 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="E41" s="3">
         <v>2000</v>
       </c>
       <c r="F41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G41" s="3">
         <v>10600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8500</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>8100</v>
       </c>
       <c r="R41" s="3">
         <v>8100</v>
       </c>
       <c r="S41" s="3">
+        <v>8100</v>
+      </c>
+      <c r="T41" s="3">
         <v>7600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>5400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>5100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>5000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E42" s="3">
         <v>8800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>8700</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>5</v>
       </c>
@@ -3293,8 +3383,8 @@
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -3353,16 +3443,19 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>900</v>
+      </c>
+      <c r="E43" s="3">
         <v>1000</v>
-      </c>
-      <c r="E43" s="3">
-        <v>900</v>
       </c>
       <c r="F43" s="3">
         <v>900</v>
@@ -3374,22 +3467,22 @@
         <v>900</v>
       </c>
       <c r="I43" s="3">
+        <v>900</v>
+      </c>
+      <c r="J43" s="3">
         <v>1000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1100</v>
-      </c>
-      <c r="N43" s="3">
-        <v>1000</v>
       </c>
       <c r="O43" s="3">
         <v>1000</v>
@@ -3398,49 +3491,52 @@
         <v>1000</v>
       </c>
       <c r="Q43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R43" s="3">
         <v>1100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1000</v>
-      </c>
-      <c r="S43" s="3">
-        <v>1100</v>
       </c>
       <c r="T43" s="3">
         <v>1100</v>
       </c>
       <c r="U43" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="V43" s="3">
         <v>1000</v>
       </c>
       <c r="W43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X43" s="3">
         <v>800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>700</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>1000</v>
       </c>
       <c r="Z43" s="3">
         <v>1000</v>
       </c>
       <c r="AA43" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="AB43" s="3">
         <v>1100</v>
       </c>
       <c r="AC43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AD43" s="3">
         <v>800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3543,7 +3642,7 @@
         <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -3564,10 +3663,10 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q45" s="3">
         <v>300</v>
@@ -3588,11 +3687,11 @@
         <v>300</v>
       </c>
       <c r="W45" s="3">
+        <v>300</v>
+      </c>
+      <c r="X45" s="3">
         <v>400</v>
       </c>
-      <c r="X45" s="3">
-        <v>200</v>
-      </c>
       <c r="Y45" s="3">
         <v>200</v>
       </c>
@@ -3600,105 +3699,111 @@
         <v>200</v>
       </c>
       <c r="AA45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AC45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AD45" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E46" s="3">
         <v>12000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11700</v>
-      </c>
-      <c r="G46" s="3">
-        <v>11500</v>
       </c>
       <c r="H46" s="3">
         <v>11500</v>
       </c>
       <c r="I46" s="3">
+        <v>11500</v>
+      </c>
+      <c r="J46" s="3">
         <v>11100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>11000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>7600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>7100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>6800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>6600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>6400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>6000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,8 +3888,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3804,34 +3912,34 @@
         <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
       </c>
       <c r="K48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M48" s="3">
         <v>400</v>
       </c>
       <c r="N48" s="3">
+        <v>400</v>
+      </c>
+      <c r="O48" s="3">
         <v>500</v>
-      </c>
-      <c r="O48" s="3">
-        <v>600</v>
       </c>
       <c r="P48" s="3">
         <v>600</v>
       </c>
       <c r="Q48" s="3">
+        <v>600</v>
+      </c>
+      <c r="R48" s="3">
         <v>700</v>
-      </c>
-      <c r="R48" s="3">
-        <v>800</v>
       </c>
       <c r="S48" s="3">
         <v>800</v>
@@ -3840,7 +3948,7 @@
         <v>800</v>
       </c>
       <c r="U48" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="V48" s="3">
         <v>100</v>
@@ -3849,7 +3957,7 @@
         <v>100</v>
       </c>
       <c r="X48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y48" s="3">
         <v>200</v>
@@ -3869,8 +3977,11 @@
       <c r="AD48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,28 +4422,31 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E54" s="3">
         <v>12200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11600</v>
-      </c>
-      <c r="I54" s="3">
-        <v>11300</v>
       </c>
       <c r="J54" s="3">
         <v>11300</v>
@@ -4329,64 +4455,67 @@
         <v>11300</v>
       </c>
       <c r="L54" s="3">
+        <v>11300</v>
+      </c>
+      <c r="M54" s="3">
         <v>11200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10100</v>
-      </c>
-      <c r="S54" s="3">
-        <v>9700</v>
       </c>
       <c r="T54" s="3">
         <v>9700</v>
       </c>
       <c r="U54" s="3">
+        <v>9700</v>
+      </c>
+      <c r="V54" s="3">
         <v>8500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>7900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>7800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>7300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>7000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>6800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>6600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>6300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,19 +4579,20 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -4470,25 +4601,25 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
@@ -4500,25 +4631,25 @@
         <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
       </c>
       <c r="V57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="3">
         <v>100</v>
@@ -4527,16 +4658,19 @@
         <v>100</v>
       </c>
       <c r="AB57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4555,8 +4689,8 @@
       <c r="H58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -4568,16 +4702,16 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>300</v>
       </c>
       <c r="O58" s="3">
-        <v>200</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
+        <v>300</v>
+      </c>
+      <c r="P58" s="3">
+        <v>200</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>5</v>
@@ -4594,8 +4728,8 @@
       <c r="U58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4621,43 +4755,46 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E59" s="3">
         <v>400</v>
       </c>
       <c r="F59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G59" s="3">
+        <v>300</v>
+      </c>
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
-      </c>
-      <c r="I59" s="3">
-        <v>500</v>
       </c>
       <c r="J59" s="3">
         <v>500</v>
       </c>
       <c r="K59" s="3">
+        <v>500</v>
+      </c>
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
-      </c>
-      <c r="N59" s="3">
-        <v>600</v>
       </c>
       <c r="O59" s="3">
         <v>600</v>
@@ -4675,84 +4812,87 @@
         <v>600</v>
       </c>
       <c r="T59" s="3">
+        <v>600</v>
+      </c>
+      <c r="U59" s="3">
         <v>700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>400</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>600</v>
       </c>
       <c r="AB59" s="3">
         <v>600</v>
       </c>
       <c r="AC59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="AD59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E60" s="3">
         <v>700</v>
       </c>
       <c r="F60" s="3">
+        <v>700</v>
+      </c>
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>600</v>
       </c>
       <c r="K60" s="3">
         <v>600</v>
       </c>
       <c r="L60" s="3">
+        <v>600</v>
+      </c>
+      <c r="M60" s="3">
         <v>900</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1000</v>
       </c>
       <c r="N60" s="3">
         <v>1000</v>
       </c>
       <c r="O60" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="P60" s="3">
         <v>800</v>
       </c>
       <c r="Q60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="R60" s="3">
         <v>700</v>
@@ -4761,40 +4901,43 @@
         <v>700</v>
       </c>
       <c r="T60" s="3">
+        <v>700</v>
+      </c>
+      <c r="U60" s="3">
         <v>800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>400</v>
-      </c>
-      <c r="V60" s="3">
-        <v>500</v>
       </c>
       <c r="W60" s="3">
         <v>500</v>
       </c>
       <c r="X60" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y60" s="3">
         <v>600</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>500</v>
       </c>
       <c r="Z60" s="3">
         <v>500</v>
       </c>
       <c r="AA60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AB60" s="3">
         <v>600</v>
       </c>
       <c r="AC60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AD60" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4817,25 +4960,25 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>200</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4912,32 +5058,32 @@
         <v>0</v>
       </c>
       <c r="M62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
       </c>
       <c r="O62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q62" s="3">
         <v>300</v>
       </c>
       <c r="R62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S62" s="3">
         <v>400</v>
       </c>
       <c r="T62" s="3">
+        <v>400</v>
+      </c>
+      <c r="U62" s="3">
         <v>500</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4947,8 +5093,8 @@
       <c r="X62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,40 +5378,43 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E66" s="3">
         <v>700</v>
       </c>
       <c r="F66" s="3">
+        <v>700</v>
+      </c>
+      <c r="G66" s="3">
         <v>400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>500</v>
-      </c>
-      <c r="J66" s="3">
-        <v>800</v>
       </c>
       <c r="K66" s="3">
         <v>800</v>
       </c>
       <c r="L66" s="3">
+        <v>800</v>
+      </c>
+      <c r="M66" s="3">
         <v>900</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1300</v>
       </c>
       <c r="N66" s="3">
         <v>1300</v>
@@ -5265,52 +5423,55 @@
         <v>1300</v>
       </c>
       <c r="P66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1000</v>
-      </c>
-      <c r="R66" s="3">
-        <v>1100</v>
       </c>
       <c r="S66" s="3">
         <v>1100</v>
       </c>
       <c r="T66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U66" s="3">
         <v>1300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>400</v>
-      </c>
-      <c r="V66" s="3">
-        <v>500</v>
       </c>
       <c r="W66" s="3">
         <v>500</v>
       </c>
       <c r="X66" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y66" s="3">
         <v>600</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>500</v>
       </c>
       <c r="Z66" s="3">
         <v>500</v>
       </c>
       <c r="AA66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AB66" s="3">
         <v>600</v>
       </c>
       <c r="AC66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AD66" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E72" s="3">
         <v>11000</v>
-      </c>
-      <c r="E72" s="3">
-        <v>10900</v>
       </c>
       <c r="F72" s="3">
         <v>10900</v>
       </c>
       <c r="G72" s="3">
+        <v>10900</v>
+      </c>
+      <c r="H72" s="3">
         <v>10700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>6700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>6300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>6000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>5800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>5600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>5300</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E76" s="3">
         <v>11400</v>
-      </c>
-      <c r="E76" s="3">
-        <v>11300</v>
       </c>
       <c r="F76" s="3">
         <v>11300</v>
       </c>
       <c r="G76" s="3">
+        <v>11300</v>
+      </c>
+      <c r="H76" s="3">
         <v>11100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>6700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>6500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>6200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>6000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>5800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,134 +6390,140 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J81" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K81" s="3">
         <v>100</v>
       </c>
       <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
         <v>500</v>
       </c>
-      <c r="M81" s="3">
-        <v>200</v>
-      </c>
       <c r="N81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O81" s="3">
         <v>100</v>
@@ -6337,16 +6532,16 @@
         <v>100</v>
       </c>
       <c r="Q81" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R81" s="3">
+        <v>300</v>
+      </c>
+      <c r="S81" s="3">
         <v>400</v>
       </c>
-      <c r="S81" s="3">
-        <v>200</v>
-      </c>
       <c r="T81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U81" s="3">
         <v>300</v>
@@ -6358,13 +6553,13 @@
         <v>300</v>
       </c>
       <c r="X81" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y81" s="3">
         <v>400</v>
       </c>
-      <c r="Y81" s="3">
-        <v>300</v>
-      </c>
       <c r="Z81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AA81" s="3">
         <v>200</v>
@@ -6378,8 +6573,11 @@
       <c r="AD81" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G89" s="3">
+        <v>200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>100</v>
-      </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>400</v>
       </c>
-      <c r="M89" s="3">
-        <v>300</v>
-      </c>
       <c r="N89" s="3">
         <v>300</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>400</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>600</v>
       </c>
-      <c r="S89" s="3">
-        <v>200</v>
-      </c>
       <c r="T89" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U89" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V89" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W89" s="3">
+        <v>300</v>
+      </c>
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>900</v>
       </c>
-      <c r="Y89" s="3">
-        <v>200</v>
-      </c>
       <c r="Z89" s="3">
         <v>200</v>
       </c>
       <c r="AA89" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB89" s="3">
         <v>400</v>
       </c>
-      <c r="AB89" s="3">
-        <v>100</v>
-      </c>
       <c r="AC89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AD89" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,20 +7529,23 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-8700</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,13 +8007,16 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -7791,10 +8037,10 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -7803,11 +8049,11 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -7850,8 +8096,11 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,90 +8185,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-8600</v>
       </c>
-      <c r="F102" s="3">
-        <v>200</v>
-      </c>
       <c r="G102" s="3">
+        <v>200</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
+        <v>200</v>
+      </c>
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
-        <v>300</v>
-      </c>
       <c r="N102" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O102" s="3">
+        <v>200</v>
+      </c>
+      <c r="P102" s="3">
         <v>500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>500</v>
       </c>
-      <c r="S102" s="3">
-        <v>200</v>
-      </c>
       <c r="T102" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U102" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V102" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W102" s="3">
+        <v>300</v>
+      </c>
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>900</v>
       </c>
-      <c r="Y102" s="3">
-        <v>200</v>
-      </c>
       <c r="Z102" s="3">
         <v>200</v>
       </c>
       <c r="AA102" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AB102" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AC102" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AD102" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFHO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFHO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>PFHO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,147 +665,151 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E8" s="3">
         <v>1300</v>
       </c>
       <c r="F8" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G8" s="3">
         <v>1500</v>
       </c>
       <c r="H8" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I8" s="3">
         <v>1400</v>
@@ -814,7 +818,7 @@
         <v>1400</v>
       </c>
       <c r="K8" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L8" s="3">
         <v>1300</v>
@@ -823,22 +827,22 @@
         <v>1300</v>
       </c>
       <c r="N8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O8" s="3">
         <v>1600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1900</v>
-      </c>
-      <c r="S8" s="3">
-        <v>1800</v>
       </c>
       <c r="T8" s="3">
         <v>1800</v>
@@ -847,37 +851,40 @@
         <v>1800</v>
       </c>
       <c r="V8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="W8" s="3">
         <v>1900</v>
-      </c>
-      <c r="W8" s="3">
-        <v>1700</v>
       </c>
       <c r="X8" s="3">
         <v>1700</v>
       </c>
       <c r="Y8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Z8" s="3">
         <v>1600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1500</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1700</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -888,22 +895,22 @@
         <v>300</v>
       </c>
       <c r="F9" s="3">
+        <v>300</v>
+      </c>
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
-        <v>200</v>
-      </c>
       <c r="H9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L9" s="3">
         <v>200</v>
@@ -912,10 +919,10 @@
         <v>200</v>
       </c>
       <c r="N9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P9" s="3">
         <v>200</v>
@@ -924,31 +931,31 @@
         <v>200</v>
       </c>
       <c r="R9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y9" s="3">
-        <v>200</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>5</v>
+        <v>300</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>200</v>
       </c>
       <c r="AA9" s="3" t="s">
         <v>5</v>
@@ -965,31 +972,34 @@
       <c r="AE9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E10" s="3">
         <v>1000</v>
       </c>
       <c r="F10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="3">
         <v>1100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1200</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1100</v>
       </c>
       <c r="K10" s="3">
         <v>1100</v>
@@ -1001,43 +1011,43 @@
         <v>1100</v>
       </c>
       <c r="N10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O10" s="3">
         <v>1300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1400</v>
-      </c>
-      <c r="R10" s="3">
-        <v>1600</v>
       </c>
       <c r="S10" s="3">
         <v>1600</v>
       </c>
       <c r="T10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U10" s="3">
         <v>1500</v>
-      </c>
-      <c r="U10" s="3">
-        <v>1600</v>
       </c>
       <c r="V10" s="3">
         <v>1600</v>
       </c>
       <c r="W10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="X10" s="3">
         <v>1500</v>
-      </c>
-      <c r="X10" s="3">
-        <v>1400</v>
       </c>
       <c r="Y10" s="3">
         <v>1400</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>5</v>
+      <c r="Z10" s="3">
+        <v>1400</v>
       </c>
       <c r="AA10" s="3" t="s">
         <v>5</v>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1276,8 +1296,8 @@
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1289,20 +1309,20 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-500</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1318,8 +1338,8 @@
       <c r="S14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,8 +1499,9 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1485,10 +1512,10 @@
         <v>1200</v>
       </c>
       <c r="F17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G17" s="3">
         <v>1500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1200</v>
       </c>
       <c r="H17" s="3">
         <v>1200</v>
@@ -1497,111 +1524,114 @@
         <v>1200</v>
       </c>
       <c r="J17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1000</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1200</v>
       </c>
       <c r="L17" s="3">
         <v>1200</v>
       </c>
       <c r="M17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1400</v>
-      </c>
-      <c r="W17" s="3">
-        <v>1200</v>
       </c>
       <c r="X17" s="3">
         <v>1200</v>
       </c>
       <c r="Y17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z17" s="3">
         <v>1000</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>1200</v>
       </c>
       <c r="AA17" s="3">
         <v>1200</v>
       </c>
       <c r="AB17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AC17" s="3">
         <v>1300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1200</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1300</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E18" s="3">
         <v>100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I18" s="3">
         <v>200</v>
       </c>
       <c r="J18" s="3">
+        <v>200</v>
+      </c>
+      <c r="K18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
       <c r="L18" s="3">
         <v>100</v>
       </c>
       <c r="M18" s="3">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3">
         <v>600</v>
       </c>
-      <c r="N18" s="3">
-        <v>300</v>
-      </c>
       <c r="O18" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P18" s="3">
         <v>200</v>
@@ -1610,16 +1640,16 @@
         <v>200</v>
       </c>
       <c r="R18" s="3">
+        <v>200</v>
+      </c>
+      <c r="S18" s="3">
         <v>400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>500</v>
       </c>
-      <c r="T18" s="3">
-        <v>300</v>
-      </c>
       <c r="U18" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="V18" s="3">
         <v>500</v>
@@ -1631,28 +1661,31 @@
         <v>500</v>
       </c>
       <c r="Y18" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z18" s="3">
         <v>600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>500</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>400</v>
       </c>
       <c r="AB18" s="3">
         <v>400</v>
       </c>
       <c r="AC18" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AD18" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE18" s="3">
         <v>400</v>
       </c>
-      <c r="AE18" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1696,7 +1730,7 @@
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1773,8 +1807,11 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1782,37 +1819,37 @@
         <v>300</v>
       </c>
       <c r="E21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G21" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I21" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J21" s="3">
+        <v>300</v>
+      </c>
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
       <c r="L21" s="3">
         <v>100</v>
       </c>
       <c r="M21" s="3">
+        <v>100</v>
+      </c>
+      <c r="N21" s="3">
         <v>600</v>
       </c>
-      <c r="N21" s="3">
-        <v>300</v>
-      </c>
       <c r="O21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P21" s="3">
         <v>200</v>
@@ -1821,16 +1858,16 @@
         <v>200</v>
       </c>
       <c r="R21" s="3">
+        <v>200</v>
+      </c>
+      <c r="S21" s="3">
         <v>400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>400</v>
-      </c>
-      <c r="U21" s="3">
-        <v>500</v>
       </c>
       <c r="V21" s="3">
         <v>500</v>
@@ -1842,13 +1879,13 @@
         <v>500</v>
       </c>
       <c r="Y21" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z21" s="3">
         <v>600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>500</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>400</v>
       </c>
       <c r="AB21" s="3">
         <v>400</v>
@@ -1860,10 +1897,13 @@
         <v>400</v>
       </c>
       <c r="AE21" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1873,8 +1913,8 @@
       <c r="E22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1897,8 +1937,8 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>5</v>
@@ -1915,8 +1955,8 @@
       <c r="S22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1936,8 +1976,8 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>5</v>
+      <c r="AA22" s="3">
+        <v>0</v>
       </c>
       <c r="AB22" s="3" t="s">
         <v>5</v>
@@ -1945,14 +1985,17 @@
       <c r="AC22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AD22" s="3">
-        <v>0</v>
+      <c r="AD22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1963,52 +2006,52 @@
         <v>200</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G23" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I23" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J23" s="3">
+        <v>300</v>
+      </c>
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
       <c r="L23" s="3">
         <v>100</v>
       </c>
       <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
         <v>600</v>
       </c>
-      <c r="N23" s="3">
-        <v>300</v>
-      </c>
       <c r="O23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R23" s="3">
+        <v>200</v>
+      </c>
+      <c r="S23" s="3">
         <v>400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>500</v>
       </c>
-      <c r="T23" s="3">
-        <v>300</v>
-      </c>
       <c r="U23" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="V23" s="3">
         <v>400</v>
@@ -2017,16 +2060,16 @@
         <v>400</v>
       </c>
       <c r="X23" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y23" s="3">
         <v>500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>500</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>400</v>
       </c>
       <c r="AB23" s="3">
         <v>400</v>
@@ -2038,10 +2081,13 @@
         <v>400</v>
       </c>
       <c r="AE23" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2052,28 +2098,28 @@
         <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
@@ -2082,13 +2128,13 @@
         <v>100</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S24" s="3">
         <v>100</v>
@@ -2109,7 +2155,7 @@
         <v>100</v>
       </c>
       <c r="Y24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z24" s="3">
         <v>200</v>
@@ -2127,10 +2173,13 @@
         <v>200</v>
       </c>
       <c r="AE24" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,46 +2267,49 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>200</v>
+      <c r="D26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K26" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L26" s="3">
         <v>100</v>
       </c>
       <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
         <v>500</v>
       </c>
-      <c r="N26" s="3">
-        <v>200</v>
-      </c>
       <c r="O26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P26" s="3">
         <v>100</v>
@@ -2266,16 +2318,16 @@
         <v>100</v>
       </c>
       <c r="R26" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S26" s="3">
+        <v>300</v>
+      </c>
+      <c r="T26" s="3">
         <v>400</v>
       </c>
-      <c r="T26" s="3">
-        <v>200</v>
-      </c>
       <c r="U26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V26" s="3">
         <v>300</v>
@@ -2287,13 +2339,13 @@
         <v>300</v>
       </c>
       <c r="Y26" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z26" s="3">
         <v>400</v>
       </c>
-      <c r="Z26" s="3">
-        <v>300</v>
-      </c>
       <c r="AA26" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AB26" s="3">
         <v>200</v>
@@ -2307,46 +2359,49 @@
       <c r="AE26" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>200</v>
+      <c r="D27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K27" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L27" s="3">
         <v>100</v>
       </c>
       <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
         <v>500</v>
       </c>
-      <c r="N27" s="3">
-        <v>200</v>
-      </c>
       <c r="O27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P27" s="3">
         <v>100</v>
@@ -2355,16 +2410,16 @@
         <v>100</v>
       </c>
       <c r="R27" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S27" s="3">
+        <v>300</v>
+      </c>
+      <c r="T27" s="3">
         <v>400</v>
       </c>
-      <c r="T27" s="3">
-        <v>200</v>
-      </c>
       <c r="U27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V27" s="3">
         <v>300</v>
@@ -2376,13 +2431,13 @@
         <v>300</v>
       </c>
       <c r="Y27" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z27" s="3">
         <v>400</v>
       </c>
-      <c r="Z27" s="3">
-        <v>300</v>
-      </c>
       <c r="AA27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AB27" s="3">
         <v>200</v>
@@ -2396,8 +2451,11 @@
       <c r="AE27" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2538,8 +2599,8 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
@@ -2556,11 +2617,11 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>5</v>
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>5</v>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2764,7 +2834,7 @@
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2841,46 +2911,49 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>200</v>
+      <c r="D33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K33" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L33" s="3">
         <v>100</v>
       </c>
       <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
         <v>500</v>
       </c>
-      <c r="N33" s="3">
-        <v>200</v>
-      </c>
       <c r="O33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P33" s="3">
         <v>100</v>
@@ -2889,16 +2962,16 @@
         <v>100</v>
       </c>
       <c r="R33" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S33" s="3">
+        <v>300</v>
+      </c>
+      <c r="T33" s="3">
         <v>400</v>
       </c>
-      <c r="T33" s="3">
-        <v>200</v>
-      </c>
       <c r="U33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V33" s="3">
         <v>300</v>
@@ -2910,13 +2983,13 @@
         <v>300</v>
       </c>
       <c r="Y33" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z33" s="3">
         <v>400</v>
       </c>
-      <c r="Z33" s="3">
-        <v>300</v>
-      </c>
       <c r="AA33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AB33" s="3">
         <v>200</v>
@@ -2930,8 +3003,11 @@
       <c r="AE33" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,46 +3095,49 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>200</v>
+      <c r="D35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K35" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L35" s="3">
         <v>100</v>
       </c>
       <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
         <v>500</v>
       </c>
-      <c r="N35" s="3">
-        <v>200</v>
-      </c>
       <c r="O35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P35" s="3">
         <v>100</v>
@@ -3067,16 +3146,16 @@
         <v>100</v>
       </c>
       <c r="R35" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S35" s="3">
+        <v>300</v>
+      </c>
+      <c r="T35" s="3">
         <v>400</v>
       </c>
-      <c r="T35" s="3">
-        <v>200</v>
-      </c>
       <c r="U35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V35" s="3">
         <v>300</v>
@@ -3088,13 +3167,13 @@
         <v>300</v>
       </c>
       <c r="Y35" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z35" s="3">
         <v>400</v>
       </c>
-      <c r="Z35" s="3">
-        <v>300</v>
-      </c>
       <c r="AA35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AB35" s="3">
         <v>200</v>
@@ -3108,102 +3187,108 @@
       <c r="AE35" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,112 +3354,116 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E41" s="3">
         <v>2300</v>
-      </c>
-      <c r="E41" s="3">
-        <v>2000</v>
       </c>
       <c r="F41" s="3">
         <v>2000</v>
       </c>
       <c r="G41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H41" s="3">
         <v>10600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8500</v>
-      </c>
-      <c r="R41" s="3">
-        <v>8100</v>
       </c>
       <c r="S41" s="3">
         <v>8100</v>
       </c>
       <c r="T41" s="3">
+        <v>8100</v>
+      </c>
+      <c r="U41" s="3">
         <v>7600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>5600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>5400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>5100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>5000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E42" s="3">
         <v>7700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>8800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>8700</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
@@ -3386,8 +3476,8 @@
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -3446,19 +3536,22 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="3">
         <v>900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1000</v>
-      </c>
-      <c r="F43" s="3">
-        <v>900</v>
       </c>
       <c r="G43" s="3">
         <v>900</v>
@@ -3470,22 +3563,22 @@
         <v>900</v>
       </c>
       <c r="J43" s="3">
+        <v>900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1100</v>
-      </c>
-      <c r="O43" s="3">
-        <v>1000</v>
       </c>
       <c r="P43" s="3">
         <v>1000</v>
@@ -3494,49 +3587,52 @@
         <v>1000</v>
       </c>
       <c r="R43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S43" s="3">
         <v>1100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1000</v>
-      </c>
-      <c r="T43" s="3">
-        <v>1100</v>
       </c>
       <c r="U43" s="3">
         <v>1100</v>
       </c>
       <c r="V43" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="W43" s="3">
         <v>1000</v>
       </c>
       <c r="X43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y43" s="3">
         <v>800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>700</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>1000</v>
       </c>
       <c r="AA43" s="3">
         <v>1000</v>
       </c>
       <c r="AB43" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="AC43" s="3">
         <v>1100</v>
       </c>
       <c r="AD43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AE43" s="3">
         <v>800</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,13 +3720,16 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
@@ -3645,7 +3744,7 @@
         <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -3666,10 +3765,10 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R45" s="3">
         <v>300</v>
@@ -3690,11 +3789,11 @@
         <v>300</v>
       </c>
       <c r="X45" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y45" s="3">
         <v>400</v>
       </c>
-      <c r="Y45" s="3">
-        <v>200</v>
-      </c>
       <c r="Z45" s="3">
         <v>200</v>
       </c>
@@ -3702,108 +3801,114 @@
         <v>200</v>
       </c>
       <c r="AB45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AD45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AE45" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E46" s="3">
         <v>11100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11700</v>
-      </c>
-      <c r="H46" s="3">
-        <v>11500</v>
       </c>
       <c r="I46" s="3">
         <v>11500</v>
       </c>
       <c r="J46" s="3">
+        <v>11500</v>
+      </c>
+      <c r="K46" s="3">
         <v>11100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>7700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>7600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>7100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>6800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>6600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>6400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>6000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,8 +3996,11 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3915,34 +4023,34 @@
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
       </c>
       <c r="L48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N48" s="3">
         <v>400</v>
       </c>
       <c r="O48" s="3">
+        <v>400</v>
+      </c>
+      <c r="P48" s="3">
         <v>500</v>
-      </c>
-      <c r="P48" s="3">
-        <v>600</v>
       </c>
       <c r="Q48" s="3">
         <v>600</v>
       </c>
       <c r="R48" s="3">
+        <v>600</v>
+      </c>
+      <c r="S48" s="3">
         <v>700</v>
-      </c>
-      <c r="S48" s="3">
-        <v>800</v>
       </c>
       <c r="T48" s="3">
         <v>800</v>
@@ -3951,7 +4059,7 @@
         <v>800</v>
       </c>
       <c r="V48" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="W48" s="3">
         <v>100</v>
@@ -3960,7 +4068,7 @@
         <v>100</v>
       </c>
       <c r="Y48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z48" s="3">
         <v>200</v>
@@ -3980,8 +4088,11 @@
       <c r="AE48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,31 +4548,34 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E54" s="3">
         <v>11200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11600</v>
-      </c>
-      <c r="J54" s="3">
-        <v>11300</v>
       </c>
       <c r="K54" s="3">
         <v>11300</v>
@@ -4458,64 +4584,67 @@
         <v>11300</v>
       </c>
       <c r="M54" s="3">
+        <v>11300</v>
+      </c>
+      <c r="N54" s="3">
         <v>11200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10100</v>
-      </c>
-      <c r="T54" s="3">
-        <v>9700</v>
       </c>
       <c r="U54" s="3">
         <v>9700</v>
       </c>
       <c r="V54" s="3">
+        <v>9700</v>
+      </c>
+      <c r="W54" s="3">
         <v>8500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>7900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>7800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>7300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>7000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>6800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>6600</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>6300</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,8 +4710,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4589,13 +4720,13 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -4604,25 +4735,25 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
@@ -4634,25 +4765,25 @@
         <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V57" s="3">
         <v>100</v>
       </c>
       <c r="W57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA57" s="3">
         <v>100</v>
@@ -4661,36 +4792,39 @@
         <v>100</v>
       </c>
       <c r="AC57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -4705,16 +4839,16 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>300</v>
       </c>
       <c r="P58" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
+        <v>300</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>200</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>5</v>
@@ -4731,8 +4865,8 @@
       <c r="V58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -4758,8 +4892,11 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4767,37 +4904,37 @@
         <v>700</v>
       </c>
       <c r="E59" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F59" s="3">
         <v>400</v>
       </c>
       <c r="G59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H59" s="3">
+        <v>300</v>
+      </c>
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
-      </c>
-      <c r="J59" s="3">
-        <v>500</v>
       </c>
       <c r="K59" s="3">
         <v>500</v>
       </c>
       <c r="L59" s="3">
+        <v>500</v>
+      </c>
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
-      </c>
-      <c r="O59" s="3">
-        <v>600</v>
       </c>
       <c r="P59" s="3">
         <v>600</v>
@@ -4815,40 +4952,43 @@
         <v>600</v>
       </c>
       <c r="U59" s="3">
+        <v>600</v>
+      </c>
+      <c r="V59" s="3">
         <v>700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>400</v>
-      </c>
-      <c r="AB59" s="3">
-        <v>600</v>
       </c>
       <c r="AC59" s="3">
         <v>600</v>
       </c>
       <c r="AD59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="AE59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4856,46 +4996,46 @@
         <v>800</v>
       </c>
       <c r="E60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F60" s="3">
         <v>700</v>
       </c>
       <c r="G60" s="3">
+        <v>700</v>
+      </c>
+      <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
-      </c>
-      <c r="K60" s="3">
-        <v>600</v>
       </c>
       <c r="L60" s="3">
         <v>600</v>
       </c>
       <c r="M60" s="3">
+        <v>600</v>
+      </c>
+      <c r="N60" s="3">
         <v>900</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1000</v>
       </c>
       <c r="O60" s="3">
         <v>1000</v>
       </c>
       <c r="P60" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q60" s="3">
         <v>800</v>
       </c>
       <c r="R60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="S60" s="3">
         <v>700</v>
@@ -4904,40 +5044,43 @@
         <v>700</v>
       </c>
       <c r="U60" s="3">
+        <v>700</v>
+      </c>
+      <c r="V60" s="3">
         <v>800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>400</v>
-      </c>
-      <c r="W60" s="3">
-        <v>500</v>
       </c>
       <c r="X60" s="3">
         <v>500</v>
       </c>
       <c r="Y60" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z60" s="3">
         <v>600</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>500</v>
       </c>
       <c r="AA60" s="3">
         <v>500</v>
       </c>
       <c r="AB60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AC60" s="3">
         <v>600</v>
       </c>
       <c r="AD60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE60" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4963,25 +5106,25 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>200</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>100</v>
       </c>
       <c r="P61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5061,32 +5207,32 @@
         <v>0</v>
       </c>
       <c r="N62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
       </c>
       <c r="P62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R62" s="3">
         <v>300</v>
       </c>
       <c r="S62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T62" s="3">
         <v>400</v>
       </c>
       <c r="U62" s="3">
+        <v>400</v>
+      </c>
+      <c r="V62" s="3">
         <v>500</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>5</v>
       </c>
@@ -5096,8 +5242,8 @@
       <c r="Y62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z62" s="3">
-        <v>0</v>
+      <c r="Z62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA62" s="3">
         <v>0</v>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,8 +5536,11 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5390,34 +5548,34 @@
         <v>800</v>
       </c>
       <c r="E66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F66" s="3">
         <v>700</v>
       </c>
       <c r="G66" s="3">
+        <v>700</v>
+      </c>
+      <c r="H66" s="3">
         <v>400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
-      </c>
-      <c r="K66" s="3">
-        <v>800</v>
       </c>
       <c r="L66" s="3">
         <v>800</v>
       </c>
       <c r="M66" s="3">
+        <v>800</v>
+      </c>
+      <c r="N66" s="3">
         <v>900</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1300</v>
       </c>
       <c r="O66" s="3">
         <v>1300</v>
@@ -5426,52 +5584,55 @@
         <v>1300</v>
       </c>
       <c r="Q66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1000</v>
-      </c>
-      <c r="S66" s="3">
-        <v>1100</v>
       </c>
       <c r="T66" s="3">
         <v>1100</v>
       </c>
       <c r="U66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V66" s="3">
         <v>1300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>400</v>
-      </c>
-      <c r="W66" s="3">
-        <v>500</v>
       </c>
       <c r="X66" s="3">
         <v>500</v>
       </c>
       <c r="Y66" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z66" s="3">
         <v>600</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>500</v>
       </c>
       <c r="AA66" s="3">
         <v>500</v>
       </c>
       <c r="AB66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AC66" s="3">
         <v>600</v>
       </c>
       <c r="AD66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE66" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E72" s="3">
         <v>9900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>11000</v>
-      </c>
-      <c r="F72" s="3">
-        <v>10900</v>
       </c>
       <c r="G72" s="3">
         <v>10900</v>
       </c>
       <c r="H72" s="3">
+        <v>10900</v>
+      </c>
+      <c r="I72" s="3">
         <v>10700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>7000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>6700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>6300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>6000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>5800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>5600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>5300</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E76" s="3">
         <v>10300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11400</v>
-      </c>
-      <c r="F76" s="3">
-        <v>11300</v>
       </c>
       <c r="G76" s="3">
         <v>11300</v>
       </c>
       <c r="H76" s="3">
+        <v>11300</v>
+      </c>
+      <c r="I76" s="3">
         <v>11100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>6700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>6500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>6200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>6000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>5800</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,140 +6582,146 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>200</v>
+      <c r="D81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K81" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L81" s="3">
         <v>100</v>
       </c>
       <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
         <v>500</v>
       </c>
-      <c r="N81" s="3">
-        <v>200</v>
-      </c>
       <c r="O81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P81" s="3">
         <v>100</v>
@@ -6535,16 +6730,16 @@
         <v>100</v>
       </c>
       <c r="R81" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S81" s="3">
+        <v>300</v>
+      </c>
+      <c r="T81" s="3">
         <v>400</v>
       </c>
-      <c r="T81" s="3">
-        <v>200</v>
-      </c>
       <c r="U81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V81" s="3">
         <v>300</v>
@@ -6556,13 +6751,13 @@
         <v>300</v>
       </c>
       <c r="Y81" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z81" s="3">
         <v>400</v>
       </c>
-      <c r="Z81" s="3">
-        <v>300</v>
-      </c>
       <c r="AA81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AB81" s="3">
         <v>200</v>
@@ -6576,8 +6771,11 @@
       <c r="AE81" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H89" s="3">
+        <v>200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>100</v>
-      </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>400</v>
       </c>
-      <c r="N89" s="3">
-        <v>300</v>
-      </c>
       <c r="O89" s="3">
         <v>300</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>400</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>600</v>
       </c>
-      <c r="T89" s="3">
-        <v>200</v>
-      </c>
       <c r="U89" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V89" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W89" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X89" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>900</v>
       </c>
-      <c r="Z89" s="3">
-        <v>200</v>
-      </c>
       <c r="AA89" s="3">
         <v>200</v>
       </c>
       <c r="AB89" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC89" s="3">
         <v>400</v>
       </c>
-      <c r="AC89" s="3">
-        <v>100</v>
-      </c>
       <c r="AD89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AE89" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,23 +7759,26 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>1100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-8700</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,13 +7887,14 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,17 +8253,20 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -8040,10 +8286,10 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -8052,11 +8298,11 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -8099,8 +8345,11 @@
       <c r="AE100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,93 +8437,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-8600</v>
       </c>
-      <c r="G102" s="3">
-        <v>200</v>
-      </c>
       <c r="H102" s="3">
+        <v>200</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
+        <v>200</v>
+      </c>
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
-        <v>300</v>
-      </c>
       <c r="O102" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P102" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q102" s="3">
         <v>500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>500</v>
       </c>
-      <c r="T102" s="3">
-        <v>200</v>
-      </c>
       <c r="U102" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V102" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W102" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X102" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>900</v>
       </c>
-      <c r="Z102" s="3">
-        <v>200</v>
-      </c>
       <c r="AA102" s="3">
         <v>200</v>
       </c>
       <c r="AB102" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AC102" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AD102" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AE102" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF102" s="3">
         <v>400</v>
       </c>
     </row>
